--- a/on_trucks/Processed_Stand_Alone/3_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/3_225-80R17.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>99</v>
       </c>
       <c r="E2">
-        <v>0.003530365942982215</v>
+        <v>0.003371698938190689</v>
       </c>
       <c r="F2">
         <v>0.5203104946890342</v>
       </c>
       <c r="G2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>101</v>
       </c>
       <c r="E3">
-        <v>0.04371141027217794</v>
+        <v>0.07450432111967209</v>
       </c>
       <c r="F3">
         <v>0.556694523979737</v>
       </c>
       <c r="G3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
       <c r="E4">
-        <v>0.04666878743307424</v>
+        <v>0.00109898484524843</v>
       </c>
       <c r="F4">
         <v>0.5287503368921054</v>
       </c>
       <c r="G4">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>110</v>
       </c>
       <c r="E2">
-        <v>0.003530365942982215</v>
+        <v>0.003371698938190689</v>
       </c>
       <c r="F2">
         <v>0.7033160893555525</v>
       </c>
       <c r="G2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>111</v>
       </c>
       <c r="E3">
-        <v>0.04371141027217794</v>
+        <v>0.07450432111967209</v>
       </c>
       <c r="F3">
         <v>0.7049338103127484</v>
       </c>
       <c r="G3">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>111</v>
       </c>
       <c r="E4">
-        <v>0.04666878743307424</v>
+        <v>0.00109898484524843</v>
       </c>
       <c r="F4">
         <v>0.7036154837534541</v>
       </c>
       <c r="G4">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>145</v>
       </c>
       <c r="E2">
-        <v>0.003530365942982215</v>
+        <v>0.003371698938190689</v>
       </c>
       <c r="F2">
         <v>0.802088976542358</v>
       </c>
       <c r="G2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>147</v>
       </c>
       <c r="E3">
-        <v>0.04371141027217794</v>
+        <v>0.07450432111967209</v>
       </c>
       <c r="F3">
         <v>0.803301458192072</v>
       </c>
       <c r="G3">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>146</v>
       </c>
       <c r="E4">
-        <v>0.04666878743307424</v>
+        <v>0.00109898484524843</v>
       </c>
       <c r="F4">
         <v>0.8010265375715363</v>
       </c>
       <c r="G4">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>173</v>
       </c>
       <c r="E2">
-        <v>0.003530365942982215</v>
+        <v>0.003371698938190689</v>
       </c>
       <c r="F2">
         <v>0.9000413776613861</v>
       </c>
       <c r="G2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>175</v>
       </c>
       <c r="E3">
-        <v>0.04371141027217794</v>
+        <v>0.07450432111967209</v>
       </c>
       <c r="F3">
         <v>0.9041431809926732</v>
       </c>
       <c r="G3">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>174</v>
       </c>
       <c r="E4">
-        <v>0.04666878743307424</v>
+        <v>0.00109898484524843</v>
       </c>
       <c r="F4">
         <v>0.9064644632870051</v>
       </c>
       <c r="G4">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H4">
         <v>3</v>

--- a/on_trucks/Processed_Stand_Alone/3_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/3_225-80R17.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0002440406073696921</v>
+        <v>0.0002316035178895454</v>
       </c>
       <c r="C2">
-        <v>0.000190681365758316</v>
+        <v>0.000178109886793694</v>
       </c>
       <c r="D2">
-        <v>0.0001191495935981545</v>
+        <v>0.0001063979561887362</v>
       </c>
       <c r="E2">
-        <v>5.905697478343975E-05</v>
+        <v>4.615398934471278E-05</v>
       </c>
       <c r="F2">
-        <v>4.846331446352571E-05</v>
+        <v>3.553364805059245E-05</v>
       </c>
       <c r="G2">
-        <v>2.650707880047747E-05</v>
+        <v>1.352211386562617E-05</v>
       </c>
       <c r="H2">
-        <v>6.136208185305082E-06</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.122500033897964E-06</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.385174132426252E-06</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.903970848093203E-05</v>
+        <v>3.611149376207302E-05</v>
       </c>
       <c r="L2">
-        <v>2.458498674243292E-05</v>
+        <v>1.159518086620025E-05</v>
       </c>
       <c r="M2">
-        <v>6.686986201937824E-06</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.301893589315403E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.301893589315403E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2.020877261027725E-05</v>
+        <v>7.207944891465606E-06</v>
       </c>
       <c r="Q2">
-        <v>4.314991530306834E-05</v>
+        <v>3.020686667268929E-05</v>
       </c>
       <c r="R2">
-        <v>5.617016869626216E-05</v>
+        <v>4.325991260731378E-05</v>
       </c>
       <c r="S2">
-        <v>6.014098181617527E-05</v>
+        <v>4.724072653518477E-05</v>
       </c>
       <c r="T2">
-        <v>6.271069189377699E-05</v>
+        <v>4.98169086315437E-05</v>
       </c>
       <c r="U2">
-        <v>6.225330587996456E-05</v>
+        <v>4.93583706547583E-05</v>
       </c>
       <c r="V2">
-        <v>6.753502603946527E-05</v>
+        <v>5.465339324562691E-05</v>
       </c>
       <c r="W2">
-        <v>4.226757827642297E-05</v>
+        <v>2.932230741022191E-05</v>
       </c>
       <c r="X2">
-        <v>5.416460963569702E-05</v>
+        <v>4.124930238709766E-05</v>
       </c>
       <c r="Y2">
-        <v>4.716696742437781E-05</v>
+        <v>3.423403605855107E-05</v>
       </c>
       <c r="Z2">
-        <v>4.277065629161524E-05</v>
+        <v>2.982665246731865E-05</v>
       </c>
       <c r="AA2">
-        <v>3.151824895180795E-05</v>
+        <v>1.854590504665868E-05</v>
       </c>
       <c r="AB2">
-        <v>5.21955095762329E-05</v>
+        <v>3.927524299287014E-05</v>
       </c>
       <c r="AC2">
-        <v>1.186271835823784E-05</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>9.32657798164988E-07</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.651567049875063E-07</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.033333261403879E-06</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.413593342688583E-05</v>
+        <v>1.119810780663071E-06</v>
       </c>
       <c r="AH2">
-        <v>7.581375228947147E-05</v>
+        <v>6.295297012467604E-05</v>
       </c>
       <c r="AI2">
-        <v>0.0001409043642551188</v>
+        <v>0.0001282075179620129</v>
       </c>
       <c r="AJ2">
-        <v>0.0001504477745433167</v>
+        <v>0.0001377749640863665</v>
       </c>
       <c r="AK2">
-        <v>0.0002491897675251896</v>
+        <v>0.0002367656466135211</v>
       </c>
       <c r="AL2">
-        <v>0.0001730002452243704</v>
+        <v>0.0001603842349545471</v>
       </c>
       <c r="AM2">
-        <v>0.0001861804556223947</v>
+        <v>0.0001735976407584126</v>
       </c>
       <c r="AN2">
-        <v>0.0001383971441794042</v>
+        <v>0.0001256939832535698</v>
       </c>
       <c r="AO2">
-        <v>0.0001448234443734697</v>
+        <v>0.0001321364685946518</v>
       </c>
       <c r="AP2">
-        <v>9.711581293276453E-05</v>
+        <v>8.430868169818594E-05</v>
       </c>
       <c r="AQ2">
-        <v>8.820642266371315E-05</v>
+        <v>7.53768524227115E-05</v>
       </c>
       <c r="AR2">
-        <v>2.853035086157752E-05</v>
+        <v>1.555048169797471E-05</v>
       </c>
       <c r="AS2">
-        <v>4.744449143275865E-06</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>2.843728285876699E-06</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>1.076025582494499E-05</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>6.486729195890336E-05</v>
+        <v>5.197894026507734E-05</v>
       </c>
       <c r="AW2">
-        <v>0.0001156554094926349</v>
+        <v>0.0001028949717032557</v>
       </c>
       <c r="AX2">
-        <v>0.0001236719537347236</v>
+        <v>0.0001109317062481942</v>
       </c>
       <c r="AY2">
-        <v>9.927171299786976E-05</v>
+        <v>8.647001156869283E-05</v>
       </c>
       <c r="AZ2">
-        <v>0.0001586670047915262</v>
+        <v>0.000146014895118217</v>
       </c>
       <c r="BA2">
-        <v>0.000627332558944584</v>
+        <v>0.0006158608206617213</v>
       </c>
       <c r="BB2">
-        <v>0.06117044584726367</v>
+        <v>0.0613114567443715</v>
       </c>
       <c r="BC2">
-        <v>0.03442536103959875</v>
+        <v>0.03449901231818483</v>
       </c>
       <c r="BD2">
-        <v>0.0269263968131403</v>
+        <v>0.02698116135522002</v>
       </c>
       <c r="BE2">
-        <v>0.001517347145821805</v>
+        <v>0.001508116979905678</v>
       </c>
       <c r="BF2">
-        <v>0.02442678473765544</v>
+        <v>0.0244752538083591</v>
       </c>
       <c r="BG2">
-        <v>0.000564597857050082</v>
+        <v>0.0005529681164420041</v>
       </c>
       <c r="BH2">
-        <v>0.007213555917839507</v>
+        <v>0.007218672105754847</v>
       </c>
       <c r="BI2">
-        <v>0.001421043542913569</v>
+        <v>0.001411570828731065</v>
       </c>
       <c r="BJ2">
-        <v>0.04544053137224181</v>
+        <v>0.04554192523145138</v>
       </c>
       <c r="BK2">
-        <v>0.02431152873417487</v>
+        <v>0.02435970752348729</v>
       </c>
       <c r="BL2">
-        <v>0.001914571257817429</v>
+        <v>0.001906341532350232</v>
       </c>
       <c r="BM2">
-        <v>0.0005679392171509865</v>
+        <v>0.000556317892023486</v>
       </c>
       <c r="BN2">
-        <v>0.0008337797751790071</v>
+        <v>0.0008228279905934475</v>
       </c>
       <c r="BO2">
-        <v>0.006315042890705645</v>
+        <v>0.006317896102258046</v>
       </c>
       <c r="BP2">
-        <v>0.001811941654718156</v>
+        <v>0.001803453448451084</v>
       </c>
       <c r="BQ2">
-        <v>0.001969821359485907</v>
+        <v>0.001961730785784294</v>
       </c>
       <c r="BR2">
-        <v>0.005465887165062306</v>
+        <v>0.005466601710532462</v>
       </c>
       <c r="BS2">
-        <v>3.858937116534615E-05</v>
+        <v>2.563483644264106E-05</v>
       </c>
       <c r="BT2">
-        <v>0.01477755144626181</v>
+        <v>0.01480171815717825</v>
       </c>
       <c r="BU2">
-        <v>0.007988998241256805</v>
+        <v>0.007996067442201141</v>
       </c>
       <c r="BV2">
-        <v>0.0007681364931966699</v>
+        <v>0.000757019380796125</v>
       </c>
       <c r="BW2">
-        <v>0.0002640187779730054</v>
+        <v>0.0002516320051009487</v>
       </c>
       <c r="BX2">
-        <v>0.003843926716081322</v>
+        <v>0.003840556225445351</v>
       </c>
       <c r="BY2">
-        <v>0.01686457450928705</v>
+        <v>0.01689399755340948</v>
       </c>
       <c r="BZ2">
-        <v>0.004896491147867326</v>
+        <v>0.004895771624282107</v>
       </c>
       <c r="CA2">
-        <v>0.002078913062780327</v>
+        <v>0.002071097245190749</v>
       </c>
       <c r="CB2">
-        <v>0.008581825759159382</v>
+        <v>0.0085903880432531</v>
       </c>
       <c r="CC2">
-        <v>0.0009227620278661493</v>
+        <v>0.0009120343521454266</v>
       </c>
       <c r="CD2">
-        <v>0.002771475683694769</v>
+        <v>0.002765404140026277</v>
       </c>
       <c r="CE2">
-        <v>0.0005568336168156124</v>
+        <v>0.0005451843213523502</v>
       </c>
       <c r="CF2">
-        <v>0.002731290682481238</v>
+        <v>0.002725117929698191</v>
       </c>
       <c r="CG2">
-        <v>0.005451636564631958</v>
+        <v>0.005452315218834033</v>
       </c>
       <c r="CH2">
-        <v>0.01510763145622978</v>
+        <v>0.01513262949984577</v>
       </c>
       <c r="CI2">
-        <v>0.03344120100987846</v>
+        <v>0.03351237360332882</v>
       </c>
       <c r="CJ2">
-        <v>0.01626454949116712</v>
+        <v>0.01629246132466469</v>
       </c>
       <c r="CK2">
-        <v>0.00373974411293515</v>
+        <v>0.003736111230145444</v>
       </c>
       <c r="CL2">
-        <v>0.003620400409331133</v>
+        <v>0.003616466949953035</v>
       </c>
       <c r="CM2">
-        <v>0.0018773831566944</v>
+        <v>0.001869059770043355</v>
       </c>
       <c r="CN2">
-        <v>0.009910767299291596</v>
+        <v>0.009922676628116141</v>
       </c>
       <c r="CO2">
-        <v>0.01016973830711217</v>
+        <v>0.0101822998749713</v>
       </c>
       <c r="CP2">
-        <v>0.01819741554953703</v>
+        <v>0.01823019545959078</v>
       </c>
       <c r="CQ2">
-        <v>0.02164614665368398</v>
+        <v>0.02168761246670757</v>
       </c>
       <c r="CR2">
-        <v>0.01143411734529468</v>
+        <v>0.01144986335209994</v>
       </c>
       <c r="CS2">
-        <v>0.01302887139345407</v>
+        <v>0.01304863391488594</v>
       </c>
       <c r="CT2">
-        <v>0.000883350426675973</v>
+        <v>0.0008725234897100309</v>
       </c>
       <c r="CU2">
-        <v>0.008130988245544708</v>
+        <v>0.008138415059582871</v>
       </c>
       <c r="CV2">
-        <v>0.0298668909019392</v>
+        <v>0.02992906131173298</v>
       </c>
       <c r="CW2">
-        <v>0.03428950603549611</v>
+        <v>0.03436281515247319</v>
       </c>
       <c r="CX2">
-        <v>0.03304382099787814</v>
+        <v>0.03311399275823303</v>
       </c>
       <c r="CY2">
-        <v>0.01221055436874202</v>
+        <v>0.01222825589380723</v>
       </c>
       <c r="CZ2">
-        <v>0.003493866305509977</v>
+        <v>0.003489614159949925</v>
       </c>
       <c r="DA2">
-        <v>0.000461618253940239</v>
+        <v>0.0004497291510294843</v>
       </c>
       <c r="DB2">
-        <v>0.006670479901439356</v>
+        <v>0.006674228309310023</v>
       </c>
       <c r="DC2">
-        <v>0.02029171461278199</v>
+        <v>0.02032976918122569</v>
       </c>
       <c r="DD2">
-        <v>0.0211916796399597</v>
+        <v>0.02123200084174368</v>
       </c>
       <c r="DE2">
-        <v>0.02013267060797908</v>
+        <v>0.02017032461147528</v>
       </c>
       <c r="DF2">
-        <v>0.01782724853835849</v>
+        <v>0.01785909615341891</v>
       </c>
       <c r="DG2">
-        <v>0.01339243540443321</v>
+        <v>0.0134131135906784</v>
       </c>
       <c r="DH2">
-        <v>0.003718213112284943</v>
+        <v>0.003714526001961445</v>
       </c>
       <c r="DI2">
-        <v>0.0004032059921762687</v>
+        <v>0.0003911697733487873</v>
       </c>
       <c r="DJ2">
-        <v>0.01136673184325973</v>
+        <v>0.01138230813433054</v>
       </c>
       <c r="DK2">
-        <v>0.02580214977918958</v>
+        <v>0.02585408281589642</v>
       </c>
       <c r="DL2">
-        <v>0.01698572051294549</v>
+        <v>0.01701544867289203</v>
       </c>
       <c r="DM2">
-        <v>0.005593536568917142</v>
+        <v>0.005594572609540895</v>
       </c>
       <c r="DN2">
-        <v>0.00429062372957096</v>
+        <v>0.004288378280812397</v>
       </c>
       <c r="DO2">
-        <v>0.00134026774047425</v>
+        <v>0.001330591586023106</v>
       </c>
       <c r="DP2">
-        <v>5.559342967884543E-05</v>
+        <v>4.268172102691289E-05</v>
       </c>
       <c r="DQ2">
-        <v>0.0003694730511575801</v>
+        <v>0.0003573518732411679</v>
       </c>
       <c r="DR2">
-        <v>0.0001183089295727676</v>
+        <v>0.000105555174884288</v>
       </c>
       <c r="DS2">
-        <v>0.002413243372876644</v>
+        <v>0.002406269592704794</v>
       </c>
       <c r="DT2">
-        <v>0.001932097658346703</v>
+        <v>0.001923912074510097</v>
       </c>
       <c r="DU2">
-        <v>0.001621029648952875</v>
+        <v>0.001612060615648908</v>
       </c>
       <c r="DV2">
-        <v>0.001552652046887965</v>
+        <v>0.001543510799166895</v>
       </c>
       <c r="DW2">
-        <v>0.000596192568004199</v>
+        <v>0.0005846424011829487</v>
       </c>
       <c r="DX2">
-        <v>0.0003908009518016535</v>
+        <v>0.0003787334898955507</v>
       </c>
       <c r="DY2">
-        <v>0.0004817239645474039</v>
+        <v>0.0004698854994643603</v>
       </c>
       <c r="DZ2">
-        <v>0.0003731898112698211</v>
+        <v>0.0003610779943087059</v>
       </c>
       <c r="EA2">
-        <v>0.001584951547863366</v>
+        <v>0.001575891648998723</v>
       </c>
       <c r="EB2">
-        <v>0.001643065649618332</v>
+        <v>0.001634152115730772</v>
       </c>
       <c r="EC2">
-        <v>0.002514995675949425</v>
+        <v>0.002508278167027712</v>
       </c>
       <c r="ED2">
-        <v>0.0009697970292865419</v>
+        <v>0.0009591878149494952</v>
       </c>
       <c r="EE2">
-        <v>7.874355237794742E-05</v>
+        <v>6.589014914717759E-05</v>
       </c>
       <c r="EF2">
-        <v>0.0002462391074360838</v>
+        <v>0.0002338075550528226</v>
       </c>
       <c r="EG2">
-        <v>0.0001873085756564624</v>
+        <v>0.0001747286020523113</v>
       </c>
       <c r="EH2">
-        <v>0.0006880187607772241</v>
+        <v>0.0006766998655096062</v>
       </c>
       <c r="EI2">
-        <v>0.001292487539031353</v>
+        <v>0.001282691046351139</v>
       </c>
       <c r="EJ2">
-        <v>0.00204301286169619</v>
+        <v>0.002035106626601217</v>
       </c>
       <c r="EK2">
-        <v>0.001435622643353838</v>
+        <v>0.00142618664779276</v>
       </c>
       <c r="EL2">
-        <v>0.0001330049640165677</v>
+        <v>0.0001202882224570812</v>
       </c>
       <c r="EM2">
-        <v>2.970429789702911E-05</v>
+        <v>1.672738541219705E-05</v>
       </c>
       <c r="EN2">
-        <v>5.905697478343975E-05</v>
+        <v>4.615398934471278E-05</v>
       </c>
       <c r="EO2">
-        <v>0.001103057433310824</v>
+        <v>0.001092783845876577</v>
       </c>
       <c r="EP2">
-        <v>0.005359065861836449</v>
+        <v>0.005359511369377317</v>
       </c>
       <c r="EQ2">
-        <v>0.007107467214635775</v>
+        <v>0.007112316209733119</v>
       </c>
       <c r="ER2">
-        <v>0.00210626506360632</v>
+        <v>0.002098518134201419</v>
       </c>
       <c r="ES2">
-        <v>0.0004327766130692609</v>
+        <v>0.0004208148701971608</v>
       </c>
       <c r="ET2">
-        <v>0.006211246587571139</v>
+        <v>0.006213838379897039</v>
       </c>
       <c r="EU2">
-        <v>0.007959717240372558</v>
+        <v>0.00796671269479249</v>
       </c>
       <c r="EV2">
-        <v>0.009938204300120159</v>
+        <v>0.009950182731208634</v>
       </c>
       <c r="EW2">
-        <v>0.005792909474937932</v>
+        <v>0.005794447652047311</v>
       </c>
       <c r="EX2">
-        <v>0.003691539711479443</v>
+        <v>0.003687785422079271</v>
       </c>
       <c r="EY2">
-        <v>0.001906141057562849</v>
+        <v>0.001897890099967308</v>
       </c>
       <c r="EZ2">
-        <v>8.820642266371315E-05</v>
+        <v>7.53768524227115E-05</v>
       </c>
       <c r="FA2">
-        <v>0.001381335141714429</v>
+        <v>0.001371762418772331</v>
       </c>
       <c r="FB2">
-        <v>0.005993861381006403</v>
+        <v>0.005995905671438337</v>
       </c>
       <c r="FC2">
-        <v>0.007096089614292186</v>
+        <v>0.007100909954000163</v>
       </c>
       <c r="FD2">
-        <v>0.006952221709947574</v>
+        <v>0.006956679706921405</v>
       </c>
       <c r="FE2">
-        <v>0.002624221079247882</v>
+        <v>0.002617778663172274</v>
       </c>
       <c r="FF2">
-        <v>0.0002461543574335245</v>
+        <v>0.0002337225916006563</v>
       </c>
       <c r="FG2">
-        <v>3.305245399813883E-05</v>
+        <v>2.008397411015004E-05</v>
       </c>
       <c r="FH2">
-        <v>0.002779889683948861</v>
+        <v>0.002773839331607725</v>
       </c>
       <c r="FI2">
-        <v>0.002912623087957228</v>
+        <v>0.002906907035227531</v>
       </c>
       <c r="FJ2">
-        <v>0.004285571729418397</v>
+        <v>0.004283313556796535</v>
       </c>
       <c r="FK2">
-        <v>0.002639340279704461</v>
+        <v>0.002632935942535031</v>
       </c>
       <c r="FL2">
-        <v>0.001350171640773334</v>
+        <v>0.001340520430081046</v>
       </c>
       <c r="FM2">
-        <v>0.0006527049897107967</v>
+        <v>0.0006412971539083214</v>
       </c>
       <c r="FN2">
-        <v>5.559342967884543E-05</v>
+        <v>4.268172102691289E-05</v>
       </c>
       <c r="FO2">
-        <v>0.000941014468417348</v>
+        <v>0.0009303327629166287</v>
       </c>
       <c r="FP2">
-        <v>0.001701207051374123</v>
+        <v>0.001692439951220864</v>
       </c>
       <c r="FQ2">
-        <v>0.003335765100735537</v>
+        <v>0.003331114764744682</v>
       </c>
       <c r="FR2">
-        <v>0.007737110233650132</v>
+        <v>0.007743545034658009</v>
       </c>
       <c r="FS2">
-        <v>0.006209300587512373</v>
+        <v>0.006211887478682694</v>
       </c>
       <c r="FT2">
-        <v>0.00425119512838027</v>
+        <v>0.004248850375560638</v>
       </c>
       <c r="FU2">
-        <v>0.0005139971755220106</v>
+        <v>0.0005022399930819407</v>
       </c>
       <c r="FV2">
-        <v>0.0002301663969507099</v>
+        <v>0.0002176943641705949</v>
       </c>
       <c r="FW2">
-        <v>0.006740415203551306</v>
+        <v>0.00674433974903026</v>
       </c>
       <c r="FX2">
-        <v>0.008828867266619699</v>
+        <v>0.00883805174435465</v>
       </c>
       <c r="FY2">
-        <v>0.008576965259012604</v>
+        <v>0.008585515301550982</v>
       </c>
       <c r="FZ2">
-        <v>0.004892820647756481</v>
+        <v>0.00489209187972545</v>
       </c>
       <c r="GA2">
-        <v>0.002970156389694654</v>
+        <v>0.002964585239151105</v>
       </c>
       <c r="GB2">
-        <v>0.0004993576150799159</v>
+        <v>0.0004875635617451078</v>
       </c>
       <c r="GC2">
-        <v>0.0008425579254440953</v>
+        <v>0.0008316282493265938</v>
       </c>
       <c r="GD2">
-        <v>0.002658916980295651</v>
+        <v>0.002652561948600226</v>
       </c>
       <c r="GE2">
-        <v>0.009058185273544787</v>
+        <v>0.009067947306878373</v>
       </c>
       <c r="GF2">
-        <v>0.006809826205647423</v>
+        <v>0.006813925568243467</v>
       </c>
       <c r="GG2">
-        <v>0.004877613547297249</v>
+        <v>0.004876846478976907</v>
       </c>
       <c r="GH2">
-        <v>0.001701207051374123</v>
+        <v>0.001692439951220864</v>
       </c>
       <c r="GI2">
-        <v>0.0005460899164911675</v>
+        <v>0.0005344135621660408</v>
       </c>
       <c r="GJ2">
-        <v>0.005776772474450616</v>
+        <v>0.00577827000924367</v>
       </c>
       <c r="GK2">
-        <v>0.00746850462553861</v>
+        <v>0.007474262922006482</v>
       </c>
       <c r="GL2">
-        <v>0.005220582357654436</v>
+        <v>0.005220679083500262</v>
       </c>
       <c r="GM2">
-        <v>0.002690118381237891</v>
+        <v>0.002683841932746816</v>
       </c>
       <c r="GN2">
-        <v>0.0008737914263873042</v>
+        <v>0.0008629404143205531</v>
       </c>
       <c r="GO2">
-        <v>0.0004215037127288348</v>
+        <v>0.0004095135781626336</v>
       </c>
       <c r="GP2">
-        <v>0.0009070102273904666</v>
+        <v>0.0008962428795102161</v>
       </c>
       <c r="GQ2">
-        <v>0.0008713529963136669</v>
+        <v>0.0008604958428672666</v>
       </c>
       <c r="GR2">
-        <v>0.002494454075329096</v>
+        <v>0.002487684830756082</v>
       </c>
       <c r="GS2">
-        <v>0.003026893491408037</v>
+        <v>0.00302146523775769</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.105270987347267E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2.49710027141412E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>8.758403899737031E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0002112178775820558</v>
+        <v>8.952526193957744E-05</v>
       </c>
       <c r="F3">
-        <v>0.0002326875373362791</v>
+        <v>0.0001114670274373116</v>
       </c>
       <c r="G3">
-        <v>0.0003566670559170074</v>
+        <v>0.00023817278590585</v>
       </c>
       <c r="H3">
-        <v>0.0004199829651921903</v>
+        <v>0.0003028809764172806</v>
       </c>
       <c r="I3">
-        <v>0.0002843254767451471</v>
+        <v>0.0001642404560927289</v>
       </c>
       <c r="J3">
-        <v>0.0002270834474004327</v>
+        <v>0.0001057397067155025</v>
       </c>
       <c r="K3">
-        <v>0.0001396324684015391</v>
+        <v>1.636572987064144E-05</v>
       </c>
       <c r="L3">
-        <v>4.074499453356637E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1.540716982362441E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>6.79999692215615E-08</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3.532757159558303E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0001589144981808056</v>
+        <v>3.607176064058725E-05</v>
       </c>
       <c r="Q3">
-        <v>0.0001236188685848569</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>5.144750641104797E-05</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0001351785784525256</v>
+        <v>1.181390138650601E-05</v>
       </c>
       <c r="T3">
-        <v>6.289149928004137E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>2.310833973546427E-05</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0001565932882073779</v>
+        <v>3.369950856528678E-05</v>
       </c>
       <c r="W3">
-        <v>0.000132187098486771</v>
+        <v>8.756640458705483E-06</v>
       </c>
       <c r="X3">
-        <v>0.0001565932882073779</v>
+        <v>3.369950856528678E-05</v>
       </c>
       <c r="Y3">
-        <v>0.0002073252776266169</v>
+        <v>8.554706590030718E-05</v>
       </c>
       <c r="Z3">
-        <v>0.0002396284672568219</v>
+        <v>0.000118560584503245</v>
       </c>
       <c r="AA3">
-        <v>0.0001382035284178971</v>
+        <v>1.490536830039149E-05</v>
       </c>
       <c r="AB3">
-        <v>0.0001315504184940595</v>
+        <v>8.105960231021528E-06</v>
       </c>
       <c r="AC3">
-        <v>0.0001016761988360485</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>2.528969871049288E-05</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>3.631250958430782E-06</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.238063685827105E-05</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.000114063083694248</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0002056151076461943</v>
+        <v>8.37992902438105E-05</v>
       </c>
       <c r="AI3">
-        <v>0.0002259708274131695</v>
+        <v>0.0001046026208404542</v>
       </c>
       <c r="AJ3">
-        <v>0.0005959200931781272</v>
+        <v>0.0004826868629010148</v>
       </c>
       <c r="AK3">
-        <v>0.0005490575537145921</v>
+        <v>0.0004347938425500549</v>
       </c>
       <c r="AL3">
-        <v>0.00045043645484357</v>
+        <v>0.0003340041211791255</v>
       </c>
       <c r="AM3">
-        <v>0.0003920576355118692</v>
+        <v>0.0002743415844424267</v>
       </c>
       <c r="AN3">
-        <v>0.0001661139680983887</v>
+        <v>4.342954285269362E-05</v>
       </c>
       <c r="AO3">
-        <v>4.28960845089415E-05</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0001182456786463672</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>9.456036891750787E-06</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>1.522057982576043E-07</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>5.370076938525346E-06</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>5.851207933017535E-07</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>1.715446480362203E-05</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>7.747512911309337E-06</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>4.793065945130754E-05</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.000119543428631511</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0001785925879555381</v>
+        <v>5.618256054255621E-05</v>
       </c>
       <c r="AZ3">
-        <v>0.0003115741964332138</v>
+        <v>0.0001920883598021224</v>
       </c>
       <c r="BA3">
-        <v>0.0001549785982258623</v>
+        <v>3.204931245917535E-05</v>
       </c>
       <c r="BB3">
-        <v>0.02815717967766702</v>
+        <v>0.02865000304526737</v>
       </c>
       <c r="BC3">
-        <v>0.0009438881391947176</v>
+        <v>0.0008383065305531261</v>
       </c>
       <c r="BD3">
-        <v>0.006949910320439998</v>
+        <v>0.006976397761791703</v>
       </c>
       <c r="BE3">
-        <v>0.002198153174836355</v>
+        <v>0.002120152148932914</v>
       </c>
       <c r="BF3">
-        <v>0.02859475767265779</v>
+        <v>0.02909720313427519</v>
       </c>
       <c r="BG3">
-        <v>0.000127136708544586</v>
+        <v>3.595195282018871E-06</v>
       </c>
       <c r="BH3">
-        <v>0.001037182288126721</v>
+        <v>0.0009336521653517414</v>
       </c>
       <c r="BI3">
-        <v>6.751699922709036E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.07731173911496381</v>
+        <v>0.07888544360018547</v>
       </c>
       <c r="BK3">
-        <v>0.008908510898018661</v>
+        <v>0.008978066864559113</v>
       </c>
       <c r="BL3">
-        <v>0.002017833476900589</v>
+        <v>0.0019358673222509</v>
       </c>
       <c r="BM3">
-        <v>0.0004748575345640065</v>
+        <v>0.0003589622067082585</v>
       </c>
       <c r="BN3">
-        <v>0.007964331908827274</v>
+        <v>0.008013125910399377</v>
       </c>
       <c r="BO3">
-        <v>0.001078389787654993</v>
+        <v>0.0009757657946196422</v>
       </c>
       <c r="BP3">
-        <v>0.0001194545486325285</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.01143787086906349</v>
+        <v>0.01156304603886131</v>
       </c>
       <c r="BR3">
-        <v>0.003519127359714332</v>
+        <v>0.003470173813223684</v>
       </c>
       <c r="BS3">
-        <v>0.001330088584773638</v>
+        <v>0.001232999306732134</v>
       </c>
       <c r="BT3">
-        <v>0.01969624077452472</v>
+        <v>0.02000301285405646</v>
       </c>
       <c r="BU3">
-        <v>0.004266616951157347</v>
+        <v>0.004234100280396201</v>
       </c>
       <c r="BV3">
-        <v>0.0008455270303207192</v>
+        <v>0.0007377825162130372</v>
       </c>
       <c r="BW3">
-        <v>0.001330088584773638</v>
+        <v>0.001232999306732134</v>
       </c>
       <c r="BX3">
-        <v>0.003970673254545201</v>
+        <v>0.003931648948333569</v>
       </c>
       <c r="BY3">
-        <v>0.005583233936085203</v>
+        <v>0.005579668932360426</v>
       </c>
       <c r="BZ3">
-        <v>0.01006356688479601</v>
+        <v>0.01015852188288501</v>
       </c>
       <c r="CA3">
-        <v>0.0112419338713065</v>
+        <v>0.01136280049671814</v>
       </c>
       <c r="CB3">
-        <v>0.004478557448731131</v>
+        <v>0.00445070123031681</v>
       </c>
       <c r="CC3">
-        <v>0.0002897861966826348</v>
+        <v>0.0001698212541905463</v>
       </c>
       <c r="CD3">
-        <v>0.001483528983017109</v>
+        <v>0.001389813773038472</v>
       </c>
       <c r="CE3">
-        <v>0.0001094602187469399</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.000297245716597241</v>
+        <v>0.0001774448047528588</v>
       </c>
       <c r="CG3">
-        <v>0.0004399083949640914</v>
+        <v>0.0003232445551838525</v>
       </c>
       <c r="CH3">
-        <v>0.009626361889800969</v>
+        <v>0.009711702995933059</v>
       </c>
       <c r="CI3">
-        <v>0.02407047872445006</v>
+        <v>0.02447343783643986</v>
       </c>
       <c r="CJ3">
-        <v>0.01666856580918442</v>
+        <v>0.01690876101898538</v>
       </c>
       <c r="CK3">
-        <v>0.004888964944032938</v>
+        <v>0.004870133355628126</v>
       </c>
       <c r="CL3">
-        <v>0.0008326787904678011</v>
+        <v>0.0007246517507915723</v>
       </c>
       <c r="CM3">
-        <v>0.00121503488609073</v>
+        <v>0.00111541564192111</v>
       </c>
       <c r="CN3">
-        <v>0.008059348907739555</v>
+        <v>0.008110232279680409</v>
       </c>
       <c r="CO3">
-        <v>0.01031916488187002</v>
+        <v>0.01041974033616699</v>
       </c>
       <c r="CP3">
-        <v>0.02201858974793933</v>
+        <v>0.02237642897531304</v>
       </c>
       <c r="CQ3">
-        <v>0.02409755572414009</v>
+        <v>0.02450111024412504</v>
       </c>
       <c r="CR3">
-        <v>0.02203779074771952</v>
+        <v>0.0223960521942798</v>
       </c>
       <c r="CS3">
-        <v>0.02342808173180399</v>
+        <v>0.02381691489520801</v>
       </c>
       <c r="CT3">
-        <v>0.003058827464983674</v>
+        <v>0.002999752182679442</v>
       </c>
       <c r="CU3">
-        <v>0.001679340780775528</v>
+        <v>0.001589931362105519</v>
       </c>
       <c r="CV3">
-        <v>0.02683813669276694</v>
+        <v>0.02730195504695591</v>
       </c>
       <c r="CW3">
-        <v>0.04480461748709331</v>
+        <v>0.04566350864964436</v>
       </c>
       <c r="CX3">
-        <v>0.05905625532394583</v>
+        <v>0.06022853198744276</v>
       </c>
       <c r="CY3">
-        <v>0.03169332963718648</v>
+        <v>0.03226391095367452</v>
       </c>
       <c r="CZ3">
-        <v>0.01853630278780326</v>
+        <v>0.01881756848335331</v>
       </c>
       <c r="DA3">
-        <v>0.002713044168942074</v>
+        <v>0.002646365306425572</v>
       </c>
       <c r="DB3">
-        <v>0.0004708388246100112</v>
+        <v>0.0003548551275824876</v>
       </c>
       <c r="DC3">
-        <v>0.009441291891919583</v>
+        <v>0.009522563412881178</v>
       </c>
       <c r="DD3">
-        <v>0.01669109580892651</v>
+        <v>0.01693178644075097</v>
       </c>
       <c r="DE3">
-        <v>0.02059178576427285</v>
+        <v>0.02091825037447683</v>
       </c>
       <c r="DF3">
-        <v>0.02183250475006956</v>
+        <v>0.02218625207299386</v>
       </c>
       <c r="DG3">
-        <v>0.01829413679057549</v>
+        <v>0.01857007739204006</v>
       </c>
       <c r="DH3">
-        <v>0.007974955908705655</v>
+        <v>0.008023983526060173</v>
       </c>
       <c r="DI3">
-        <v>6.752850322695867E-06</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.00460630094726877</v>
+        <v>0.00458125373654466</v>
       </c>
       <c r="DK3">
-        <v>0.0140791848388267</v>
+        <v>0.01426244101735106</v>
       </c>
       <c r="DL3">
-        <v>0.01336910484695543</v>
+        <v>0.0135367467658058</v>
       </c>
       <c r="DM3">
-        <v>0.005058395942093354</v>
+        <v>0.005043290046048309</v>
       </c>
       <c r="DN3">
-        <v>0.003186424663522989</v>
+        <v>0.003130155171854282</v>
       </c>
       <c r="DO3">
-        <v>0.001302597685088343</v>
+        <v>0.001204903897623576</v>
       </c>
       <c r="DP3">
-        <v>8.141285906801569E-06</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>1.773802379694166E-05</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.001843292578898668</v>
+        <v>0.001757488368063294</v>
       </c>
       <c r="DS3">
-        <v>0.004840549944587175</v>
+        <v>0.004820653737573029</v>
       </c>
       <c r="DT3">
-        <v>0.005113012941468118</v>
+        <v>0.005099108042522857</v>
       </c>
       <c r="DU3">
-        <v>0.004196217951963248</v>
+        <v>0.00416215324680205</v>
       </c>
       <c r="DV3">
-        <v>0.002809611967836601</v>
+        <v>0.002745056576908295</v>
       </c>
       <c r="DW3">
-        <v>0.001033020188174367</v>
+        <v>0.00092939854316219</v>
       </c>
       <c r="DX3">
-        <v>0.001014688488384221</v>
+        <v>0.0009106637396033627</v>
       </c>
       <c r="DY3">
-        <v>0.0005592551235978541</v>
+        <v>0.0004452156512599613</v>
       </c>
       <c r="DZ3">
-        <v>2.405602572461551E-05</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.0006560126924902093</v>
+        <v>0.0005441008646760375</v>
       </c>
       <c r="EB3">
-        <v>0.002447460771982374</v>
+        <v>0.002374941879930186</v>
       </c>
       <c r="EC3">
-        <v>0.00381679525630674</v>
+        <v>0.003774387259454457</v>
       </c>
       <c r="ED3">
-        <v>0.002456612171877612</v>
+        <v>0.002384294513962396</v>
       </c>
       <c r="EE3">
-        <v>0.001970429377443253</v>
+        <v>0.001887420833306448</v>
       </c>
       <c r="EF3">
-        <v>0.002873210967108544</v>
+        <v>0.002810054082406305</v>
       </c>
       <c r="EG3">
-        <v>0.002370362572864966</v>
+        <v>0.002296148334774026</v>
       </c>
       <c r="EH3">
-        <v>0.0005430116337838036</v>
+        <v>0.000428614976240199</v>
       </c>
       <c r="EI3">
-        <v>7.176703317843756E-05</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.000296112466610214</v>
+        <v>0.0001762866352359541</v>
       </c>
       <c r="EK3">
-        <v>0.0002269275074022178</v>
+        <v>0.0001055803376844271</v>
       </c>
       <c r="EL3">
-        <v>3.200440163362545E-05</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>1.415966283790542E-05</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.000132187098486771</v>
+        <v>8.756640458705483E-06</v>
       </c>
       <c r="EO3">
-        <v>0.0003882028655559971</v>
+        <v>0.0002704020502631384</v>
       </c>
       <c r="EP3">
-        <v>0.004571797247663757</v>
+        <v>0.004545991319990129</v>
       </c>
       <c r="EQ3">
-        <v>0.008264712905388624</v>
+        <v>0.00832011211614157</v>
       </c>
       <c r="ER3">
-        <v>0.004167534952291601</v>
+        <v>0.004132839524098873</v>
       </c>
       <c r="ES3">
-        <v>0.0007256669916928327</v>
+        <v>0.0006152868227447181</v>
       </c>
       <c r="ET3">
-        <v>0.001088731787536601</v>
+        <v>0.0009863352092623317</v>
       </c>
       <c r="EU3">
-        <v>0.002742967568599522</v>
+        <v>0.00267694670481264</v>
       </c>
       <c r="EV3">
-        <v>0.005153476941004902</v>
+        <v>0.0051404618226526</v>
       </c>
       <c r="EW3">
-        <v>0.003994651954270702</v>
+        <v>0.003956154926180472</v>
       </c>
       <c r="EX3">
-        <v>0.003122072664259666</v>
+        <v>0.003064388108318567</v>
       </c>
       <c r="EY3">
-        <v>0.001338865084673168</v>
+        <v>0.001241968796928573</v>
       </c>
       <c r="EZ3">
-        <v>0.0002384854872699063</v>
+        <v>0.0001173924710292263</v>
       </c>
       <c r="FA3">
-        <v>0.001689535380658824</v>
+        <v>0.001600350135506831</v>
       </c>
       <c r="FB3">
-        <v>0.005821868933353398</v>
+        <v>0.005823551379010806</v>
       </c>
       <c r="FC3">
-        <v>0.007701719511833563</v>
+        <v>0.007744738814488351</v>
       </c>
       <c r="FD3">
-        <v>0.00764505741248221</v>
+        <v>0.007686830747438888</v>
       </c>
       <c r="FE3">
-        <v>0.004348417250220928</v>
+        <v>0.0043176993220319</v>
       </c>
       <c r="FF3">
-        <v>0.0007068721419079891</v>
+        <v>0.0005960786847832837</v>
       </c>
       <c r="FG3">
-        <v>1.643949081180679E-05</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.002690948969195011</v>
+        <v>0.002623784245662359</v>
       </c>
       <c r="FI3">
-        <v>0.00472368944592495</v>
+        <v>0.004701223542267282</v>
       </c>
       <c r="FJ3">
-        <v>0.006710125523184965</v>
+        <v>0.00673134023169942</v>
       </c>
       <c r="FK3">
-        <v>0.007941257909091415</v>
+        <v>0.007989544526386089</v>
       </c>
       <c r="FL3">
-        <v>0.004947287443365283</v>
+        <v>0.004929738333920358</v>
       </c>
       <c r="FM3">
-        <v>0.003559808659248627</v>
+        <v>0.003511749671655674</v>
       </c>
       <c r="FN3">
-        <v>0.001702900680505823</v>
+        <v>0.001614009330780853</v>
       </c>
       <c r="FO3">
-        <v>3.380646361299611E-05</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.0005535878536627309</v>
+        <v>0.0004394237612462236</v>
       </c>
       <c r="FQ3">
-        <v>0.002564429270643362</v>
+        <v>0.00249448245009393</v>
       </c>
       <c r="FR3">
-        <v>0.006725939423003932</v>
+        <v>0.006747501870281708</v>
       </c>
       <c r="FS3">
-        <v>0.006612743924299753</v>
+        <v>0.006631817266221897</v>
       </c>
       <c r="FT3">
-        <v>0.005740368634286383</v>
+        <v>0.005740258934202877</v>
       </c>
       <c r="FU3">
-        <v>0.002145136975443265</v>
+        <v>0.002065970153131352</v>
       </c>
       <c r="FV3">
-        <v>1.746046580011904E-07</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.002410118172409858</v>
+        <v>0.002336778137594458</v>
       </c>
       <c r="FX3">
-        <v>0.007952790908959392</v>
+        <v>0.008001331130435031</v>
       </c>
       <c r="FY3">
-        <v>0.007992394908506019</v>
+        <v>0.008041805999658496</v>
       </c>
       <c r="FZ3">
-        <v>0.005783239333795615</v>
+        <v>0.00578407233628394</v>
       </c>
       <c r="GA3">
-        <v>0.002890075966915479</v>
+        <v>0.00282728993407416</v>
       </c>
       <c r="GB3">
-        <v>0.000622374052875292</v>
+        <v>0.0005097225302942776</v>
       </c>
       <c r="GC3">
-        <v>0.0005684707934923566</v>
+        <v>0.0004546339685525736</v>
       </c>
       <c r="GD3">
-        <v>0.003185840963529671</v>
+        <v>0.003129558636626382</v>
       </c>
       <c r="GE3">
-        <v>0.01159343286728267</v>
+        <v>0.01172202875793364</v>
       </c>
       <c r="GF3">
-        <v>0.01237425985834405</v>
+        <v>0.01252002569539326</v>
       </c>
       <c r="GG3">
-        <v>0.008174234906424382</v>
+        <v>0.00822764455686471</v>
       </c>
       <c r="GH3">
-        <v>0.007167969317943738</v>
+        <v>0.007199251754014701</v>
       </c>
       <c r="GI3">
-        <v>0.0006033600630929571</v>
+        <v>0.0004902904335700508</v>
       </c>
       <c r="GJ3">
-        <v>0.001374260184267978</v>
+        <v>0.001278142214857354</v>
       </c>
       <c r="GK3">
-        <v>0.004094554553127053</v>
+        <v>0.004058254327000695</v>
       </c>
       <c r="GL3">
-        <v>0.007013221919715229</v>
+        <v>0.007041101547528708</v>
       </c>
       <c r="GM3">
-        <v>0.00439553594968153</v>
+        <v>0.004365854135194199</v>
       </c>
       <c r="GN3">
-        <v>0.002401053972513622</v>
+        <v>0.002327514621040188</v>
       </c>
       <c r="GO3">
-        <v>0.0001134717087010178</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.0002280424773894541</v>
+        <v>0.0001067198252346263</v>
       </c>
       <c r="GQ3">
-        <v>0.0004596772747377845</v>
+        <v>0.0003434481415057992</v>
       </c>
       <c r="GR3">
-        <v>0.001265802085509566</v>
+        <v>0.001167299183503816</v>
       </c>
       <c r="GS3">
-        <v>0.001047325188010609</v>
+        <v>0.0009440181018997336</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>5.655812377819808E-05</v>
+        <v>4.903624299445959E-05</v>
       </c>
       <c r="C4">
-        <v>4.847772323841084E-05</v>
+        <v>4.094463720987667E-05</v>
       </c>
       <c r="D4">
-        <v>4.697883313828193E-05</v>
+        <v>3.944366857039675E-05</v>
       </c>
       <c r="E4">
-        <v>4.003329667430591E-05</v>
+        <v>3.248850059917886E-05</v>
       </c>
       <c r="F4">
-        <v>1.318110588052477E-05</v>
+        <v>5.599073362765551E-06</v>
       </c>
       <c r="G4">
-        <v>1.112971024348736E-05</v>
+        <v>3.544833016462474E-06</v>
       </c>
       <c r="H4">
-        <v>2.888069192928916E-05</v>
+        <v>2.132043032548415E-05</v>
       </c>
       <c r="I4">
-        <v>4.242125483382639E-05</v>
+        <v>3.487977018560294E-05</v>
       </c>
       <c r="J4">
-        <v>1.415497594558128E-05</v>
+        <v>6.574293911925467E-06</v>
       </c>
       <c r="K4">
-        <v>4.725368315664246E-06</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1.558893804137287E-05</v>
+        <v>8.010244510172102E-06</v>
       </c>
       <c r="M4">
-        <v>7.5897861070132E-06</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.490059399539009E-06</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>4.284321486201418E-07</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>9.452721231461068E-07</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2.114825441274655E-05</v>
+        <v>1.357727009107459E-05</v>
       </c>
       <c r="R4">
-        <v>9.677946646506586E-06</v>
+        <v>2.091056231347088E-06</v>
       </c>
       <c r="S4">
-        <v>5.493405366970689E-06</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>6.182332712992442E-07</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1.829014722181916E-06</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>5.384892359721799E-09</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>2.918609594969077E-06</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1.625426108581781E-06</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>3.888167959737554E-07</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>5.948192997351431E-07</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>4.265493284943656E-06</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>1.240515282868952E-05</v>
+        <v>4.822044282105623E-06</v>
       </c>
       <c r="AC4">
-        <v>2.276192352054294E-08</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>2.846079590123925E-05</v>
+        <v>2.089995201964247E-05</v>
       </c>
       <c r="AE4">
-        <v>2.584566172654295E-06</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>2.821330188470614E-05</v>
+        <v>2.065211479845916E-05</v>
       </c>
       <c r="AG4">
-        <v>3.168927911690851E-05</v>
+        <v>2.413291223426397E-05</v>
       </c>
       <c r="AH4">
-        <v>5.631827376217561E-05</v>
+        <v>4.879606037386752E-05</v>
       </c>
       <c r="AI4">
-        <v>4.944718330317275E-05</v>
+        <v>4.191544164331087E-05</v>
       </c>
       <c r="AJ4">
-        <v>1.363164091062143E-05</v>
+        <v>6.050233158339664E-06</v>
       </c>
       <c r="AK4">
-        <v>5.401622360839397E-05</v>
+        <v>4.649081792344438E-05</v>
       </c>
       <c r="AL4">
-        <v>3.6294789424566E-05</v>
+        <v>2.874480909047834E-05</v>
       </c>
       <c r="AM4">
-        <v>1.363164091062143E-05</v>
+        <v>6.050233158339664E-06</v>
       </c>
       <c r="AN4">
-        <v>5.479697366054966E-07</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>1.041764569591999E-05</v>
+        <v>2.831781035471908E-06</v>
       </c>
       <c r="AP4">
-        <v>4.242125483382639E-05</v>
+        <v>3.487977018560294E-05</v>
       </c>
       <c r="AQ4">
-        <v>4.956277531089454E-05</v>
+        <v>4.203119394466372E-05</v>
       </c>
       <c r="AR4">
-        <v>8.639712077150397E-05</v>
+        <v>7.891661829124455E-05</v>
       </c>
       <c r="AS4">
-        <v>0.0001121283424904021</v>
+        <v>0.0001046835219836826</v>
       </c>
       <c r="AT4">
-        <v>3.091414206512777E-05</v>
+        <v>2.335670028522131E-05</v>
       </c>
       <c r="AU4">
-        <v>3.867226658338633E-05</v>
+        <v>3.112558314199965E-05</v>
       </c>
       <c r="AV4">
-        <v>1.306885987302651E-06</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>8.419980562471884E-06</v>
+        <v>8.313457018672782E-07</v>
       </c>
       <c r="AX4">
-        <v>5.862645991636716E-06</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>4.327813589106779E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>1.414156894468566E-07</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>3.425436928826177E-07</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.04556946004413293</v>
+        <v>0.04562505176828355</v>
       </c>
       <c r="BC4">
-        <v>0.002581173472427656</v>
+        <v>0.002577152523665451</v>
       </c>
       <c r="BD4">
-        <v>0.04857145524467233</v>
+        <v>0.04863120989254584</v>
       </c>
       <c r="BE4">
-        <v>0.0006612304041715404</v>
+        <v>0.0006545470339157901</v>
       </c>
       <c r="BF4">
-        <v>0.01697631713405263</v>
+        <v>0.01699225820422789</v>
       </c>
       <c r="BG4">
-        <v>0.002076352638704593</v>
+        <v>0.002071631645310693</v>
       </c>
       <c r="BH4">
-        <v>0.008348672557708364</v>
+        <v>0.008352649509395679</v>
       </c>
       <c r="BI4">
-        <v>0.002921671795173638</v>
+        <v>0.002918123021898293</v>
       </c>
       <c r="BJ4">
-        <v>0.02882062992527689</v>
+        <v>0.02885299572880651</v>
       </c>
       <c r="BK4">
-        <v>0.02985585299443191</v>
+        <v>0.0298896543614402</v>
       </c>
       <c r="BL4">
-        <v>6.252842417702633E-05</v>
+        <v>5.501482252216805E-05</v>
       </c>
       <c r="BM4">
-        <v>0.005637376376588246</v>
+        <v>0.005637593522400411</v>
       </c>
       <c r="BN4">
-        <v>0.001038850469397331</v>
+        <v>0.001032690752053313</v>
       </c>
       <c r="BO4">
-        <v>0.005967894998667564</v>
+        <v>0.005968570480926257</v>
       </c>
       <c r="BP4">
-        <v>1.086963372611371E-05</v>
+        <v>3.284395846045899E-06</v>
       </c>
       <c r="BQ4">
-        <v>4.363502291490858E-05</v>
+        <v>3.609522142192065E-05</v>
       </c>
       <c r="BR4">
-        <v>0.00994485216433642</v>
+        <v>0.009951042568579965</v>
       </c>
       <c r="BS4">
-        <v>0.0004259637484552477</v>
+        <v>0.0004189541294626206</v>
       </c>
       <c r="BT4">
-        <v>0.008196354547533209</v>
+        <v>0.008200120276944797</v>
       </c>
       <c r="BU4">
-        <v>0.01089538372783387</v>
+        <v>0.01090289225223774</v>
       </c>
       <c r="BV4">
-        <v>1.026812268593155E-05</v>
+        <v>2.682050679087548E-06</v>
       </c>
       <c r="BW4">
-        <v>0.001082283072298718</v>
+        <v>0.0010761835837695</v>
       </c>
       <c r="BX4">
-        <v>0.00183658282268748</v>
+        <v>0.001831529335938844</v>
       </c>
       <c r="BY4">
-        <v>0.01046625569916724</v>
+        <v>0.01047316914358885</v>
       </c>
       <c r="BZ4">
-        <v>0.008576775572946111</v>
+        <v>0.008581068839414084</v>
       </c>
       <c r="CA4">
-        <v>0.001534653702517999</v>
+        <v>0.001529181524927765</v>
       </c>
       <c r="CB4">
-        <v>0.008568166572371012</v>
+        <v>0.008572447900574487</v>
       </c>
       <c r="CC4">
-        <v>0.002123979341886154</v>
+        <v>0.002119324393345517</v>
       </c>
       <c r="CD4">
-        <v>0.002813786687966693</v>
+        <v>0.002810088308365509</v>
       </c>
       <c r="CE4">
-        <v>0.00340327762734589</v>
+        <v>0.003400396706018965</v>
       </c>
       <c r="CF4">
-        <v>0.0003936555862969965</v>
+        <v>0.0003866011649626911</v>
       </c>
       <c r="CG4">
-        <v>0.002974634498711655</v>
+        <v>0.002971159169822545</v>
       </c>
       <c r="CH4">
-        <v>0.009630549643340369</v>
+        <v>0.009636304198312542</v>
       </c>
       <c r="CI4">
-        <v>0.02875474192087544</v>
+        <v>0.02878701635625878</v>
       </c>
       <c r="CJ4">
-        <v>0.02184879745954426</v>
+        <v>0.02187149529066726</v>
       </c>
       <c r="CK4">
-        <v>0.00477057401868408</v>
+        <v>0.004769589153214506</v>
       </c>
       <c r="CL4">
-        <v>0.004286826886368784</v>
+        <v>0.004285171199569238</v>
       </c>
       <c r="CM4">
-        <v>7.219682482289523E-05</v>
+        <v>6.469663052272022E-05</v>
       </c>
       <c r="CN4">
-        <v>0.01356879290642306</v>
+        <v>0.01358000869807657</v>
       </c>
       <c r="CO4">
-        <v>0.01215276181182929</v>
+        <v>0.01216201396628745</v>
       </c>
       <c r="CP4">
-        <v>0.02055825237333321</v>
+        <v>0.02057916058109043</v>
       </c>
       <c r="CQ4">
-        <v>0.0258121097243016</v>
+        <v>0.02584030355576638</v>
       </c>
       <c r="CR4">
-        <v>0.01503052000406941</v>
+        <v>0.01504376280043302</v>
       </c>
       <c r="CS4">
-        <v>0.01230529082201854</v>
+        <v>0.01231475449135015</v>
       </c>
       <c r="CT4">
-        <v>0.002663756877944395</v>
+        <v>0.002659850449158066</v>
       </c>
       <c r="CU4">
-        <v>0.004719332315261029</v>
+        <v>0.004718276391948743</v>
       </c>
       <c r="CV4">
-        <v>0.0354894683707689</v>
+        <v>0.03553108197914639</v>
       </c>
       <c r="CW4">
-        <v>0.04359619291231465</v>
+        <v>0.0436490482694807</v>
       </c>
       <c r="CX4">
-        <v>0.04570831705340885</v>
+        <v>0.04576410133320977</v>
       </c>
       <c r="CY4">
-        <v>0.0210656274072269</v>
+        <v>0.02108723920157367</v>
       </c>
       <c r="CZ4">
-        <v>0.01046298969894906</v>
+        <v>0.01046989861434618</v>
       </c>
       <c r="DA4">
-        <v>0.0001112994874350329</v>
+        <v>0.0001038535175392763</v>
       </c>
       <c r="DB4">
-        <v>0.002601732873801065</v>
+        <v>0.002597740435150965</v>
       </c>
       <c r="DC4">
-        <v>0.01353811990437404</v>
+        <v>0.01354929316119343</v>
       </c>
       <c r="DD4">
-        <v>0.01913283127811217</v>
+        <v>0.01915176282738195</v>
       </c>
       <c r="DE4">
-        <v>0.01673097811766348</v>
+        <v>0.01674657897156815</v>
       </c>
       <c r="DF4">
-        <v>0.01986425132697252</v>
+        <v>0.01988419715030652</v>
       </c>
       <c r="DG4">
-        <v>0.0174931991685814</v>
+        <v>0.01750985700888445</v>
       </c>
       <c r="DH4">
-        <v>0.008155800544824119</v>
+        <v>0.008159510037230429</v>
       </c>
       <c r="DI4">
-        <v>0.000258165197245962</v>
+        <v>0.0002509228888175324</v>
       </c>
       <c r="DJ4">
-        <v>0.005424164362345249</v>
+        <v>0.005424085843010468</v>
       </c>
       <c r="DK4">
-        <v>0.0207898663888055</v>
+        <v>0.02081109578011405</v>
       </c>
       <c r="DL4">
-        <v>0.01725204415247176</v>
+        <v>0.01726836757853681</v>
       </c>
       <c r="DM4">
-        <v>0.005007875034536272</v>
+        <v>0.005007219238889387</v>
       </c>
       <c r="DN4">
-        <v>0.00223388714922822</v>
+        <v>0.00222938461193009</v>
       </c>
       <c r="DO4">
-        <v>0.0005694150880380898</v>
+        <v>0.0005626043957407894</v>
       </c>
       <c r="DP4">
-        <v>1.886578126027269E-05</v>
+        <v>1.129163178975852E-05</v>
       </c>
       <c r="DQ4">
-        <v>2.530782669061447E-08</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.000161404560782154</v>
+        <v>0.0001540280725426094</v>
       </c>
       <c r="DS4">
-        <v>0.001993900133196598</v>
+        <v>0.001989064801348349</v>
       </c>
       <c r="DT4">
-        <v>0.004153993677495254</v>
+        <v>0.004152153788363771</v>
       </c>
       <c r="DU4">
-        <v>0.001849890023576429</v>
+        <v>0.001844854990175837</v>
       </c>
       <c r="DV4">
-        <v>0.002878273992274577</v>
+        <v>0.002874665038442254</v>
       </c>
       <c r="DW4">
-        <v>0.0009953878664939408</v>
+        <v>0.0009891678787335495</v>
       </c>
       <c r="DX4">
-        <v>0.0001547796703395978</v>
+        <v>0.0001473939952387351</v>
       </c>
       <c r="DY4">
-        <v>0.0003354279524072717</v>
+        <v>0.0003282927857078825</v>
       </c>
       <c r="DZ4">
-        <v>0.0004085532872921933</v>
+        <v>0.0004015195248826184</v>
       </c>
       <c r="EA4">
-        <v>0.002826082188788057</v>
+        <v>0.002822400859591232</v>
       </c>
       <c r="EB4">
-        <v>0.003180078912435761</v>
+        <v>0.003176888477214527</v>
       </c>
       <c r="EC4">
-        <v>0.004020183568556466</v>
+        <v>0.004018158122407182</v>
       </c>
       <c r="ED4">
-        <v>0.002823610988622976</v>
+        <v>0.002819926232565979</v>
       </c>
       <c r="EE4">
-        <v>0.0007099169474239008</v>
+        <v>0.0007033010917217562</v>
       </c>
       <c r="EF4">
-        <v>0.0007616151508774463</v>
+        <v>0.0007550709860552699</v>
       </c>
       <c r="EG4">
-        <v>0.0008814706588840388</v>
+        <v>0.0008750926999696899</v>
       </c>
       <c r="EH4">
-        <v>6.997558467451186E-05</v>
+        <v>6.247231013846362E-05</v>
       </c>
       <c r="EI4">
-        <v>0.000805011753776428</v>
+        <v>0.0007985277678471655</v>
       </c>
       <c r="EJ4">
-        <v>0.001280809485560688</v>
+        <v>0.0012749852973768</v>
       </c>
       <c r="EK4">
-        <v>0.001182386878985856</v>
+        <v>0.001176426206305356</v>
       </c>
       <c r="EL4">
-        <v>0.0001254675083814856</v>
+        <v>0.0001180411855492865</v>
       </c>
       <c r="EM4">
-        <v>0.0003049162503690278</v>
+        <v>0.0002977387725133057</v>
       </c>
       <c r="EN4">
-        <v>2.114825441274655E-05</v>
+        <v>1.357727009107459E-05</v>
       </c>
       <c r="EO4">
-        <v>0.0005449288664023603</v>
+        <v>0.0005380842185967656</v>
       </c>
       <c r="EP4">
-        <v>0.00458830160650791</v>
+        <v>0.004587063980424815</v>
       </c>
       <c r="EQ4">
-        <v>0.008799229587806493</v>
+        <v>0.008803831335479082</v>
       </c>
       <c r="ER4">
-        <v>0.0060472464039684</v>
+        <v>0.006048031924326925</v>
       </c>
       <c r="ES4">
-        <v>0.000234101665638469</v>
+        <v>0.00022682598785403</v>
       </c>
       <c r="ET4">
-        <v>0.002725653982079248</v>
+        <v>0.002721833387182038</v>
       </c>
       <c r="EU4">
-        <v>0.003035803802797889</v>
+        <v>0.003032413298543758</v>
       </c>
       <c r="EV4">
-        <v>0.00521953904867586</v>
+        <v>0.005219176771534796</v>
       </c>
       <c r="EW4">
-        <v>0.004193983280166642</v>
+        <v>0.00419219884537619</v>
       </c>
       <c r="EX4">
-        <v>0.002815382088073269</v>
+        <v>0.002811685920843693</v>
       </c>
       <c r="EY4">
-        <v>0.0014519795969952</v>
+        <v>0.001446392773653671</v>
       </c>
       <c r="EZ4">
-        <v>4.592259906772333E-05</v>
+        <v>3.838596980000504E-05</v>
       </c>
       <c r="FA4">
-        <v>0.001377408592013705</v>
+        <v>0.0013717183596442</v>
       </c>
       <c r="FB4">
-        <v>0.005333305356275682</v>
+        <v>0.005333100841032667</v>
       </c>
       <c r="FC4">
-        <v>0.007070644772333499</v>
+        <v>0.007072849458633684</v>
       </c>
       <c r="FD4">
-        <v>0.006885520459966818</v>
+        <v>0.006887468430869357</v>
       </c>
       <c r="FE4">
-        <v>0.003011141901150424</v>
+        <v>0.003007717197769191</v>
       </c>
       <c r="FF4">
-        <v>5.891315993551931E-05</v>
+        <v>5.13945449251191E-05</v>
       </c>
       <c r="FG4">
-        <v>0.0002265612551347542</v>
+        <v>0.0002192751209199517</v>
       </c>
       <c r="FH4">
-        <v>0.004262509284744319</v>
+        <v>0.004260819876265048</v>
       </c>
       <c r="FI4">
-        <v>0.006202418414334208</v>
+        <v>0.006203419114664694</v>
       </c>
       <c r="FJ4">
-        <v>0.007893339527291187</v>
+        <v>0.007896685060022937</v>
       </c>
       <c r="FK4">
-        <v>0.006984819166600174</v>
+        <v>0.006986904836903906</v>
       </c>
       <c r="FL4">
-        <v>0.003669522045131561</v>
+        <v>0.003667010329992137</v>
       </c>
       <c r="FM4">
-        <v>0.00216195984442333</v>
+        <v>0.002157357564166437</v>
       </c>
       <c r="FN4">
-        <v>0.0009224264116199667</v>
+        <v>0.0009161052468252828</v>
       </c>
       <c r="FO4">
-        <v>0.000175891991749944</v>
+        <v>0.0001685355935058959</v>
       </c>
       <c r="FP4">
-        <v>0.001440816096249455</v>
+        <v>0.001435213792269558</v>
       </c>
       <c r="FQ4">
-        <v>0.003271672218554381</v>
+        <v>0.003268608797509196</v>
       </c>
       <c r="FR4">
-        <v>0.008645806077557489</v>
+        <v>0.008650195069936415</v>
       </c>
       <c r="FS4">
-        <v>0.01007363667293949</v>
+        <v>0.01008000566510546</v>
       </c>
       <c r="FT4">
-        <v>0.007278043486188157</v>
+        <v>0.007280535776221301</v>
       </c>
       <c r="FU4">
-        <v>0.002005681733983633</v>
+        <v>0.002000862739904812</v>
       </c>
       <c r="FV4">
-        <v>0.0001066181211223081</v>
+        <v>9.91656594870326E-05</v>
       </c>
       <c r="FW4">
-        <v>0.002803881387304998</v>
+        <v>0.002800169271835382</v>
       </c>
       <c r="FX4">
-        <v>0.007352190491141328</v>
+        <v>0.007354785602233562</v>
       </c>
       <c r="FY4">
-        <v>0.005898657394042351</v>
+        <v>0.00589923686320057</v>
       </c>
       <c r="FZ4">
-        <v>0.004162927278092038</v>
+        <v>0.004161099777354062</v>
       </c>
       <c r="GA4">
-        <v>0.002057329437433805</v>
+        <v>0.002052582064205639</v>
       </c>
       <c r="GB4">
-        <v>0.0008409955161802167</v>
+        <v>0.0008345614296172565</v>
       </c>
       <c r="GC4">
-        <v>0.0006768880452175026</v>
+        <v>0.0006702263877097751</v>
       </c>
       <c r="GD4">
-        <v>0.002397985560190329</v>
+        <v>0.002393710581273292</v>
       </c>
       <c r="GE4">
-        <v>0.009181264613327212</v>
+        <v>0.00918639613622077</v>
       </c>
       <c r="GF4">
-        <v>0.009225868616306851</v>
+        <v>0.009231061992417931</v>
       </c>
       <c r="GG4">
-        <v>0.006172016412303291</v>
+        <v>0.006172974953600526</v>
       </c>
       <c r="GH4">
-        <v>0.003674273645448978</v>
+        <v>0.0036717685194439</v>
       </c>
       <c r="GI4">
-        <v>9.162666912084848E-07</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.004582990706153131</v>
+        <v>0.004581745715343712</v>
       </c>
       <c r="GK4">
-        <v>0.008168316545660215</v>
+        <v>0.008172043394242439</v>
       </c>
       <c r="GL4">
-        <v>0.007752156517859874</v>
+        <v>0.007755306269432771</v>
       </c>
       <c r="GM4">
-        <v>0.004125016975559552</v>
+        <v>0.004123136903885512</v>
       </c>
       <c r="GN4">
-        <v>0.002381273459073926</v>
+        <v>0.002376975305169073</v>
       </c>
       <c r="GO4">
-        <v>3.256770217558897E-05</v>
+        <v>2.501255341887249E-05</v>
       </c>
       <c r="GP4">
-        <v>0.0003796563753618206</v>
+        <v>0.0003725825410560043</v>
       </c>
       <c r="GQ4">
-        <v>0.0001177773818677695</v>
+        <v>0.0001103403949911741</v>
       </c>
       <c r="GR4">
-        <v>0.0005500054367414855</v>
+        <v>0.0005431678287123341</v>
       </c>
       <c r="GS4">
-        <v>0.001610237607567158</v>
+        <v>0.001604870243612649</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>6.164159939323706E-06</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2.595007974456298E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>9.034036911074359E-05</v>
+        <v>1.323545332447424E-05</v>
       </c>
       <c r="E5">
-        <v>1.923308781068102E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>5.694577943945989E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0001052899889635885</v>
+        <v>2.837958125633629E-05</v>
       </c>
       <c r="H5">
-        <v>3.17588526873849E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.722504283044701E-06</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2.19520587839171E-07</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>4.422659956465988E-06</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>8.413959517178028E-05</v>
+        <v>6.954001706803413E-06</v>
       </c>
       <c r="M5">
-        <v>5.734299943554991E-05</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>7.727490923935214E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0001179523488389478</v>
+        <v>4.120668988915057E-05</v>
       </c>
       <c r="P5">
-        <v>7.588152925306772E-05</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>5.734299943554991E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0001362508486588284</v>
+        <v>5.974326974610868E-05</v>
       </c>
       <c r="S5">
-        <v>4.899009951777084E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>3.305500267462638E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>3.887516961733614E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>4.071828159919365E-07</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>3.52602436529193E-05</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>4.704277453693914E-07</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>5.010239950682202E-06</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>2.303566977325068E-05</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>6.730042933753493E-06</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>1.693212083333036E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>4.895666551809994E-05</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>3.27535896775933E-05</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>3.122273469266212E-05</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.106682789106478E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>4.788216952867664E-06</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>1.417193486049997E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0001036624689796088</v>
+        <v>2.673088576496835E-05</v>
       </c>
       <c r="AJ5">
-        <v>0.0001127707138899527</v>
+        <v>3.595763718170957E-05</v>
       </c>
       <c r="AK5">
-        <v>0.0001281415287386516</v>
+        <v>5.152844023737147E-05</v>
       </c>
       <c r="AL5">
-        <v>8.26419291865224E-05</v>
+        <v>5.436849732157885E-06</v>
       </c>
       <c r="AM5">
-        <v>0.0001020476289955043</v>
+        <v>2.509503525174538E-05</v>
       </c>
       <c r="AN5">
-        <v>7.309195928052658E-05</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>1.723816283031786E-07</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.024463180072399E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>6.713356533917745E-05</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>7.783581423383092E-05</v>
+        <v>5.682028759005885E-07</v>
       </c>
       <c r="AS5">
-        <v>0.0001287370387327898</v>
+        <v>5.213169835528372E-05</v>
       </c>
       <c r="AT5">
-        <v>0.0001622944784024705</v>
+        <v>8.612575067405741E-05</v>
       </c>
       <c r="AU5">
-        <v>0.000126399108755803</v>
+        <v>4.976334979420068E-05</v>
       </c>
       <c r="AV5">
-        <v>0.0001485996785372739</v>
+        <v>7.225276907310269E-05</v>
       </c>
       <c r="AW5">
-        <v>6.531949435703407E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>2.880682971644284E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>9.648183905029063E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>2.503760975354478E-07</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>7.162235229499252E-06</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>6.93697693171656E-05</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>2.067677279647025E-05</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>1.256015787636534E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>6.531949435703407E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>1.036057389801672E-06</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>3.147803669014908E-06</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.008370708917603761</v>
+        <v>0.008401339087777885</v>
       </c>
       <c r="BI5">
-        <v>0.01700599983260314</v>
+        <v>0.01714898294981967</v>
       </c>
       <c r="BJ5">
-        <v>0.0449601145574396</v>
+        <v>0.04546680599695962</v>
       </c>
       <c r="BK5">
-        <v>8.684359914516369E-06</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.008495435916376025</v>
+        <v>0.008527688897643111</v>
       </c>
       <c r="BM5">
-        <v>0.01658155583678111</v>
+        <v>0.01671901655362289</v>
       </c>
       <c r="BN5">
-        <v>0.006590439935127662</v>
+        <v>0.006597907195252983</v>
       </c>
       <c r="BO5">
-        <v>3.994470960680823E-05</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.05358548947253657</v>
+        <v>0.05420440484296939</v>
       </c>
       <c r="BQ5">
-        <v>0.05247082948350863</v>
+        <v>0.05307524211906543</v>
       </c>
       <c r="BR5">
-        <v>0.0002800977972428852</v>
+        <v>0.0002054617972677557</v>
       </c>
       <c r="BS5">
-        <v>0.0004064069959995732</v>
+        <v>0.0003334143929705998</v>
       </c>
       <c r="BT5">
-        <v>0.001198922388198527</v>
+        <v>0.001136241127400695</v>
       </c>
       <c r="BU5">
-        <v>0.006097567239979204</v>
+        <v>0.006098621780444962</v>
       </c>
       <c r="BV5">
-        <v>0.002178712478554061</v>
+        <v>0.002128779173235433</v>
       </c>
       <c r="BW5">
-        <v>0.0007207689929051823</v>
+        <v>0.000651866523855266</v>
       </c>
       <c r="BX5">
-        <v>0.01197690288210655</v>
+        <v>0.01205445289823684</v>
       </c>
       <c r="BY5">
-        <v>0.0001663151983628929</v>
+        <v>9.019878383865932E-05</v>
       </c>
       <c r="BZ5">
-        <v>0.01193511788251786</v>
+        <v>0.01201212423800114</v>
       </c>
       <c r="CA5">
-        <v>0.01152811688652413</v>
+        <v>0.01159982779084089</v>
       </c>
       <c r="CB5">
-        <v>5.151264249294043E-07</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.0005334855947486877</v>
+        <v>0.0004621463992558383</v>
       </c>
       <c r="CD5">
-        <v>0.001193250488254358</v>
+        <v>0.001130495430906956</v>
       </c>
       <c r="CE5">
-        <v>0.001250576087690079</v>
+        <v>0.001188566888253079</v>
       </c>
       <c r="CF5">
-        <v>0.00242930997608733</v>
+        <v>0.00238263717092399</v>
       </c>
       <c r="CG5">
-        <v>0.002278682977570011</v>
+        <v>0.002230050378885625</v>
       </c>
       <c r="CH5">
-        <v>0.00373549776323</v>
+        <v>0.003705819642868926</v>
       </c>
       <c r="CI5">
-        <v>0.0009282506608628571</v>
+        <v>0.000862047716019106</v>
       </c>
       <c r="CJ5">
-        <v>0.001191600988270594</v>
+        <v>0.001128824469436122</v>
       </c>
       <c r="CK5">
-        <v>0.004339079357288705</v>
+        <v>0.004317254379518955</v>
       </c>
       <c r="CL5">
-        <v>2.538539175012143E-05</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.0001003337890123744</v>
+        <v>2.335889665994558E-05</v>
       </c>
       <c r="CN5">
-        <v>0.00448001995590137</v>
+        <v>0.004460028742826745</v>
       </c>
       <c r="CO5">
-        <v>0.02116224179169158</v>
+        <v>0.02135930137689529</v>
       </c>
       <c r="CP5">
-        <v>0.02636809474044829</v>
+        <v>0.02663288718218451</v>
       </c>
       <c r="CQ5">
-        <v>0.01193511788251786</v>
+        <v>0.01201212423800114</v>
       </c>
       <c r="CR5">
-        <v>0.005035525650433305</v>
+        <v>0.005022762069003503</v>
       </c>
       <c r="CS5">
-        <v>0.0006679123534254713</v>
+        <v>0.000598322171677192</v>
       </c>
       <c r="CT5">
-        <v>0.00812344692003766</v>
+        <v>0.008150859987928654</v>
       </c>
       <c r="CU5">
-        <v>0.01391910586298867</v>
+        <v>0.01402192569698666</v>
       </c>
       <c r="CV5">
-        <v>0.02672272973695747</v>
+        <v>0.02699213630083207</v>
       </c>
       <c r="CW5">
-        <v>0.03116200469325991</v>
+        <v>0.03148917024047181</v>
       </c>
       <c r="CX5">
-        <v>0.02488148175508162</v>
+        <v>0.02512693201695829</v>
       </c>
       <c r="CY5">
-        <v>0.02009139980223231</v>
+        <v>0.02027452676437597</v>
       </c>
       <c r="CZ5">
-        <v>0.01240356087790678</v>
+        <v>0.01248666210055452</v>
       </c>
       <c r="DA5">
-        <v>1.054346389621646E-05</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.01370074186513811</v>
+        <v>0.01380072058597293</v>
       </c>
       <c r="DC5">
-        <v>0.03520137965349873</v>
+        <v>0.03558110112331467</v>
       </c>
       <c r="DD5">
-        <v>0.04687414253859905</v>
+        <v>0.04740573721375081</v>
       </c>
       <c r="DE5">
-        <v>0.03024770470225973</v>
+        <v>0.0305629743794331</v>
       </c>
       <c r="DF5">
-        <v>0.02005372780260313</v>
+        <v>0.02023636461795024</v>
       </c>
       <c r="DG5">
-        <v>0.002592291474483038</v>
+        <v>0.002547739206061123</v>
       </c>
       <c r="DH5">
-        <v>0.0003680971263766726</v>
+        <v>0.0002946060772854516</v>
       </c>
       <c r="DI5">
-        <v>0.006033947940605435</v>
+        <v>0.006034174736430767</v>
       </c>
       <c r="DJ5">
-        <v>0.01127259088903938</v>
+        <v>0.01134097716895772</v>
       </c>
       <c r="DK5">
-        <v>0.01048550089678702</v>
+        <v>0.01054364642383582</v>
       </c>
       <c r="DL5">
-        <v>0.01395105886267414</v>
+        <v>0.01405429443410552</v>
       </c>
       <c r="DM5">
-        <v>0.01724772183022377</v>
+        <v>0.01739384996931218</v>
       </c>
       <c r="DN5">
-        <v>0.01130811988868965</v>
+        <v>0.01137696843303608</v>
       </c>
       <c r="DO5">
-        <v>0.001386995186347251</v>
+        <v>0.001326760922800411</v>
       </c>
       <c r="DP5">
-        <v>0.001977914480530596</v>
+        <v>0.001925368611598279</v>
       </c>
       <c r="DQ5">
-        <v>0.01499741585237443</v>
+        <v>0.01511426547486771</v>
       </c>
       <c r="DR5">
-        <v>0.02541502574982973</v>
+        <v>0.02566741790176857</v>
       </c>
       <c r="DS5">
-        <v>0.01119209588983172</v>
+        <v>0.01125943485698757</v>
       </c>
       <c r="DT5">
-        <v>0.006853217632541035</v>
+        <v>0.006864103868241357</v>
       </c>
       <c r="DU5">
-        <v>0.003000393270465928</v>
+        <v>0.002961150775614274</v>
       </c>
       <c r="DV5">
-        <v>0.0006878109332296016</v>
+        <v>0.000618479650006567</v>
       </c>
       <c r="DW5">
-        <v>1.723816283031786E-07</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>6.579650935233862E-05</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.0007223516528896035</v>
+        <v>0.0006534697756778969</v>
       </c>
       <c r="DZ5">
-        <v>0.00467576125397461</v>
+        <v>0.004658316812272589</v>
       </c>
       <c r="EA5">
-        <v>0.003347146767052694</v>
+        <v>0.003312415848895129</v>
       </c>
       <c r="EB5">
-        <v>0.006432403936683273</v>
+        <v>0.006437815005495668</v>
       </c>
       <c r="EC5">
-        <v>0.005144237449363212</v>
+        <v>0.005132888306787675</v>
       </c>
       <c r="ED5">
-        <v>0.002622945174181301</v>
+        <v>0.002578791738124474</v>
       </c>
       <c r="EE5">
-        <v>0.002645828473956051</v>
+        <v>0.002601972770331525</v>
       </c>
       <c r="EF5">
-        <v>0.0002673743973681268</v>
+        <v>0.000192572854449928</v>
       </c>
       <c r="EG5">
-        <v>0.00065929859351026</v>
+        <v>0.0005895963389527244</v>
       </c>
       <c r="EH5">
-        <v>0.001304813987156194</v>
+        <v>0.001243510471859588</v>
       </c>
       <c r="EI5">
-        <v>0.002206522978280311</v>
+        <v>0.002156951512722929</v>
       </c>
       <c r="EJ5">
-        <v>0.001642265883834519</v>
+        <v>0.001585352923002154</v>
       </c>
       <c r="EK5">
-        <v>0.000530914294773998</v>
+        <v>0.0004595416443422554</v>
       </c>
       <c r="EL5">
-        <v>0.001483682485395519</v>
+        <v>0.001424706211081071</v>
       </c>
       <c r="EM5">
-        <v>0.001545023184791718</v>
+        <v>0.001486845008470569</v>
       </c>
       <c r="EN5">
-        <v>0.0002490321275486771</v>
+        <v>0.0001739919351061082</v>
       </c>
       <c r="EO5">
-        <v>0.00100597759009776</v>
+        <v>0.0009407859429219228</v>
       </c>
       <c r="EP5">
-        <v>0.002166096078678249</v>
+        <v>0.00211599862258334</v>
       </c>
       <c r="EQ5">
-        <v>0.001489637885336898</v>
+        <v>0.001430739096163462</v>
       </c>
       <c r="ER5">
-        <v>0.0001706554283201703</v>
+        <v>9.459548411423192E-05</v>
       </c>
       <c r="ES5">
-        <v>0.0008361994317689543</v>
+        <v>0.000768798817157111</v>
       </c>
       <c r="ET5">
-        <v>0.001054682389618339</v>
+        <v>0.0009901244359468795</v>
       </c>
       <c r="EU5">
-        <v>0.0001895167981345103</v>
+        <v>0.0001137022574134988</v>
       </c>
       <c r="EV5">
-        <v>0.0006344744437546141</v>
+        <v>0.0005644492045506638</v>
       </c>
       <c r="EW5">
-        <v>0.003878933761818102</v>
+        <v>0.00385112187356339</v>
       </c>
       <c r="EX5">
-        <v>0.003771592362874707</v>
+        <v>0.003742383865909337</v>
       </c>
       <c r="EY5">
-        <v>0.0004400420556684899</v>
+        <v>0.0003674870751950213</v>
       </c>
       <c r="EZ5">
-        <v>0.001731857882952629</v>
+        <v>0.001676110595081537</v>
       </c>
       <c r="FA5">
-        <v>0.00434254195725462</v>
+        <v>0.004320762031042998</v>
       </c>
       <c r="FB5">
-        <v>0.006285498338129324</v>
+        <v>0.006288998032200898</v>
       </c>
       <c r="FC5">
-        <v>0.005269820948127043</v>
+        <v>0.005260105760484223</v>
       </c>
       <c r="FD5">
-        <v>0.004578606954930939</v>
+        <v>0.004559898447904097</v>
       </c>
       <c r="FE5">
-        <v>0.001932152680981048</v>
+        <v>0.001879011409636471</v>
       </c>
       <c r="FF5">
-        <v>9.545037906044371E-05</v>
+        <v>1.841194912658121E-05</v>
       </c>
       <c r="FG5">
-        <v>0.001146955888710054</v>
+        <v>0.001083598496740443</v>
       </c>
       <c r="FH5">
-        <v>0.003580457964756119</v>
+        <v>0.003548762636354359</v>
       </c>
       <c r="FI5">
-        <v>0.01058028289585404</v>
+        <v>0.01063966162245878</v>
       </c>
       <c r="FJ5">
-        <v>0.01107231089101081</v>
+        <v>0.01113809134696403</v>
       </c>
       <c r="FK5">
-        <v>0.009269143908760106</v>
+        <v>0.009311463530971925</v>
       </c>
       <c r="FL5">
-        <v>0.003606228964502444</v>
+        <v>0.003574868940122081</v>
       </c>
       <c r="FM5">
-        <v>0.0001756841482706706</v>
+        <v>9.968963226070745E-05</v>
       </c>
       <c r="FN5">
-        <v>0.0006333919537652695</v>
+        <v>0.0005633526303872429</v>
       </c>
       <c r="FO5">
-        <v>0.004596941554750465</v>
+        <v>0.004578471597454355</v>
       </c>
       <c r="FP5">
-        <v>0.004667382654057084</v>
+        <v>0.004649829199190123</v>
       </c>
       <c r="FQ5">
-        <v>0.005642609644457534</v>
+        <v>0.005637744775011184</v>
       </c>
       <c r="FR5">
-        <v>0.002450782275875969</v>
+        <v>0.002404388844758598</v>
       </c>
       <c r="FS5">
-        <v>0.001527548184963732</v>
+        <v>0.001469142643085409</v>
       </c>
       <c r="FT5">
-        <v>0.001263730487560595</v>
+        <v>0.001201892438766529</v>
       </c>
       <c r="FU5">
-        <v>4.567138955043823E-05</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.0008903213212362108</v>
+        <v>0.0008236248813697241</v>
       </c>
       <c r="FW5">
-        <v>0.001310975587095543</v>
+        <v>0.001249752239788469</v>
       </c>
       <c r="FX5">
-        <v>0.004050366960130616</v>
+        <v>0.004024785572879393</v>
       </c>
       <c r="FY5">
-        <v>0.006683838534208302</v>
+        <v>0.006692520994604191</v>
       </c>
       <c r="FZ5">
-        <v>0.005757654543325102</v>
+        <v>0.005754286512092681</v>
       </c>
       <c r="GA5">
-        <v>0.003033364670141377</v>
+        <v>0.002994551163028308</v>
       </c>
       <c r="GB5">
-        <v>4.704277453693914E-07</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.001458642785641995</v>
+        <v>0.001399340722180655</v>
       </c>
       <c r="GD5">
-        <v>0.008809420913285343</v>
+        <v>0.008845759123420468</v>
       </c>
       <c r="GE5">
-        <v>0.0086102969152454</v>
+        <v>0.008644044342021068</v>
       </c>
       <c r="GF5">
-        <v>0.006871684432359259</v>
+        <v>0.006882810937831896</v>
       </c>
       <c r="GG5">
-        <v>0.004429009256403489</v>
+        <v>0.004408354347979663</v>
       </c>
       <c r="GH5">
-        <v>0.003321677667303397</v>
+        <v>0.003286615373116521</v>
       </c>
       <c r="GI5">
-        <v>0.000126399108755803</v>
+        <v>4.976334979420068E-05</v>
       </c>
       <c r="GJ5">
-        <v>0.0006735620533698592</v>
+        <v>0.0006040453793290683</v>
       </c>
       <c r="GK5">
-        <v>0.004742413753318523</v>
+        <v>0.004725836520932638</v>
       </c>
       <c r="GL5">
-        <v>0.009443182407046974</v>
+        <v>0.009487766427571929</v>
       </c>
       <c r="GM5">
-        <v>0.007081413530294812</v>
+        <v>0.007095268801070849</v>
       </c>
       <c r="GN5">
-        <v>0.007224158328889717</v>
+        <v>0.007239870838634884</v>
       </c>
       <c r="GO5">
-        <v>0.001758932482686123</v>
+        <v>0.001703537459851611</v>
       </c>
       <c r="GP5">
-        <v>0.000934713890799237</v>
+        <v>0.0008685950384241604</v>
       </c>
       <c r="GQ5">
-        <v>0.003170189968794551</v>
+        <v>0.003133156682601074</v>
       </c>
       <c r="GR5">
-        <v>0.00471974395354167</v>
+        <v>0.004702871766551609</v>
       </c>
       <c r="GS5">
-        <v>0.001886926381426228</v>
+        <v>0.001833196675008783</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>4.291697610337419E-08</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>8.644115819406257E-05</v>
+        <v>8.42372761655009E-05</v>
       </c>
       <c r="D6">
-        <v>0.0001119490016611501</v>
+        <v>0.0001097559567659706</v>
       </c>
       <c r="E6">
-        <v>0.0001108776676835325</v>
+        <v>0.000108684167626817</v>
       </c>
       <c r="F6">
-        <v>0.0002240035353200954</v>
+        <v>0.0002218580973474261</v>
       </c>
       <c r="G6">
-        <v>0.0002610072945470091</v>
+        <v>0.0002588775778043569</v>
       </c>
       <c r="H6">
-        <v>0.0001803590362319207</v>
+        <v>0.0001781950556780792</v>
       </c>
       <c r="I6">
-        <v>0.0001248824673909428</v>
+        <v>0.0001226949173426087</v>
       </c>
       <c r="J6">
-        <v>1.056905677919019E-05</v>
+        <v>8.332940113306851E-06</v>
       </c>
       <c r="K6">
-        <v>2.239655453208891E-06</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.093674877150834E-08</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>3.397648929015975E-08</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2.308530151769954E-06</v>
+        <v>6.890396031719407E-08</v>
       </c>
       <c r="O6">
-        <v>6.69448836013807E-05</v>
+        <v>6.47327184841883E-05</v>
       </c>
       <c r="P6">
-        <v>4.51250590572427E-05</v>
+        <v>4.29036236797374E-05</v>
       </c>
       <c r="Q6">
-        <v>3.032479936645122E-05</v>
+        <v>2.809707602545865E-05</v>
       </c>
       <c r="R6">
-        <v>1.883188460656236E-05</v>
+        <v>1.659927844392461E-05</v>
       </c>
       <c r="S6">
-        <v>1.207568474771357E-06</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1.927491759730647E-05</v>
+        <v>1.704249965942474E-05</v>
       </c>
       <c r="U6">
-        <v>1.599063766592198E-05</v>
+        <v>1.375682438547722E-05</v>
       </c>
       <c r="V6">
-        <v>5.316632888924366E-07</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>1.372160571332682E-06</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>2.093480356262796E-06</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>2.484830648086666E-05</v>
+        <v>2.261825642480136E-05</v>
       </c>
       <c r="Z6">
-        <v>0.0001316391872497807</v>
+        <v>0.0001294545078272771</v>
       </c>
       <c r="AA6">
-        <v>0.0001973211558775464</v>
+        <v>0.00019516438176408</v>
       </c>
       <c r="AB6">
-        <v>0.0001311405772601978</v>
+        <v>0.0001289556860007754</v>
       </c>
       <c r="AC6">
-        <v>0.0001433683170047346</v>
+        <v>0.0001411886207609844</v>
       </c>
       <c r="AD6">
-        <v>6.933863855137012E-05</v>
+        <v>6.712749043280055E-05</v>
       </c>
       <c r="AE6">
-        <v>1.332861372153725E-05</v>
+        <v>1.109366946706135E-05</v>
       </c>
       <c r="AF6">
-        <v>6.41747986592536E-06</v>
+        <v>4.179599382069185E-06</v>
       </c>
       <c r="AG6">
-        <v>1.575091767093023E-05</v>
+        <v>1.351700254426067E-05</v>
       </c>
       <c r="AH6">
-        <v>3.087421535497276E-05</v>
+        <v>2.864672543607868E-05</v>
       </c>
       <c r="AI6">
-        <v>6.445925865331064E-05</v>
+        <v>6.224603750607262E-05</v>
       </c>
       <c r="AJ6">
-        <v>9.782890795614852E-06</v>
+        <v>7.546440123227372E-06</v>
       </c>
       <c r="AK6">
-        <v>3.114490234931754E-06</v>
+        <v>8.75206459604184E-07</v>
       </c>
       <c r="AL6">
-        <v>4.028046915845635E-05</v>
+        <v>3.805697553298576E-05</v>
       </c>
       <c r="AM6">
-        <v>4.787846699971821E-05</v>
+        <v>4.565820142118736E-05</v>
       </c>
       <c r="AN6">
-        <v>7.649926840176953E-05</v>
+        <v>7.429116251218686E-05</v>
       </c>
       <c r="AO6">
-        <v>0.0001072436327594551</v>
+        <v>0.0001050485887650392</v>
       </c>
       <c r="AP6">
-        <v>0.0001276522473330763</v>
+        <v>0.0001254658740394416</v>
       </c>
       <c r="AQ6">
-        <v>9.528421800931246E-05</v>
+        <v>9.30840929984245E-05</v>
       </c>
       <c r="AR6">
-        <v>1.990704658409996E-05</v>
+        <v>1.767489720934289E-05</v>
       </c>
       <c r="AS6">
-        <v>3.168513933803086E-05</v>
+        <v>2.945799394419937E-05</v>
       </c>
       <c r="AT6">
-        <v>4.67812010226424E-05</v>
+        <v>4.456046926523741E-05</v>
       </c>
       <c r="AU6">
-        <v>6.860709856665355E-09</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>5.316632888924366E-07</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>3.864780919256605E-09</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>1.888942460536023E-06</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>6.060773473377706E-06</v>
+        <v>3.822741441047458E-06</v>
       </c>
       <c r="AZ6">
-        <v>2.048206357208665E-07</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.003053135636213581</v>
+        <v>0.003052192168998367</v>
       </c>
       <c r="BB6">
-        <v>0.02649652344643195</v>
+        <v>0.0265055400184085</v>
       </c>
       <c r="BC6">
-        <v>0.0309939193524719</v>
+        <v>0.03100484666532974</v>
       </c>
       <c r="BD6">
-        <v>0.001105136076911385</v>
+        <v>0.001103364992454446</v>
       </c>
       <c r="BE6">
-        <v>0.01977221058691697</v>
+        <v>0.0197783703013369</v>
       </c>
       <c r="BF6">
-        <v>0.01259081973695132</v>
+        <v>0.01259392840197105</v>
       </c>
       <c r="BG6">
-        <v>0.008754096817108523</v>
+        <v>0.008755575431430846</v>
       </c>
       <c r="BH6">
-        <v>0.00217743915450872</v>
+        <v>0.00217612364331469</v>
       </c>
       <c r="BI6">
-        <v>0.02275400152462109</v>
+        <v>0.02276142806765989</v>
       </c>
       <c r="BJ6">
-        <v>0.05640356882161092</v>
+        <v>0.05642529154964555</v>
       </c>
       <c r="BK6">
-        <v>0.001355093771689243</v>
+        <v>0.001353428882994471</v>
       </c>
       <c r="BL6">
-        <v>0.003769444221248389</v>
+        <v>0.003768805081276239</v>
       </c>
       <c r="BM6">
-        <v>0.0001743729963569817</v>
+        <v>0.0001722064726045103</v>
       </c>
       <c r="BN6">
-        <v>0.01165388675652582</v>
+        <v>0.01165659736093756</v>
       </c>
       <c r="BO6">
-        <v>0.001300674472826177</v>
+        <v>0.001298986463823289</v>
       </c>
       <c r="BP6">
-        <v>0.001327401072267802</v>
+        <v>0.001325724418192796</v>
       </c>
       <c r="BQ6">
-        <v>0.009204519807698239</v>
+        <v>0.009206189786454554</v>
       </c>
       <c r="BR6">
-        <v>6.570822562721709E-06</v>
+        <v>4.33300722726824E-06</v>
       </c>
       <c r="BS6">
-        <v>0.01020404478681606</v>
+        <v>0.01020613941870041</v>
       </c>
       <c r="BT6">
-        <v>0.01419598970341594</v>
+        <v>0.01419978033283028</v>
       </c>
       <c r="BU6">
-        <v>0.0005822830878348827</v>
+        <v>0.0005802898667010741</v>
       </c>
       <c r="BV6">
-        <v>0.00428810431041249</v>
+        <v>0.004287685525742956</v>
       </c>
       <c r="BW6">
-        <v>0.0004300938910144349</v>
+        <v>0.0004280360115480863</v>
       </c>
       <c r="BX6">
-        <v>0.007462539044091878</v>
+        <v>0.007463468933710168</v>
       </c>
       <c r="BY6">
-        <v>0.003261682931856589</v>
+        <v>0.003260828066990779</v>
       </c>
       <c r="BZ6">
-        <v>0.008432862823819776</v>
+        <v>0.008434204960292192</v>
       </c>
       <c r="CA6">
-        <v>0.007678265539584898</v>
+        <v>0.007679287081671134</v>
       </c>
       <c r="CB6">
-        <v>0.001985742958513657</v>
+        <v>0.001984346004243204</v>
       </c>
       <c r="CC6">
-        <v>0.001752049063396013</v>
+        <v>0.001750552823119071</v>
       </c>
       <c r="CD6">
-        <v>0.002381008750255723</v>
+        <v>0.00237977972661069</v>
       </c>
       <c r="CE6">
-        <v>5.910395576519416E-05</v>
+        <v>5.688845939105288E-05</v>
       </c>
       <c r="CF6">
-        <v>0.0003378766329410472</v>
+        <v>0.0003357795745167765</v>
       </c>
       <c r="CG6">
-        <v>0.004431710507412255</v>
+        <v>0.004431352734545361</v>
       </c>
       <c r="CH6">
-        <v>0.0196338125898084</v>
+        <v>0.01963991350515515</v>
       </c>
       <c r="CI6">
-        <v>0.02378878650300226</v>
+        <v>0.02379665267955406</v>
       </c>
       <c r="CJ6">
-        <v>0.01271314073439578</v>
+        <v>0.0127163013680959</v>
       </c>
       <c r="CK6">
-        <v>0.004672344902384896</v>
+        <v>0.004672089364230162</v>
       </c>
       <c r="CL6">
-        <v>0.0001666111165191437</v>
+        <v>0.0001644412950936563</v>
       </c>
       <c r="CM6">
-        <v>0.00537076948779334</v>
+        <v>0.005370810678776027</v>
       </c>
       <c r="CN6">
-        <v>0.009396298803691572</v>
+        <v>0.009398050260702298</v>
       </c>
       <c r="CO6">
-        <v>0.02264259152694868</v>
+        <v>0.02264997073689927</v>
       </c>
       <c r="CP6">
-        <v>0.02290297252150878</v>
+        <v>0.02291046235561196</v>
       </c>
       <c r="CQ6">
-        <v>0.0237578205036492</v>
+        <v>0.02376567352414312</v>
       </c>
       <c r="CR6">
-        <v>0.02225589153502766</v>
+        <v>0.02226310645357522</v>
       </c>
       <c r="CS6">
-        <v>0.01377443771222305</v>
+        <v>0.01377804924319019</v>
       </c>
       <c r="CT6">
-        <v>0.0001698363464517618</v>
+        <v>0.0001676678952811536</v>
       </c>
       <c r="CU6">
-        <v>0.006406608366152489</v>
+        <v>0.006407089638402795</v>
       </c>
       <c r="CV6">
-        <v>0.03615496624464679</v>
+        <v>0.03616808625378781</v>
       </c>
       <c r="CW6">
-        <v>0.05033912894830982</v>
+        <v>0.05035827516908777</v>
       </c>
       <c r="CX6">
-        <v>0.03999884716434002</v>
+        <v>0.04001360026529008</v>
       </c>
       <c r="CY6">
-        <v>0.02125474755594366</v>
+        <v>0.02126153713352305</v>
       </c>
       <c r="CZ6">
-        <v>0.009171162808395136</v>
+        <v>0.009172818615265414</v>
       </c>
       <c r="DA6">
-        <v>0.0002896276939490689</v>
+        <v>0.0002875101367245732</v>
       </c>
       <c r="DB6">
-        <v>0.003524303626369892</v>
+        <v>0.003523560337204278</v>
       </c>
       <c r="DC6">
-        <v>0.01043107578207291</v>
+        <v>0.0104332668691978</v>
       </c>
       <c r="DD6">
-        <v>0.01734613363760282</v>
+        <v>0.01735126262123874</v>
       </c>
       <c r="DE6">
-        <v>0.01588307966816909</v>
+        <v>0.01588758706609423</v>
       </c>
       <c r="DF6">
-        <v>0.01707980964316689</v>
+        <v>0.01708482547773733</v>
       </c>
       <c r="DG6">
-        <v>0.01373362471307572</v>
+        <v>0.01373721890443844</v>
       </c>
       <c r="DH6">
-        <v>0.002684432743916559</v>
+        <v>0.002683332631455056</v>
       </c>
       <c r="DI6">
-        <v>0.0007330001846860858</v>
+        <v>0.0007310709964558686</v>
       </c>
       <c r="DJ6">
-        <v>0.009530083800896523</v>
+        <v>0.009531892097124611</v>
       </c>
       <c r="DK6">
-        <v>0.02152193455036156</v>
+        <v>0.02152883764365624</v>
       </c>
       <c r="DL6">
-        <v>0.01123970276517899</v>
+        <v>0.01124223740147469</v>
       </c>
       <c r="DM6">
-        <v>0.004988738195774776</v>
+        <v>0.00498861707887467</v>
       </c>
       <c r="DN6">
-        <v>0.001987584358475186</v>
+        <v>0.001986188186532609</v>
       </c>
       <c r="DO6">
-        <v>0.0003280871931455691</v>
+        <v>0.0003259859756294122</v>
       </c>
       <c r="DP6">
-        <v>2.446573348885942E-08</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>7.830428336405897E-05</v>
+        <v>7.609694434400523E-05</v>
       </c>
       <c r="DR6">
-        <v>0.002101754456089933</v>
+        <v>0.00210040678987767</v>
       </c>
       <c r="DS6">
-        <v>0.003649346423757485</v>
+        <v>0.003648656259642427</v>
       </c>
       <c r="DT6">
-        <v>0.00320807893297649</v>
+        <v>0.00320720129418679</v>
       </c>
       <c r="DU6">
-        <v>0.005187465191622951</v>
+        <v>0.005187428504869338</v>
       </c>
       <c r="DV6">
-        <v>0.001851125661326095</v>
+        <v>0.001849671514231519</v>
       </c>
       <c r="DW6">
-        <v>0.001623990966071416</v>
+        <v>0.001622440319678835</v>
       </c>
       <c r="DX6">
-        <v>0.002342254151065389</v>
+        <v>0.002341008662337325</v>
       </c>
       <c r="DY6">
-        <v>0.0005750108279868155</v>
+        <v>0.0005730145171974637</v>
       </c>
       <c r="DZ6">
-        <v>0.0001108776676835325</v>
+        <v>0.000108684167626817</v>
       </c>
       <c r="EA6">
-        <v>0.0006484414164526963</v>
+        <v>0.0006464763030118214</v>
       </c>
       <c r="EB6">
-        <v>0.003413162328691867</v>
+        <v>0.003412371820596563</v>
       </c>
       <c r="EC6">
-        <v>0.002875413439926571</v>
+        <v>0.002874394466557785</v>
       </c>
       <c r="ED6">
-        <v>0.001488934868893022</v>
+        <v>0.001487326843249973</v>
       </c>
       <c r="EE6">
-        <v>0.002027212357647274</v>
+        <v>0.002025833021856026</v>
       </c>
       <c r="EF6">
-        <v>0.001147960976016683</v>
+        <v>0.001146208085929812</v>
       </c>
       <c r="EG6">
-        <v>0.0007918428834567383</v>
+        <v>0.000789938694837953</v>
       </c>
       <c r="EH6">
-        <v>2.690201643796035E-05</v>
+        <v>2.46728389107218E-05</v>
       </c>
       <c r="EI6">
-        <v>0.0002330225951316683</v>
+        <v>0.0002308809889511412</v>
       </c>
       <c r="EJ6">
-        <v>0.0006689640860239345</v>
+        <v>0.0006670076917406704</v>
       </c>
       <c r="EK6">
-        <v>0.0002731268442938063</v>
+        <v>0.0002710022766017709</v>
       </c>
       <c r="EL6">
-        <v>1.990704658409996E-05</v>
+        <v>1.767489720934289E-05</v>
       </c>
       <c r="EM6">
-        <v>9.528421800931246E-05</v>
+        <v>9.30840929984245E-05</v>
       </c>
       <c r="EN6">
-        <v>1.452831169647304E-07</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.000687086415645321</v>
+        <v>0.0006851377207233751</v>
       </c>
       <c r="EP6">
-        <v>0.004565084904625784</v>
+        <v>0.004564783796530815</v>
       </c>
       <c r="EQ6">
-        <v>0.005538895584280832</v>
+        <v>0.005539008204466659</v>
       </c>
       <c r="ER6">
-        <v>0.001945884859346376</v>
+        <v>0.001944470971165474</v>
       </c>
       <c r="ES6">
-        <v>0.00014736286692128</v>
+        <v>0.0001451848677818069</v>
       </c>
       <c r="ET6">
-        <v>0.002845943940542251</v>
+        <v>0.002844912446910983</v>
       </c>
       <c r="EU6">
-        <v>0.005348318188262394</v>
+        <v>0.005348349840699498</v>
       </c>
       <c r="EV6">
-        <v>0.005951907375652148</v>
+        <v>0.005952195465939054</v>
       </c>
       <c r="EW6">
-        <v>0.004665409902529783</v>
+        <v>0.00466515141800608</v>
       </c>
       <c r="EX6">
-        <v>0.002296758552015888</v>
+        <v>0.002295493734257683</v>
       </c>
       <c r="EY6">
-        <v>0.0003397448929020152</v>
+        <v>0.0003376486282172239</v>
       </c>
       <c r="EZ6">
-        <v>0.0009146538808909583</v>
+        <v>0.0009128018691314875</v>
       </c>
       <c r="FA6">
-        <v>0.002731212342939235</v>
+        <v>0.002730132105021608</v>
       </c>
       <c r="FB6">
-        <v>0.01014430178806422</v>
+        <v>0.01014637103784023</v>
       </c>
       <c r="FC6">
-        <v>0.008610883820100541</v>
+        <v>0.008612301589673185</v>
       </c>
       <c r="FD6">
-        <v>0.008731049317590032</v>
+        <v>0.008732518140068262</v>
       </c>
       <c r="FE6">
-        <v>0.004086532514623748</v>
+        <v>0.004086028091180405</v>
       </c>
       <c r="FF6">
-        <v>0.0004754332400672006</v>
+        <v>0.0004733946232474094</v>
       </c>
       <c r="FG6">
-        <v>0.000205105695714911</v>
+        <v>0.0002029522289016735</v>
       </c>
       <c r="FH6">
-        <v>0.003518151326498426</v>
+        <v>0.003517405423497801</v>
       </c>
       <c r="FI6">
-        <v>0.004471374606583588</v>
+        <v>0.004471033685205287</v>
       </c>
       <c r="FJ6">
-        <v>0.008445982823545672</v>
+        <v>0.008447330534114825</v>
       </c>
       <c r="FK6">
-        <v>0.005743462880006991</v>
+        <v>0.005743662411619582</v>
       </c>
       <c r="FL6">
-        <v>0.004124483913830864</v>
+        <v>0.004123995614227068</v>
       </c>
       <c r="FM6">
-        <v>0.00342248672849706</v>
+        <v>0.003421700181919105</v>
       </c>
       <c r="FN6">
-        <v>0.0004207779612090642</v>
+        <v>0.0004187161238238892</v>
       </c>
       <c r="FO6">
-        <v>0.0001946822159326794</v>
+        <v>0.0001925243206525332</v>
       </c>
       <c r="FP6">
-        <v>0.001153445275902104</v>
+        <v>0.001151694715847149</v>
       </c>
       <c r="FQ6">
-        <v>0.004070789914952645</v>
+        <v>0.004070278803188015</v>
       </c>
       <c r="FR6">
-        <v>0.006769230458576551</v>
+        <v>0.006769865792615263</v>
       </c>
       <c r="FS6">
-        <v>0.005792080878991259</v>
+        <v>0.005792301066201037</v>
       </c>
       <c r="FT6">
-        <v>0.004943931896710873</v>
+        <v>0.004943791743633132</v>
       </c>
       <c r="FU6">
-        <v>0.0004107701714181479</v>
+        <v>0.0004087040821740119</v>
       </c>
       <c r="FV6">
-        <v>0.0001597582166623151</v>
+        <v>0.0001575854837484497</v>
       </c>
       <c r="FW6">
-        <v>0.005301762889235033</v>
+        <v>0.005301774762423222</v>
       </c>
       <c r="FX6">
-        <v>0.007651416840145823</v>
+        <v>0.00765242697542939</v>
       </c>
       <c r="FY6">
-        <v>0.007913630834667623</v>
+        <v>0.007914752372862885</v>
       </c>
       <c r="FZ6">
-        <v>0.004672344902384896</v>
+        <v>0.004672089364230162</v>
       </c>
       <c r="GA6">
-        <v>0.00280663104136358</v>
+        <v>0.002805582845452773</v>
       </c>
       <c r="GB6">
-        <v>0.0001770638563007639</v>
+        <v>0.0001748984757734406</v>
       </c>
       <c r="GC6">
-        <v>0.000864492981938925</v>
+        <v>0.0008626196590735892</v>
       </c>
       <c r="GD6">
-        <v>0.005003240895471784</v>
+        <v>0.005003125940115331</v>
       </c>
       <c r="GE6">
-        <v>0.01088158677266079</v>
+        <v>0.0108839692616069</v>
       </c>
       <c r="GF6">
-        <v>0.008180461829092961</v>
+        <v>0.00818169673175515</v>
       </c>
       <c r="GG6">
-        <v>0.006797891857977754</v>
+        <v>0.006798539368953676</v>
       </c>
       <c r="GH6">
-        <v>0.002463788248526286</v>
+        <v>0.002462594394160272</v>
       </c>
       <c r="GI6">
-        <v>0.000198106115861147</v>
+        <v>0.0001959496752418097</v>
       </c>
       <c r="GJ6">
-        <v>0.002263524952710207</v>
+        <v>0.002262246015493065</v>
       </c>
       <c r="GK6">
-        <v>0.00600909487445738</v>
+        <v>0.006009407261135831</v>
       </c>
       <c r="GL6">
-        <v>0.004435572207331576</v>
+        <v>0.004435216075126982</v>
       </c>
       <c r="GM6">
-        <v>0.002330234451316506</v>
+        <v>0.002328983855959591</v>
       </c>
       <c r="GN6">
-        <v>0.0006908352255670004</v>
+        <v>0.0006888881233454801</v>
       </c>
       <c r="GO6">
-        <v>0.0001183510225273984</v>
+        <v>0.0001161606975624291</v>
       </c>
       <c r="GP6">
-        <v>0.000391890591812582</v>
+        <v>0.0003898164814857288</v>
       </c>
       <c r="GQ6">
-        <v>0.0009146538808909583</v>
+        <v>0.0009128018691314875</v>
       </c>
       <c r="GR6">
-        <v>0.001594327266691153</v>
+        <v>0.001592764017529263</v>
       </c>
       <c r="GS6">
-        <v>0.001019681778696705</v>
+        <v>0.001017874388558769</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0002440406073696921</v>
+        <v>0.0002316035178895454</v>
       </c>
       <c r="C2">
-        <v>0.0004347219731280081</v>
+        <v>0.0004097134046832394</v>
       </c>
       <c r="D2">
-        <v>0.0005538715667261626</v>
+        <v>0.0005161113608719755</v>
       </c>
       <c r="E2">
-        <v>0.0006129285415096023</v>
+        <v>0.0005622653502166883</v>
       </c>
       <c r="F2">
-        <v>0.0006613918559731281</v>
+        <v>0.0005977989982672808</v>
       </c>
       <c r="G2">
-        <v>0.0006878989347736056</v>
+        <v>0.000611321112132907</v>
       </c>
       <c r="H2">
-        <v>0.0006940351429589106</v>
+        <v>0.000611321112132907</v>
       </c>
       <c r="I2">
-        <v>0.0006951576429928086</v>
+        <v>0.000611321112132907</v>
       </c>
       <c r="J2">
-        <v>0.0006995428171252348</v>
+        <v>0.000611321112132907</v>
       </c>
       <c r="K2">
-        <v>0.0007485825256061668</v>
+        <v>0.00064743260589498</v>
       </c>
       <c r="L2">
-        <v>0.0007731675123485997</v>
+        <v>0.0006590277867611803</v>
       </c>
       <c r="M2">
-        <v>0.0007798544985505375</v>
+        <v>0.0006590277867611803</v>
       </c>
       <c r="N2">
-        <v>0.0007928734344436916</v>
+        <v>0.0006590277867611803</v>
       </c>
       <c r="O2">
-        <v>0.0008058923703368456</v>
+        <v>0.0006590277867611803</v>
       </c>
       <c r="P2">
-        <v>0.0008261011429471229</v>
+        <v>0.0006662357316526459</v>
       </c>
       <c r="Q2">
-        <v>0.0008692510582501913</v>
+        <v>0.0006964425983253352</v>
       </c>
       <c r="R2">
-        <v>0.0009254212269464534</v>
+        <v>0.0007397025109326489</v>
       </c>
       <c r="S2">
-        <v>0.0009855622087626287</v>
+        <v>0.0007869432374678337</v>
       </c>
       <c r="T2">
-        <v>0.001048272900656406</v>
+        <v>0.0008367601460993774</v>
       </c>
       <c r="U2">
-        <v>0.00111052620653637</v>
+        <v>0.0008861185167541357</v>
       </c>
       <c r="V2">
-        <v>0.001178061232575836</v>
+        <v>0.0009407719099997626</v>
       </c>
       <c r="W2">
-        <v>0.001220328810852259</v>
+        <v>0.0009700942174099845</v>
       </c>
       <c r="X2">
-        <v>0.001274493420487955</v>
+        <v>0.001011343519797082</v>
       </c>
       <c r="Y2">
-        <v>0.001321660387912333</v>
+        <v>0.001045577555855633</v>
       </c>
       <c r="Z2">
-        <v>0.001364431044203948</v>
+        <v>0.001075404208322952</v>
       </c>
       <c r="AA2">
-        <v>0.001395949293155756</v>
+        <v>0.001093950113369611</v>
       </c>
       <c r="AB2">
-        <v>0.001448144802731989</v>
+        <v>0.001133225356362481</v>
       </c>
       <c r="AC2">
-        <v>0.001460007521090227</v>
+        <v>0.001133225356362481</v>
       </c>
       <c r="AD2">
-        <v>0.001460940178888392</v>
+        <v>0.001133225356362481</v>
       </c>
       <c r="AE2">
-        <v>0.001461105335593379</v>
+        <v>0.001133225356362481</v>
       </c>
       <c r="AF2">
-        <v>0.001463138668854783</v>
+        <v>0.001133225356362481</v>
       </c>
       <c r="AG2">
-        <v>0.001477274602281669</v>
+        <v>0.001134345167143144</v>
       </c>
       <c r="AH2">
-        <v>0.001553088354571141</v>
+        <v>0.00119729813726782</v>
       </c>
       <c r="AI2">
-        <v>0.001693992718826259</v>
+        <v>0.001325505655229833</v>
       </c>
       <c r="AJ2">
-        <v>0.001844440493369576</v>
+        <v>0.001463280619316199</v>
       </c>
       <c r="AK2">
-        <v>0.002093630260894766</v>
+        <v>0.00170004626592972</v>
       </c>
       <c r="AL2">
-        <v>0.002266630506119136</v>
+        <v>0.001860430500884267</v>
       </c>
       <c r="AM2">
-        <v>0.002452810961741531</v>
+        <v>0.00203402814164268</v>
       </c>
       <c r="AN2">
-        <v>0.002591208105920935</v>
+        <v>0.00215972212489625</v>
       </c>
       <c r="AO2">
-        <v>0.002736031550294405</v>
+        <v>0.002291858593490902</v>
       </c>
       <c r="AP2">
-        <v>0.002833147363227169</v>
+        <v>0.002376167275189088</v>
       </c>
       <c r="AQ2">
-        <v>0.002921353785890882</v>
+        <v>0.0024515441276118</v>
       </c>
       <c r="AR2">
-        <v>0.002949884136752459</v>
+        <v>0.002467094609309774</v>
       </c>
       <c r="AS2">
-        <v>0.002954628585895736</v>
+        <v>0.002467094609309774</v>
       </c>
       <c r="AT2">
-        <v>0.002957472314181612</v>
+        <v>0.002467094609309774</v>
       </c>
       <c r="AU2">
-        <v>0.002968232570006557</v>
+        <v>0.002467094609309774</v>
       </c>
       <c r="AV2">
-        <v>0.00303309986196546</v>
+        <v>0.002519073549574851</v>
       </c>
       <c r="AW2">
-        <v>0.003148755271458095</v>
+        <v>0.002621968521278107</v>
       </c>
       <c r="AX2">
-        <v>0.003272427225192819</v>
+        <v>0.002732900227526302</v>
       </c>
       <c r="AY2">
-        <v>0.003371698938190689</v>
+        <v>0.002819370239094995</v>
       </c>
       <c r="AZ2">
-        <v>0.003530365942982215</v>
+        <v>0.002965385134213211</v>
       </c>
       <c r="BA2">
-        <v>0.004157698501926798</v>
+        <v>0.003581245954874933</v>
       </c>
       <c r="BB2">
-        <v>0.06532814434919047</v>
+        <v>0.06489270269924644</v>
       </c>
       <c r="BC2">
-        <v>0.09975350538878922</v>
+        <v>0.09939171501743127</v>
       </c>
       <c r="BD2">
-        <v>0.1266799022019295</v>
+        <v>0.1263728763726513</v>
       </c>
       <c r="BE2">
-        <v>0.1281972493477513</v>
+        <v>0.127880993352557</v>
       </c>
       <c r="BF2">
-        <v>0.1526240340854068</v>
+        <v>0.1523562471609161</v>
       </c>
       <c r="BG2">
-        <v>0.1531886319424568</v>
+        <v>0.1529092152773581</v>
       </c>
       <c r="BH2">
-        <v>0.1604021878602963</v>
+        <v>0.160127887383113</v>
       </c>
       <c r="BI2">
-        <v>0.1618232314032099</v>
+        <v>0.161539458211844</v>
       </c>
       <c r="BJ2">
-        <v>0.2072637627754517</v>
+        <v>0.2070813834432954</v>
       </c>
       <c r="BK2">
-        <v>0.2315752915096266</v>
+        <v>0.2314410909667827</v>
       </c>
       <c r="BL2">
-        <v>0.233489862767444</v>
+        <v>0.2333474324991329</v>
       </c>
       <c r="BM2">
-        <v>0.234057801984595</v>
+        <v>0.2339037503911564</v>
       </c>
       <c r="BN2">
-        <v>0.234891581759774</v>
+        <v>0.2347265783817498</v>
       </c>
       <c r="BO2">
-        <v>0.2412066246504796</v>
+        <v>0.2410444744840079</v>
       </c>
       <c r="BP2">
-        <v>0.2430185663051978</v>
+        <v>0.242847927932459</v>
       </c>
       <c r="BQ2">
-        <v>0.2449883876646837</v>
+        <v>0.2448096587182433</v>
       </c>
       <c r="BR2">
-        <v>0.250454274829746</v>
+        <v>0.2502762604287758</v>
       </c>
       <c r="BS2">
-        <v>0.2504928642009113</v>
+        <v>0.2503018952652184</v>
       </c>
       <c r="BT2">
-        <v>0.2652704156471731</v>
+        <v>0.2651036134223966</v>
       </c>
       <c r="BU2">
-        <v>0.2732594138884299</v>
+        <v>0.2730996808645978</v>
       </c>
       <c r="BV2">
-        <v>0.2740275503816266</v>
+        <v>0.2738567002453939</v>
       </c>
       <c r="BW2">
-        <v>0.2742915691595996</v>
+        <v>0.2741083322504949</v>
       </c>
       <c r="BX2">
-        <v>0.2781354958756809</v>
+        <v>0.2779488884759402</v>
       </c>
       <c r="BY2">
-        <v>0.295000070384968</v>
+        <v>0.2948428860293497</v>
       </c>
       <c r="BZ2">
-        <v>0.2998965615328353</v>
+        <v>0.2997386576536318</v>
       </c>
       <c r="CA2">
-        <v>0.3019754745956157</v>
+        <v>0.3018097548988225</v>
       </c>
       <c r="CB2">
-        <v>0.3105573003547751</v>
+        <v>0.3104001429420756</v>
       </c>
       <c r="CC2">
-        <v>0.3114800623826413</v>
+        <v>0.3113121772942211</v>
       </c>
       <c r="CD2">
-        <v>0.314251538066336</v>
+        <v>0.3140775814342474</v>
       </c>
       <c r="CE2">
-        <v>0.3148083716831517</v>
+        <v>0.3146227657555997</v>
       </c>
       <c r="CF2">
-        <v>0.3175396623656329</v>
+        <v>0.3173478836852979</v>
       </c>
       <c r="CG2">
-        <v>0.3229912989302648</v>
+        <v>0.322800198904132</v>
       </c>
       <c r="CH2">
-        <v>0.3380989303864946</v>
+        <v>0.3379328284039778</v>
       </c>
       <c r="CI2">
-        <v>0.3715401313963731</v>
+        <v>0.3714452020073066</v>
       </c>
       <c r="CJ2">
-        <v>0.3878046808875402</v>
+        <v>0.3877376633319712</v>
       </c>
       <c r="CK2">
-        <v>0.3915444250004754</v>
+        <v>0.3914737745621167</v>
       </c>
       <c r="CL2">
-        <v>0.3951648254098065</v>
+        <v>0.3950902415120697</v>
       </c>
       <c r="CM2">
-        <v>0.3970422085665009</v>
+        <v>0.3969593012821131</v>
       </c>
       <c r="CN2">
-        <v>0.4069529758657925</v>
+        <v>0.4068819779102292</v>
       </c>
       <c r="CO2">
-        <v>0.4171227141729046</v>
+        <v>0.4170642777852006</v>
       </c>
       <c r="CP2">
-        <v>0.4353201297224417</v>
+        <v>0.4352944732447913</v>
       </c>
       <c r="CQ2">
-        <v>0.4569662763761256</v>
+        <v>0.4569820857114989</v>
       </c>
       <c r="CR2">
-        <v>0.4684003937214203</v>
+        <v>0.4684319490635989</v>
       </c>
       <c r="CS2">
-        <v>0.4814292651148744</v>
+        <v>0.4814805829784848</v>
       </c>
       <c r="CT2">
-        <v>0.4823126155415504</v>
+        <v>0.4823531064681948</v>
       </c>
       <c r="CU2">
-        <v>0.4904436037870951</v>
+        <v>0.4904915215277776</v>
       </c>
       <c r="CV2">
-        <v>0.5203104946890342</v>
+        <v>0.5204205828395106</v>
       </c>
       <c r="CW2">
-        <v>0.5546000007245303</v>
+        <v>0.5547833979919838</v>
       </c>
       <c r="CX2">
-        <v>0.5876438217224085</v>
+        <v>0.5878973907502169</v>
       </c>
       <c r="CY2">
-        <v>0.5998543760911504</v>
+        <v>0.6001256466440241</v>
       </c>
       <c r="CZ2">
-        <v>0.6033482423966604</v>
+        <v>0.6036152608039741</v>
       </c>
       <c r="DA2">
-        <v>0.6038098606506006</v>
+        <v>0.6040649899550036</v>
       </c>
       <c r="DB2">
-        <v>0.6104803405520399</v>
+        <v>0.6107392182643135</v>
       </c>
       <c r="DC2">
-        <v>0.6307720551648219</v>
+        <v>0.6310689874455392</v>
       </c>
       <c r="DD2">
-        <v>0.6519637348047816</v>
+        <v>0.6523009882872829</v>
       </c>
       <c r="DE2">
-        <v>0.6720964054127607</v>
+        <v>0.6724713128987582</v>
       </c>
       <c r="DF2">
-        <v>0.6899236539511192</v>
+        <v>0.6903304090521771</v>
       </c>
       <c r="DG2">
-        <v>0.7033160893555525</v>
+        <v>0.7037435226428556</v>
       </c>
       <c r="DH2">
-        <v>0.7070343024678374</v>
+        <v>0.707458048644817</v>
       </c>
       <c r="DI2">
-        <v>0.7074375084600136</v>
+        <v>0.7078492184181657</v>
       </c>
       <c r="DJ2">
-        <v>0.7188042403032734</v>
+        <v>0.7192315265524962</v>
       </c>
       <c r="DK2">
-        <v>0.744606390082463</v>
+        <v>0.7450856093683926</v>
       </c>
       <c r="DL2">
-        <v>0.7615921105954084</v>
+        <v>0.7621010580412847</v>
       </c>
       <c r="DM2">
-        <v>0.7671856471643256</v>
+        <v>0.7676956306508256</v>
       </c>
       <c r="DN2">
-        <v>0.7714762708938966</v>
+        <v>0.771984008931638</v>
       </c>
       <c r="DO2">
-        <v>0.7728165386343708</v>
+        <v>0.7733146005176611</v>
       </c>
       <c r="DP2">
-        <v>0.7728721320640497</v>
+        <v>0.773357282238688</v>
       </c>
       <c r="DQ2">
-        <v>0.7732416051152072</v>
+        <v>0.7737146341119292</v>
       </c>
       <c r="DR2">
-        <v>0.77335991404478</v>
+        <v>0.7738201892868135</v>
       </c>
       <c r="DS2">
-        <v>0.7757731574176566</v>
+        <v>0.7762264588795184</v>
       </c>
       <c r="DT2">
-        <v>0.7777052550760033</v>
+        <v>0.7781503709540285</v>
       </c>
       <c r="DU2">
-        <v>0.7793262847249561</v>
+        <v>0.7797624315696774</v>
       </c>
       <c r="DV2">
-        <v>0.7808789367718441</v>
+        <v>0.7813059423688443</v>
       </c>
       <c r="DW2">
-        <v>0.7814751293398483</v>
+        <v>0.7818905847700273</v>
       </c>
       <c r="DX2">
-        <v>0.78186593029165</v>
+        <v>0.7822693182599229</v>
       </c>
       <c r="DY2">
-        <v>0.7823476542561973</v>
+        <v>0.7827392037593872</v>
       </c>
       <c r="DZ2">
-        <v>0.7827208440674671</v>
+        <v>0.7831002817536959</v>
       </c>
       <c r="EA2">
-        <v>0.7843057956153304</v>
+        <v>0.7846761734026947</v>
       </c>
       <c r="EB2">
-        <v>0.7859488612649488</v>
+        <v>0.7863103255184255</v>
       </c>
       <c r="EC2">
-        <v>0.7884638569408982</v>
+        <v>0.7888186036854532</v>
       </c>
       <c r="ED2">
-        <v>0.7894336539701847</v>
+        <v>0.7897777915004027</v>
       </c>
       <c r="EE2">
-        <v>0.7895123975225626</v>
+        <v>0.7898436816495499</v>
       </c>
       <c r="EF2">
-        <v>0.7897586366299987</v>
+        <v>0.7900774892046027</v>
       </c>
       <c r="EG2">
-        <v>0.7899459452056551</v>
+        <v>0.7902522178066551</v>
       </c>
       <c r="EH2">
-        <v>0.7906339639664323</v>
+        <v>0.7909289176721647</v>
       </c>
       <c r="EI2">
-        <v>0.7919264515054636</v>
+        <v>0.7922116087185158</v>
       </c>
       <c r="EJ2">
-        <v>0.7939694643671598</v>
+        <v>0.794246715345117</v>
       </c>
       <c r="EK2">
-        <v>0.7954050870105136</v>
+        <v>0.7956729019929097</v>
       </c>
       <c r="EL2">
-        <v>0.7955380919745302</v>
+        <v>0.7957931902153669</v>
       </c>
       <c r="EM2">
-        <v>0.7955677962724272</v>
+        <v>0.7958099176007791</v>
       </c>
       <c r="EN2">
-        <v>0.7956268532472107</v>
+        <v>0.7958560715901238</v>
       </c>
       <c r="EO2">
-        <v>0.7967299106805216</v>
+        <v>0.7969488554360005</v>
       </c>
       <c r="EP2">
-        <v>0.802088976542358</v>
+        <v>0.8023083668053778</v>
       </c>
       <c r="EQ2">
-        <v>0.8091964437569937</v>
+        <v>0.8094206830151108</v>
       </c>
       <c r="ER2">
-        <v>0.8113027088206001</v>
+        <v>0.8115192011493122</v>
       </c>
       <c r="ES2">
-        <v>0.8117354854336694</v>
+        <v>0.8119400160195094</v>
       </c>
       <c r="ET2">
-        <v>0.8179467320212405</v>
+        <v>0.8181538543994065</v>
       </c>
       <c r="EU2">
-        <v>0.8259064492616131</v>
+        <v>0.826120567094199</v>
       </c>
       <c r="EV2">
-        <v>0.8358446535617332</v>
+        <v>0.8360707498254076</v>
       </c>
       <c r="EW2">
-        <v>0.8416375630366711</v>
+        <v>0.8418651974774549</v>
       </c>
       <c r="EX2">
-        <v>0.8453291027481505</v>
+        <v>0.8455529828995342</v>
       </c>
       <c r="EY2">
-        <v>0.8472352438057134</v>
+        <v>0.8474508729995015</v>
       </c>
       <c r="EZ2">
-        <v>0.8473234502283771</v>
+        <v>0.8475262498519243</v>
       </c>
       <c r="FA2">
-        <v>0.8487047853700915</v>
+        <v>0.8488980122706966</v>
       </c>
       <c r="FB2">
-        <v>0.854698646751098</v>
+        <v>0.854893917942135</v>
       </c>
       <c r="FC2">
-        <v>0.8617947363653902</v>
+        <v>0.8619948278961351</v>
       </c>
       <c r="FD2">
-        <v>0.8687469580753377</v>
+        <v>0.8689515076030565</v>
       </c>
       <c r="FE2">
-        <v>0.8713711791545856</v>
+        <v>0.8715692862662288</v>
       </c>
       <c r="FF2">
-        <v>0.8716173335120191</v>
+        <v>0.8718030088578295</v>
       </c>
       <c r="FG2">
-        <v>0.8716503859660172</v>
+        <v>0.8718230928319396</v>
       </c>
       <c r="FH2">
-        <v>0.874430275649966</v>
+        <v>0.8745969321635473</v>
       </c>
       <c r="FI2">
-        <v>0.8773428987379233</v>
+        <v>0.8775038391987748</v>
       </c>
       <c r="FJ2">
-        <v>0.8816284704673416</v>
+        <v>0.8817871527555714</v>
       </c>
       <c r="FK2">
-        <v>0.8842678107470461</v>
+        <v>0.8844200886981064</v>
       </c>
       <c r="FL2">
-        <v>0.8856179823878194</v>
+        <v>0.8857606091281874</v>
       </c>
       <c r="FM2">
-        <v>0.8862706873775302</v>
+        <v>0.8864019062820958</v>
       </c>
       <c r="FN2">
-        <v>0.8863262808072091</v>
+        <v>0.8864445880031228</v>
       </c>
       <c r="FO2">
-        <v>0.8872672952756264</v>
+        <v>0.8873749207660394</v>
       </c>
       <c r="FP2">
-        <v>0.8889685023270005</v>
+        <v>0.8890673607172602</v>
       </c>
       <c r="FQ2">
-        <v>0.8923042674277361</v>
+        <v>0.8923984754820049</v>
       </c>
       <c r="FR2">
-        <v>0.9000413776613861</v>
+        <v>0.9001420205166629</v>
       </c>
       <c r="FS2">
-        <v>0.9062506782488985</v>
+        <v>0.9063539079953457</v>
       </c>
       <c r="FT2">
-        <v>0.9105018733772787</v>
+        <v>0.9106027583709063</v>
       </c>
       <c r="FU2">
-        <v>0.9110158705528008</v>
+        <v>0.9111049983639883</v>
       </c>
       <c r="FV2">
-        <v>0.9112460369497515</v>
+        <v>0.9113226927281589</v>
       </c>
       <c r="FW2">
-        <v>0.9179864521533028</v>
+        <v>0.9180670324771891</v>
       </c>
       <c r="FX2">
-        <v>0.9268153194199225</v>
+        <v>0.9269050842215438</v>
       </c>
       <c r="FY2">
-        <v>0.9353922846789351</v>
+        <v>0.9354905995230948</v>
       </c>
       <c r="FZ2">
-        <v>0.9402851053266916</v>
+        <v>0.9403826914028203</v>
       </c>
       <c r="GA2">
-        <v>0.9432552617163863</v>
+        <v>0.9433472766419714</v>
       </c>
       <c r="GB2">
-        <v>0.9437546193314662</v>
+        <v>0.9438348402037164</v>
       </c>
       <c r="GC2">
-        <v>0.9445971772569103</v>
+        <v>0.944666468453043</v>
       </c>
       <c r="GD2">
-        <v>0.9472560942372059</v>
+        <v>0.9473190304016432</v>
       </c>
       <c r="GE2">
-        <v>0.9563142795107507</v>
+        <v>0.9563869777085215</v>
       </c>
       <c r="GF2">
-        <v>0.9631241057163981</v>
+        <v>0.963200903276765</v>
       </c>
       <c r="GG2">
-        <v>0.9680017192636953</v>
+        <v>0.9680777497557419</v>
       </c>
       <c r="GH2">
-        <v>0.9697029263150694</v>
+        <v>0.9697701897069627</v>
       </c>
       <c r="GI2">
-        <v>0.9702490162315606</v>
+        <v>0.9703046032691287</v>
       </c>
       <c r="GJ2">
-        <v>0.9760257887060112</v>
+        <v>0.9760828732783724</v>
       </c>
       <c r="GK2">
-        <v>0.9834942933315498</v>
+        <v>0.9835571362003789</v>
       </c>
       <c r="GL2">
-        <v>0.9887148756892042</v>
+        <v>0.9887778152838791</v>
       </c>
       <c r="GM2">
-        <v>0.9914049940704421</v>
+        <v>0.9914616572166259</v>
       </c>
       <c r="GN2">
-        <v>0.9922787854968295</v>
+        <v>0.9923245976309465</v>
       </c>
       <c r="GO2">
-        <v>0.9927002892095583</v>
+        <v>0.9927341112091091</v>
       </c>
       <c r="GP2">
-        <v>0.9936072994369488</v>
+        <v>0.9936303540886193</v>
       </c>
       <c r="GQ2">
-        <v>0.9944786524332625</v>
+        <v>0.9944908499314866</v>
       </c>
       <c r="GR2">
-        <v>0.9969731065085916</v>
+        <v>0.9969785347622427</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.105270987347267E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3.602371258761387E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0001236077515849842</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.00033482562916704</v>
+        <v>8.952526193957744E-05</v>
       </c>
       <c r="F3">
-        <v>0.0005675131665033191</v>
+        <v>0.000200992289376889</v>
       </c>
       <c r="G3">
-        <v>0.0009241802224203265</v>
+        <v>0.0004391650752827391</v>
       </c>
       <c r="H3">
-        <v>0.001344163187612517</v>
+        <v>0.0007420460517000196</v>
       </c>
       <c r="I3">
-        <v>0.001628488664357664</v>
+        <v>0.0009062865077927485</v>
       </c>
       <c r="J3">
-        <v>0.001855572111758097</v>
+        <v>0.001012026214508251</v>
       </c>
       <c r="K3">
-        <v>0.001995204580159636</v>
+        <v>0.001028391944378892</v>
       </c>
       <c r="L3">
-        <v>0.002035949574693202</v>
+        <v>0.001028391944378892</v>
       </c>
       <c r="M3">
-        <v>0.002051356744516827</v>
+        <v>0.001028391944378892</v>
       </c>
       <c r="N3">
-        <v>0.002051424744486048</v>
+        <v>0.001028391944378892</v>
       </c>
       <c r="O3">
-        <v>0.002086752316081631</v>
+        <v>0.001028391944378892</v>
       </c>
       <c r="P3">
-        <v>0.002245666814262437</v>
+        <v>0.00106446370501948</v>
       </c>
       <c r="Q3">
-        <v>0.002369285682847294</v>
+        <v>0.00106446370501948</v>
       </c>
       <c r="R3">
-        <v>0.002420733189258342</v>
+        <v>0.00106446370501948</v>
       </c>
       <c r="S3">
-        <v>0.002555911767710868</v>
+        <v>0.001076277606405986</v>
       </c>
       <c r="T3">
-        <v>0.002618803266990909</v>
+        <v>0.001076277606405986</v>
       </c>
       <c r="U3">
-        <v>0.002641911606726373</v>
+        <v>0.001076277606405986</v>
       </c>
       <c r="V3">
-        <v>0.002798504894933751</v>
+        <v>0.001109977114971273</v>
       </c>
       <c r="W3">
-        <v>0.002930691993420522</v>
+        <v>0.001118733755429978</v>
       </c>
       <c r="X3">
-        <v>0.0030872852816279</v>
+        <v>0.001152433263995265</v>
       </c>
       <c r="Y3">
-        <v>0.003294610559254517</v>
+        <v>0.001237980329895572</v>
       </c>
       <c r="Z3">
-        <v>0.003534239026511339</v>
+        <v>0.001356540914398817</v>
       </c>
       <c r="AA3">
-        <v>0.003672442554929236</v>
+        <v>0.001371446282699209</v>
       </c>
       <c r="AB3">
-        <v>0.003803992973423295</v>
+        <v>0.00137955224293023</v>
       </c>
       <c r="AC3">
-        <v>0.003905669172259344</v>
+        <v>0.00137955224293023</v>
       </c>
       <c r="AD3">
-        <v>0.003930958870969837</v>
+        <v>0.00137955224293023</v>
       </c>
       <c r="AE3">
-        <v>0.003934590121928268</v>
+        <v>0.00137955224293023</v>
       </c>
       <c r="AF3">
-        <v>0.003946970758786539</v>
+        <v>0.00137955224293023</v>
       </c>
       <c r="AG3">
-        <v>0.004061033842480787</v>
+        <v>0.00137955224293023</v>
       </c>
       <c r="AH3">
-        <v>0.004266648950126981</v>
+        <v>0.00146335153317404</v>
       </c>
       <c r="AI3">
-        <v>0.004492619777540151</v>
+        <v>0.001567954154014495</v>
       </c>
       <c r="AJ3">
-        <v>0.005088539870718278</v>
+        <v>0.00205064101691551</v>
       </c>
       <c r="AK3">
-        <v>0.00563759742443287</v>
+        <v>0.002485434859465565</v>
       </c>
       <c r="AL3">
-        <v>0.00608803387927644</v>
+        <v>0.00281943898064469</v>
       </c>
       <c r="AM3">
-        <v>0.00648009151478831</v>
+        <v>0.003093780565087117</v>
       </c>
       <c r="AN3">
-        <v>0.006646205482886698</v>
+        <v>0.00313721010793981</v>
       </c>
       <c r="AO3">
-        <v>0.006689101567395639</v>
+        <v>0.00313721010793981</v>
       </c>
       <c r="AP3">
-        <v>0.006807347246042006</v>
+        <v>0.00313721010793981</v>
       </c>
       <c r="AQ3">
-        <v>0.006816803282933757</v>
+        <v>0.00313721010793981</v>
       </c>
       <c r="AR3">
-        <v>0.006816955488732014</v>
+        <v>0.00313721010793981</v>
       </c>
       <c r="AS3">
-        <v>0.00682232556567054</v>
+        <v>0.00313721010793981</v>
       </c>
       <c r="AT3">
-        <v>0.006822910686463841</v>
+        <v>0.00313721010793981</v>
       </c>
       <c r="AU3">
-        <v>0.006840065151267463</v>
+        <v>0.00313721010793981</v>
       </c>
       <c r="AV3">
-        <v>0.006847812664178773</v>
+        <v>0.00313721010793981</v>
       </c>
       <c r="AW3">
-        <v>0.00689574332363008</v>
+        <v>0.00313721010793981</v>
       </c>
       <c r="AX3">
-        <v>0.007015286752261591</v>
+        <v>0.00313721010793981</v>
       </c>
       <c r="AY3">
-        <v>0.00719387934021713</v>
+        <v>0.003193392668482366</v>
       </c>
       <c r="AZ3">
-        <v>0.007505453536650344</v>
+        <v>0.003385481028284489</v>
       </c>
       <c r="BA3">
-        <v>0.007660432134876206</v>
+        <v>0.003417530340743664</v>
       </c>
       <c r="BB3">
-        <v>0.03581761181254323</v>
+        <v>0.03206753338601104</v>
       </c>
       <c r="BC3">
-        <v>0.03676149995173794</v>
+        <v>0.03290583991656416</v>
       </c>
       <c r="BD3">
-        <v>0.04371141027217794</v>
+        <v>0.03988223767835587</v>
       </c>
       <c r="BE3">
-        <v>0.04590956344701429</v>
+        <v>0.04200238982728878</v>
       </c>
       <c r="BF3">
-        <v>0.07450432111967209</v>
+        <v>0.07109959296156397</v>
       </c>
       <c r="BG3">
-        <v>0.07463145782821667</v>
+        <v>0.07110318815684599</v>
       </c>
       <c r="BH3">
-        <v>0.07566864011634339</v>
+        <v>0.07203684032219773</v>
       </c>
       <c r="BI3">
-        <v>0.07573615711557048</v>
+        <v>0.07203684032219773</v>
       </c>
       <c r="BJ3">
-        <v>0.1530478962305343</v>
+        <v>0.1509222839223832</v>
       </c>
       <c r="BK3">
-        <v>0.1619564071285529</v>
+        <v>0.1599003507869423</v>
       </c>
       <c r="BL3">
-        <v>0.1639742406054535</v>
+        <v>0.1618362181091932</v>
       </c>
       <c r="BM3">
-        <v>0.1644490981400175</v>
+        <v>0.1621951803159015</v>
       </c>
       <c r="BN3">
-        <v>0.1724134300488448</v>
+        <v>0.1702083062263009</v>
       </c>
       <c r="BO3">
-        <v>0.1734918198364998</v>
+        <v>0.1711840720209205</v>
       </c>
       <c r="BP3">
-        <v>0.1736112743851323</v>
+        <v>0.1711840720209205</v>
       </c>
       <c r="BQ3">
-        <v>0.1850491452541958</v>
+        <v>0.1827471180597818</v>
       </c>
       <c r="BR3">
-        <v>0.1885682726139101</v>
+        <v>0.1862172918730055</v>
       </c>
       <c r="BS3">
-        <v>0.1898983611986838</v>
+        <v>0.1874502911797376</v>
       </c>
       <c r="BT3">
-        <v>0.2095946019732085</v>
+        <v>0.2074533040337941</v>
       </c>
       <c r="BU3">
-        <v>0.2138612189243658</v>
+        <v>0.2116874043141903</v>
       </c>
       <c r="BV3">
-        <v>0.2147067459546866</v>
+        <v>0.2124251868304033</v>
       </c>
       <c r="BW3">
-        <v>0.2160368345394602</v>
+        <v>0.2136581861371354</v>
       </c>
       <c r="BX3">
-        <v>0.2200075077940054</v>
+        <v>0.217589835085469</v>
       </c>
       <c r="BY3">
-        <v>0.2255907417300906</v>
+        <v>0.2231695040178294</v>
       </c>
       <c r="BZ3">
-        <v>0.2356543086148866</v>
+        <v>0.2333280259007144</v>
       </c>
       <c r="CA3">
-        <v>0.2468962424861931</v>
+        <v>0.2446908263974326</v>
       </c>
       <c r="CB3">
-        <v>0.2513747999349242</v>
+        <v>0.2491415276277494</v>
       </c>
       <c r="CC3">
-        <v>0.2516645861316069</v>
+        <v>0.2493113488819399</v>
       </c>
       <c r="CD3">
-        <v>0.253148115114624</v>
+        <v>0.2507011626549784</v>
       </c>
       <c r="CE3">
-        <v>0.2532575753333709</v>
+        <v>0.2507011626549784</v>
       </c>
       <c r="CF3">
-        <v>0.2535548210499681</v>
+        <v>0.2508786074597312</v>
       </c>
       <c r="CG3">
-        <v>0.2539947294449322</v>
+        <v>0.2512018520149151</v>
       </c>
       <c r="CH3">
-        <v>0.2636210913347332</v>
+        <v>0.2609135550108481</v>
       </c>
       <c r="CI3">
-        <v>0.2876915700591833</v>
+        <v>0.285386992847288</v>
       </c>
       <c r="CJ3">
-        <v>0.3043601358683677</v>
+        <v>0.3022957538662733</v>
       </c>
       <c r="CK3">
-        <v>0.3092491008124006</v>
+        <v>0.3071658872219015</v>
       </c>
       <c r="CL3">
-        <v>0.3100817796028684</v>
+        <v>0.307890538972693</v>
       </c>
       <c r="CM3">
-        <v>0.3112968144889591</v>
+        <v>0.3090059546146142</v>
       </c>
       <c r="CN3">
-        <v>0.3193561633966987</v>
+        <v>0.3171161868942945</v>
       </c>
       <c r="CO3">
-        <v>0.3296753282785687</v>
+        <v>0.3275359272304615</v>
       </c>
       <c r="CP3">
-        <v>0.3516939180265081</v>
+        <v>0.3499123562057746</v>
       </c>
       <c r="CQ3">
-        <v>0.3757914737506481</v>
+        <v>0.3744134664498996</v>
       </c>
       <c r="CR3">
-        <v>0.3978292644983676</v>
+        <v>0.3968095186441795</v>
       </c>
       <c r="CS3">
-        <v>0.4212573462301716</v>
+        <v>0.4206264335393874</v>
       </c>
       <c r="CT3">
-        <v>0.4243161736951553</v>
+        <v>0.4236261857220669</v>
       </c>
       <c r="CU3">
-        <v>0.4259955144759308</v>
+        <v>0.4252161170841724</v>
       </c>
       <c r="CV3">
-        <v>0.4528336511686978</v>
+        <v>0.4525180721311283</v>
       </c>
       <c r="CW3">
-        <v>0.4976382686557911</v>
+        <v>0.4981815807807727</v>
       </c>
       <c r="CX3">
-        <v>0.556694523979737</v>
+        <v>0.5584101127682154</v>
       </c>
       <c r="CY3">
-        <v>0.5883878536169235</v>
+        <v>0.5906740237218899</v>
       </c>
       <c r="CZ3">
-        <v>0.6069241564047267</v>
+        <v>0.6094915922052432</v>
       </c>
       <c r="DA3">
-        <v>0.6096372005736688</v>
+        <v>0.6121379575116688</v>
       </c>
       <c r="DB3">
-        <v>0.6101080393982787</v>
+        <v>0.6124928126392513</v>
       </c>
       <c r="DC3">
-        <v>0.6195493312901983</v>
+        <v>0.6220153760521324</v>
       </c>
       <c r="DD3">
-        <v>0.6362404270991248</v>
+        <v>0.6389471624928834</v>
       </c>
       <c r="DE3">
-        <v>0.6568322128633977</v>
+        <v>0.6598654128673602</v>
       </c>
       <c r="DF3">
-        <v>0.6786647176134672</v>
+        <v>0.6820516649403541</v>
       </c>
       <c r="DG3">
-        <v>0.6969588544040427</v>
+        <v>0.7006217423323942</v>
       </c>
       <c r="DH3">
-        <v>0.7049338103127484</v>
+        <v>0.7086457258584543</v>
       </c>
       <c r="DI3">
-        <v>0.7049405631630711</v>
+        <v>0.7086457258584543</v>
       </c>
       <c r="DJ3">
-        <v>0.7095468641103398</v>
+        <v>0.7132269795949989</v>
       </c>
       <c r="DK3">
-        <v>0.7236260489491666</v>
+        <v>0.72748942061235</v>
       </c>
       <c r="DL3">
-        <v>0.736995153796122</v>
+        <v>0.7410261673781559</v>
       </c>
       <c r="DM3">
-        <v>0.7420535497382154</v>
+        <v>0.7460694574242042</v>
       </c>
       <c r="DN3">
-        <v>0.7452399744017384</v>
+        <v>0.7491996125960585</v>
       </c>
       <c r="DO3">
-        <v>0.7465425720868267</v>
+        <v>0.7504045164936821</v>
       </c>
       <c r="DP3">
-        <v>0.7465507133727335</v>
+        <v>0.7504045164936821</v>
       </c>
       <c r="DQ3">
-        <v>0.7465684513965304</v>
+        <v>0.7504045164936821</v>
       </c>
       <c r="DR3">
-        <v>0.7484117439754291</v>
+        <v>0.7521620048617454</v>
       </c>
       <c r="DS3">
-        <v>0.7532522939200162</v>
+        <v>0.7569826585993185</v>
       </c>
       <c r="DT3">
-        <v>0.7583653068614844</v>
+        <v>0.7620817666418414</v>
       </c>
       <c r="DU3">
-        <v>0.7625615248134476</v>
+        <v>0.7662439198886434</v>
       </c>
       <c r="DV3">
-        <v>0.7653711367812842</v>
+        <v>0.7689889764655516</v>
       </c>
       <c r="DW3">
-        <v>0.7664041569694586</v>
+        <v>0.7699183750087139</v>
       </c>
       <c r="DX3">
-        <v>0.7674188454578429</v>
+        <v>0.7708290387483172</v>
       </c>
       <c r="DY3">
-        <v>0.7679781005814408</v>
+        <v>0.7712742543995772</v>
       </c>
       <c r="DZ3">
-        <v>0.7680021566071654</v>
+        <v>0.7712742543995772</v>
       </c>
       <c r="EA3">
-        <v>0.7686581692996556</v>
+        <v>0.7718183552642532</v>
       </c>
       <c r="EB3">
-        <v>0.7711056300716379</v>
+        <v>0.7741932971441834</v>
       </c>
       <c r="EC3">
-        <v>0.7749224253279446</v>
+        <v>0.7779676844036378</v>
       </c>
       <c r="ED3">
-        <v>0.7773790374998223</v>
+        <v>0.7803519789176002</v>
       </c>
       <c r="EE3">
-        <v>0.7793494668772656</v>
+        <v>0.7822393997509066</v>
       </c>
       <c r="EF3">
-        <v>0.7822226778443742</v>
+        <v>0.7850494538333129</v>
       </c>
       <c r="EG3">
-        <v>0.7845930404172391</v>
+        <v>0.7873456021680869</v>
       </c>
       <c r="EH3">
-        <v>0.7851360520510229</v>
+        <v>0.7877742171443272</v>
       </c>
       <c r="EI3">
-        <v>0.7852078190842013</v>
+        <v>0.7877742171443272</v>
       </c>
       <c r="EJ3">
-        <v>0.7855039315508116</v>
+        <v>0.7879505037795631</v>
       </c>
       <c r="EK3">
-        <v>0.7857308590582137</v>
+        <v>0.7880560841172475</v>
       </c>
       <c r="EL3">
-        <v>0.7857628634598474</v>
+        <v>0.7880560841172475</v>
       </c>
       <c r="EM3">
-        <v>0.7857770231226853</v>
+        <v>0.7880560841172475</v>
       </c>
       <c r="EN3">
-        <v>0.785909210221172</v>
+        <v>0.7880648407577062</v>
       </c>
       <c r="EO3">
-        <v>0.786297413086728</v>
+        <v>0.7883352428079694</v>
       </c>
       <c r="EP3">
-        <v>0.7908692103343917</v>
+        <v>0.7928812341279595</v>
       </c>
       <c r="EQ3">
-        <v>0.7991339232397804</v>
+        <v>0.8012013462441011</v>
       </c>
       <c r="ER3">
-        <v>0.803301458192072</v>
+        <v>0.8053341857681999</v>
       </c>
       <c r="ES3">
-        <v>0.8040271251837648</v>
+        <v>0.8059494725909446</v>
       </c>
       <c r="ET3">
-        <v>0.8051158569713015</v>
+        <v>0.8069358078002069</v>
       </c>
       <c r="EU3">
-        <v>0.807858824539901</v>
+        <v>0.8096127545050196</v>
       </c>
       <c r="EV3">
-        <v>0.8130123014809059</v>
+        <v>0.8147532163276722</v>
       </c>
       <c r="EW3">
-        <v>0.8170069534351766</v>
+        <v>0.8187093712538527</v>
       </c>
       <c r="EX3">
-        <v>0.8201290260994363</v>
+        <v>0.8217737593621712</v>
       </c>
       <c r="EY3">
-        <v>0.8214678911841095</v>
+        <v>0.8230157281590998</v>
       </c>
       <c r="EZ3">
-        <v>0.8217063766713794</v>
+        <v>0.8231331206301291</v>
       </c>
       <c r="FA3">
-        <v>0.8233959120520382</v>
+        <v>0.824733470765636</v>
       </c>
       <c r="FB3">
-        <v>0.8292177809853916</v>
+        <v>0.8305570221446468</v>
       </c>
       <c r="FC3">
-        <v>0.8369195004972251</v>
+        <v>0.8383017609591351</v>
       </c>
       <c r="FD3">
-        <v>0.8445645579097073</v>
+        <v>0.845988591706574</v>
       </c>
       <c r="FE3">
-        <v>0.8489129751599283</v>
+        <v>0.8503062910286059</v>
       </c>
       <c r="FF3">
-        <v>0.8496198473018363</v>
+        <v>0.8509023697133892</v>
       </c>
       <c r="FG3">
-        <v>0.849636286792648</v>
+        <v>0.8509023697133892</v>
       </c>
       <c r="FH3">
-        <v>0.852327235761843</v>
+        <v>0.8535261539590515</v>
       </c>
       <c r="FI3">
-        <v>0.8570509252077679</v>
+        <v>0.8582273775013188</v>
       </c>
       <c r="FJ3">
-        <v>0.8637610507309529</v>
+        <v>0.8649587177330182</v>
       </c>
       <c r="FK3">
-        <v>0.8717023086400443</v>
+        <v>0.8729482622594044</v>
       </c>
       <c r="FL3">
-        <v>0.8766495960834095</v>
+        <v>0.8778780005933248</v>
       </c>
       <c r="FM3">
-        <v>0.8802094047426582</v>
+        <v>0.8813897502649805</v>
       </c>
       <c r="FN3">
-        <v>0.881912305423164</v>
+        <v>0.8830037595957613</v>
       </c>
       <c r="FO3">
-        <v>0.881946111886777</v>
+        <v>0.8830037595957613</v>
       </c>
       <c r="FP3">
-        <v>0.8824996997404397</v>
+        <v>0.8834431833570074</v>
       </c>
       <c r="FQ3">
-        <v>0.8850641290110831</v>
+        <v>0.8859376658071014</v>
       </c>
       <c r="FR3">
-        <v>0.891790068434087</v>
+        <v>0.8926851676773832</v>
       </c>
       <c r="FS3">
-        <v>0.8984028123583868</v>
+        <v>0.899316984943605</v>
       </c>
       <c r="FT3">
-        <v>0.9041431809926732</v>
+        <v>0.9050572438778078</v>
       </c>
       <c r="FU3">
-        <v>0.9062883179681165</v>
+        <v>0.9071232140309392</v>
       </c>
       <c r="FV3">
-        <v>0.9062884925727744</v>
+        <v>0.9071232140309392</v>
       </c>
       <c r="FW3">
-        <v>0.9086986107451843</v>
+        <v>0.9094599921685337</v>
       </c>
       <c r="FX3">
-        <v>0.9166514016541437</v>
+        <v>0.9174613232989687</v>
       </c>
       <c r="FY3">
-        <v>0.9246437965626497</v>
+        <v>0.9255031292986272</v>
       </c>
       <c r="FZ3">
-        <v>0.9304270358964454</v>
+        <v>0.9312872016349112</v>
       </c>
       <c r="GA3">
-        <v>0.9333171118633609</v>
+        <v>0.9341144915689853</v>
       </c>
       <c r="GB3">
-        <v>0.9339394859162361</v>
+        <v>0.9346242140992795</v>
       </c>
       <c r="GC3">
-        <v>0.9345079567097284</v>
+        <v>0.9350788480678321</v>
       </c>
       <c r="GD3">
-        <v>0.9376937976732581</v>
+        <v>0.9382084067044585</v>
       </c>
       <c r="GE3">
-        <v>0.9492872305405408</v>
+        <v>0.9499304354623921</v>
       </c>
       <c r="GF3">
-        <v>0.9616614903988848</v>
+        <v>0.9624504611577853</v>
       </c>
       <c r="GG3">
-        <v>0.9698357253053091</v>
+        <v>0.9706781057146501</v>
       </c>
       <c r="GH3">
-        <v>0.9770036946232529</v>
+        <v>0.9778773574686648</v>
       </c>
       <c r="GI3">
-        <v>0.9776070546863458</v>
+        <v>0.9783676479022348</v>
       </c>
       <c r="GJ3">
-        <v>0.9789813148706138</v>
+        <v>0.9796457901170922</v>
       </c>
       <c r="GK3">
-        <v>0.9830758694237408</v>
+        <v>0.9837040444440929</v>
       </c>
       <c r="GL3">
-        <v>0.990089091343456</v>
+        <v>0.9907451459916216</v>
       </c>
       <c r="GM3">
-        <v>0.9944846272931376</v>
+        <v>0.9951110001268157</v>
       </c>
       <c r="GN3">
-        <v>0.9968856812656512</v>
+        <v>0.9974385147478559</v>
       </c>
       <c r="GO3">
-        <v>0.9969991529743523</v>
+        <v>0.9974385147478559</v>
       </c>
       <c r="GP3">
-        <v>0.9972271954517418</v>
+        <v>0.9975452345730905</v>
       </c>
       <c r="GQ3">
-        <v>0.9976868727264796</v>
+        <v>0.9978886827145963</v>
       </c>
       <c r="GR3">
-        <v>0.9989526748119891</v>
+        <v>0.9990559818981001</v>
       </c>
       <c r="GS3">
         <v>0.9999999999999998</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>5.655812377819808E-05</v>
+        <v>4.903624299445959E-05</v>
       </c>
       <c r="C4">
-        <v>0.0001050358470166089</v>
+        <v>8.998088020433626E-05</v>
       </c>
       <c r="D4">
-        <v>0.0001520146801548909</v>
+        <v>0.000129424548774733</v>
       </c>
       <c r="E4">
-        <v>0.0001920479768291968</v>
+        <v>0.0001619130493739119</v>
       </c>
       <c r="F4">
-        <v>0.0002052290827097216</v>
+        <v>0.0001675121227366774</v>
       </c>
       <c r="G4">
-        <v>0.0002163587929532089</v>
+        <v>0.0001710569557531399</v>
       </c>
       <c r="H4">
-        <v>0.000245239484882498</v>
+        <v>0.000192377386078624</v>
       </c>
       <c r="I4">
-        <v>0.0002876607397163245</v>
+        <v>0.000227257156264227</v>
       </c>
       <c r="J4">
-        <v>0.0003018157156619058</v>
+        <v>0.0002338314501761525</v>
       </c>
       <c r="K4">
-        <v>0.00030654108397757</v>
+        <v>0.0002338314501761525</v>
       </c>
       <c r="L4">
-        <v>0.0003221300220189428</v>
+        <v>0.0002418416946863245</v>
       </c>
       <c r="M4">
-        <v>0.000329719808125956</v>
+        <v>0.0002418416946863245</v>
       </c>
       <c r="N4">
-        <v>0.000331209867525495</v>
+        <v>0.0002418416946863245</v>
       </c>
       <c r="O4">
-        <v>0.0003316382996741152</v>
+        <v>0.0002418416946863245</v>
       </c>
       <c r="P4">
-        <v>0.0003325835717972612</v>
+        <v>0.0002418416946863245</v>
       </c>
       <c r="Q4">
-        <v>0.0003537318262100078</v>
+        <v>0.0002554189647773991</v>
       </c>
       <c r="R4">
-        <v>0.0003634097728565144</v>
+        <v>0.0002575100210087462</v>
       </c>
       <c r="S4">
-        <v>0.0003689031782234851</v>
+        <v>0.0002575100210087462</v>
       </c>
       <c r="T4">
-        <v>0.0003695214114947843</v>
+        <v>0.0002575100210087462</v>
       </c>
       <c r="U4">
-        <v>0.0003713504262169662</v>
+        <v>0.0002575100210087462</v>
       </c>
       <c r="V4">
-        <v>0.0003713558111093259</v>
+        <v>0.0002575100210087462</v>
       </c>
       <c r="W4">
-        <v>0.000374274420704295</v>
+        <v>0.0002575100210087462</v>
       </c>
       <c r="X4">
-        <v>0.0003758998468128768</v>
+        <v>0.0002575100210087462</v>
       </c>
       <c r="Y4">
-        <v>0.0003762886636088506</v>
+        <v>0.0002575100210087462</v>
       </c>
       <c r="Z4">
-        <v>0.0003768834829085857</v>
+        <v>0.0002575100210087462</v>
       </c>
       <c r="AA4">
-        <v>0.0003811489761935294</v>
+        <v>0.0002575100210087462</v>
       </c>
       <c r="AB4">
-        <v>0.0003935541290222189</v>
+        <v>0.0002623320652908518</v>
       </c>
       <c r="AC4">
-        <v>0.0003935768909457395</v>
+        <v>0.0002623320652908518</v>
       </c>
       <c r="AD4">
-        <v>0.0004220376868469787</v>
+        <v>0.0002832320173104943</v>
       </c>
       <c r="AE4">
-        <v>0.000424622253019633</v>
+        <v>0.0002832320173104943</v>
       </c>
       <c r="AF4">
-        <v>0.0004528355549043391</v>
+        <v>0.0003038841321089535</v>
       </c>
       <c r="AG4">
-        <v>0.0004845248340212476</v>
+        <v>0.0003280170443432175</v>
       </c>
       <c r="AH4">
-        <v>0.0005408431077834233</v>
+        <v>0.000376813104717085</v>
       </c>
       <c r="AI4">
-        <v>0.0005902902910865961</v>
+        <v>0.0004187285463603958</v>
       </c>
       <c r="AJ4">
-        <v>0.0006039219319972175</v>
+        <v>0.0004247787795187355</v>
       </c>
       <c r="AK4">
-        <v>0.0006579381556056115</v>
+        <v>0.0004712695974421798</v>
       </c>
       <c r="AL4">
-        <v>0.0006942329450301775</v>
+        <v>0.0005000144065326581</v>
       </c>
       <c r="AM4">
-        <v>0.0007078645859407989</v>
+        <v>0.0005060646396909978</v>
       </c>
       <c r="AN4">
-        <v>0.0007084125556774044</v>
+        <v>0.0005060646396909978</v>
       </c>
       <c r="AO4">
-        <v>0.0007188302013733244</v>
+        <v>0.0005088964207264697</v>
       </c>
       <c r="AP4">
-        <v>0.0007612514562071508</v>
+        <v>0.0005437761909120727</v>
       </c>
       <c r="AQ4">
-        <v>0.0008108142315180454</v>
+        <v>0.0005858073848567364</v>
       </c>
       <c r="AR4">
-        <v>0.0008972113522895494</v>
+        <v>0.0006647240031479809</v>
       </c>
       <c r="AS4">
-        <v>0.001009339694779951</v>
+        <v>0.0007694075251316635</v>
       </c>
       <c r="AT4">
-        <v>0.001040253836845079</v>
+        <v>0.0007927642254168848</v>
       </c>
       <c r="AU4">
-        <v>0.001078926103428465</v>
+        <v>0.0008238898085588844</v>
       </c>
       <c r="AV4">
-        <v>0.001080232989415768</v>
+        <v>0.0008238898085588844</v>
       </c>
       <c r="AW4">
-        <v>0.00108865296997824</v>
+        <v>0.0008247211542607517</v>
       </c>
       <c r="AX4">
-        <v>0.001094515615969877</v>
+        <v>0.0008247211542607517</v>
       </c>
       <c r="AY4">
-        <v>0.001098843429558983</v>
+        <v>0.0008247211542607517</v>
       </c>
       <c r="AZ4">
-        <v>0.00109898484524843</v>
+        <v>0.0008247211542607517</v>
       </c>
       <c r="BA4">
-        <v>0.001099327388941313</v>
+        <v>0.0008247211542607517</v>
       </c>
       <c r="BB4">
-        <v>0.04666878743307424</v>
+        <v>0.04644977292254431</v>
       </c>
       <c r="BC4">
-        <v>0.0492499609055019</v>
+        <v>0.04902692544620976</v>
       </c>
       <c r="BD4">
-        <v>0.09782141615017423</v>
+        <v>0.0976581353387556</v>
       </c>
       <c r="BE4">
-        <v>0.09848264655434577</v>
+        <v>0.09831268237267139</v>
       </c>
       <c r="BF4">
-        <v>0.1154589636883984</v>
+        <v>0.1153049405768993</v>
       </c>
       <c r="BG4">
-        <v>0.117535316327103</v>
+        <v>0.11737657222221</v>
       </c>
       <c r="BH4">
-        <v>0.1258839888848113</v>
+        <v>0.1257292217316057</v>
       </c>
       <c r="BI4">
-        <v>0.128805660679985</v>
+        <v>0.128647344753504</v>
       </c>
       <c r="BJ4">
-        <v>0.1576262906052619</v>
+        <v>0.1575003404823105</v>
       </c>
       <c r="BK4">
-        <v>0.1874821435996938</v>
+        <v>0.1873899948437507</v>
       </c>
       <c r="BL4">
-        <v>0.1875446720238708</v>
+        <v>0.1874450096662728</v>
       </c>
       <c r="BM4">
-        <v>0.193182048400459</v>
+        <v>0.1930826031886733</v>
       </c>
       <c r="BN4">
-        <v>0.1942208988698564</v>
+        <v>0.1941152939407266</v>
       </c>
       <c r="BO4">
-        <v>0.200188793868524</v>
+        <v>0.2000838644216528</v>
       </c>
       <c r="BP4">
-        <v>0.2001996635022501</v>
+        <v>0.2000871488174989</v>
       </c>
       <c r="BQ4">
-        <v>0.200243298525165</v>
+        <v>0.2001232440389208</v>
       </c>
       <c r="BR4">
-        <v>0.2101881506895014</v>
+        <v>0.2100742866075007</v>
       </c>
       <c r="BS4">
-        <v>0.2106141144379566</v>
+        <v>0.2104932407369634</v>
       </c>
       <c r="BT4">
-        <v>0.2188104689854898</v>
+        <v>0.2186933610139082</v>
       </c>
       <c r="BU4">
-        <v>0.2297058527133237</v>
+        <v>0.2295962532661459</v>
       </c>
       <c r="BV4">
-        <v>0.2297161208360096</v>
+        <v>0.229598935316825</v>
       </c>
       <c r="BW4">
-        <v>0.2307984039083083</v>
+        <v>0.2306751189005945</v>
       </c>
       <c r="BX4">
-        <v>0.2326349867309958</v>
+        <v>0.2325066482365333</v>
       </c>
       <c r="BY4">
-        <v>0.243101242430163</v>
+        <v>0.2429798173801222</v>
       </c>
       <c r="BZ4">
-        <v>0.2516780180031091</v>
+        <v>0.2515608862195363</v>
       </c>
       <c r="CA4">
-        <v>0.2532126717056271</v>
+        <v>0.253090067744464</v>
       </c>
       <c r="CB4">
-        <v>0.2617808382779981</v>
+        <v>0.2616625156450385</v>
       </c>
       <c r="CC4">
-        <v>0.2639048176198843</v>
+        <v>0.263781840038384</v>
       </c>
       <c r="CD4">
-        <v>0.2667186043078509</v>
+        <v>0.2665919283467495</v>
       </c>
       <c r="CE4">
-        <v>0.2701218819351968</v>
+        <v>0.2699923250527685</v>
       </c>
       <c r="CF4">
-        <v>0.2705155375214938</v>
+        <v>0.2703789262177312</v>
       </c>
       <c r="CG4">
-        <v>0.2734901720202055</v>
+        <v>0.2733500853875537</v>
       </c>
       <c r="CH4">
-        <v>0.2831207216635458</v>
+        <v>0.2829863895858662</v>
       </c>
       <c r="CI4">
-        <v>0.3118754635844213</v>
+        <v>0.311773405942125</v>
       </c>
       <c r="CJ4">
-        <v>0.3337242610439656</v>
+        <v>0.3336449012327923</v>
       </c>
       <c r="CK4">
-        <v>0.3384948350626497</v>
+        <v>0.3384144903860068</v>
       </c>
       <c r="CL4">
-        <v>0.3427816619490184</v>
+        <v>0.3426996615855761</v>
       </c>
       <c r="CM4">
-        <v>0.3428538587738413</v>
+        <v>0.3427643582160988</v>
       </c>
       <c r="CN4">
-        <v>0.3564226516802644</v>
+        <v>0.3563443669141754</v>
       </c>
       <c r="CO4">
-        <v>0.3685754134920937</v>
+        <v>0.3685063808804628</v>
       </c>
       <c r="CP4">
-        <v>0.3891336658654269</v>
+        <v>0.3890855414615533</v>
       </c>
       <c r="CQ4">
-        <v>0.4149457755897284</v>
+        <v>0.4149258450173197</v>
       </c>
       <c r="CR4">
-        <v>0.4299762955937979</v>
+        <v>0.4299696078177527</v>
       </c>
       <c r="CS4">
-        <v>0.4422815864158164</v>
+        <v>0.4422843623091028</v>
       </c>
       <c r="CT4">
-        <v>0.4449453432937608</v>
+        <v>0.4449442127582609</v>
       </c>
       <c r="CU4">
-        <v>0.4496646756090218</v>
+        <v>0.4496624891502096</v>
       </c>
       <c r="CV4">
-        <v>0.4851541439797907</v>
+        <v>0.485193571129356</v>
       </c>
       <c r="CW4">
-        <v>0.5287503368921054</v>
+        <v>0.5288426193988367</v>
       </c>
       <c r="CX4">
-        <v>0.5744586539455142</v>
+        <v>0.5746067207320464</v>
       </c>
       <c r="CY4">
-        <v>0.5955242813527412</v>
+        <v>0.5956939599336201</v>
       </c>
       <c r="CZ4">
-        <v>0.6059872710516903</v>
+        <v>0.6061638585479663</v>
       </c>
       <c r="DA4">
-        <v>0.6060985705391253</v>
+        <v>0.6062677120655056</v>
       </c>
       <c r="DB4">
-        <v>0.6087003034129264</v>
+        <v>0.6088654525006565</v>
       </c>
       <c r="DC4">
-        <v>0.6222384233173004</v>
+        <v>0.62241474566185</v>
       </c>
       <c r="DD4">
-        <v>0.6413712545954126</v>
+        <v>0.6415665084892319</v>
       </c>
       <c r="DE4">
-        <v>0.658102232713076</v>
+        <v>0.6583130874608001</v>
       </c>
       <c r="DF4">
-        <v>0.6779664840400486</v>
+        <v>0.6781972846111066</v>
       </c>
       <c r="DG4">
-        <v>0.6954596832086299</v>
+        <v>0.695707141619991</v>
       </c>
       <c r="DH4">
-        <v>0.7036154837534541</v>
+        <v>0.7038666516572215</v>
       </c>
       <c r="DI4">
-        <v>0.7038736489507</v>
+        <v>0.7041175745460391</v>
       </c>
       <c r="DJ4">
-        <v>0.7092978133130453</v>
+        <v>0.7095416603890495</v>
       </c>
       <c r="DK4">
-        <v>0.7300876797018508</v>
+        <v>0.7303527561691636</v>
       </c>
       <c r="DL4">
-        <v>0.7473397238543226</v>
+        <v>0.7476211237477004</v>
       </c>
       <c r="DM4">
-        <v>0.7523475988888588</v>
+        <v>0.7526283429865898</v>
       </c>
       <c r="DN4">
-        <v>0.7545814860380871</v>
+        <v>0.7548577275985199</v>
       </c>
       <c r="DO4">
-        <v>0.7551509011261252</v>
+        <v>0.7554203319942606</v>
       </c>
       <c r="DP4">
-        <v>0.7551697669073855</v>
+        <v>0.7554316236260504</v>
       </c>
       <c r="DQ4">
-        <v>0.7551697922152122</v>
+        <v>0.7554316236260504</v>
       </c>
       <c r="DR4">
-        <v>0.7553311967759944</v>
+        <v>0.755585651698593</v>
       </c>
       <c r="DS4">
-        <v>0.7573250969091909</v>
+        <v>0.7575747164999413</v>
       </c>
       <c r="DT4">
-        <v>0.7614790905866862</v>
+        <v>0.7617268702883051</v>
       </c>
       <c r="DU4">
-        <v>0.7633289806102626</v>
+        <v>0.7635717252784809</v>
       </c>
       <c r="DV4">
-        <v>0.7662072546025371</v>
+        <v>0.7664463903169232</v>
       </c>
       <c r="DW4">
-        <v>0.767202642469031</v>
+        <v>0.7674355581956568</v>
       </c>
       <c r="DX4">
-        <v>0.7673574221393706</v>
+        <v>0.7675829521908956</v>
       </c>
       <c r="DY4">
-        <v>0.7676928500917779</v>
+        <v>0.7679112449766035</v>
       </c>
       <c r="DZ4">
-        <v>0.7681014033790701</v>
+        <v>0.7683127645014861</v>
       </c>
       <c r="EA4">
-        <v>0.7709274855678582</v>
+        <v>0.7711351653610773</v>
       </c>
       <c r="EB4">
-        <v>0.7741075644802939</v>
+        <v>0.7743120538382918</v>
       </c>
       <c r="EC4">
-        <v>0.7781277480488504</v>
+        <v>0.778330211960699</v>
       </c>
       <c r="ED4">
-        <v>0.7809513590374734</v>
+        <v>0.781150138193265</v>
       </c>
       <c r="EE4">
-        <v>0.7816612759848973</v>
+        <v>0.7818534392849867</v>
       </c>
       <c r="EF4">
-        <v>0.7824228911357748</v>
+        <v>0.7826085102710421</v>
       </c>
       <c r="EG4">
-        <v>0.7833043617946588</v>
+        <v>0.7834836029710117</v>
       </c>
       <c r="EH4">
-        <v>0.7833743373793333</v>
+        <v>0.7835460752811502</v>
       </c>
       <c r="EI4">
-        <v>0.7841793491331097</v>
+        <v>0.7843446030489973</v>
       </c>
       <c r="EJ4">
-        <v>0.7854601586186704</v>
+        <v>0.7856195883463741</v>
       </c>
       <c r="EK4">
-        <v>0.7866425454976562</v>
+        <v>0.7867960145526794</v>
       </c>
       <c r="EL4">
-        <v>0.7867680130060377</v>
+        <v>0.7869140557382287</v>
       </c>
       <c r="EM4">
-        <v>0.7870729292564067</v>
+        <v>0.787211794510742</v>
       </c>
       <c r="EN4">
-        <v>0.7870940775108195</v>
+        <v>0.7872253717808331</v>
       </c>
       <c r="EO4">
-        <v>0.7876390063772218</v>
+        <v>0.7877634559994299</v>
       </c>
       <c r="EP4">
-        <v>0.7922273079837298</v>
+        <v>0.7923505199798547</v>
       </c>
       <c r="EQ4">
-        <v>0.8010265375715363</v>
+        <v>0.8011543513153339</v>
       </c>
       <c r="ER4">
-        <v>0.8070737839755047</v>
+        <v>0.8072023832396608</v>
       </c>
       <c r="ES4">
-        <v>0.8073078856411431</v>
+        <v>0.8074292092275148</v>
       </c>
       <c r="ET4">
-        <v>0.8100335396232223</v>
+        <v>0.8101510426146968</v>
       </c>
       <c r="EU4">
-        <v>0.8130693434260202</v>
+        <v>0.8131834559132406</v>
       </c>
       <c r="EV4">
-        <v>0.8182888824746961</v>
+        <v>0.8184026326847754</v>
       </c>
       <c r="EW4">
-        <v>0.8224828657548627</v>
+        <v>0.8225948315301516</v>
       </c>
       <c r="EX4">
-        <v>0.825298247842936</v>
+        <v>0.8254065174509952</v>
       </c>
       <c r="EY4">
-        <v>0.8267502274399312</v>
+        <v>0.8268529102246489</v>
       </c>
       <c r="EZ4">
-        <v>0.826796150038999</v>
+        <v>0.8268912961944489</v>
       </c>
       <c r="FA4">
-        <v>0.8281735586310127</v>
+        <v>0.8282630145540931</v>
       </c>
       <c r="FB4">
-        <v>0.8335068639872883</v>
+        <v>0.8335961153951258</v>
       </c>
       <c r="FC4">
-        <v>0.8405775087596219</v>
+        <v>0.8406689648537595</v>
       </c>
       <c r="FD4">
-        <v>0.8474630292195887</v>
+        <v>0.8475564332846289</v>
       </c>
       <c r="FE4">
-        <v>0.8504741711207391</v>
+        <v>0.8505641504823981</v>
       </c>
       <c r="FF4">
-        <v>0.8505330842806746</v>
+        <v>0.8506155450273232</v>
       </c>
       <c r="FG4">
-        <v>0.8507596455358094</v>
+        <v>0.8508348201482431</v>
       </c>
       <c r="FH4">
-        <v>0.8550221548205538</v>
+        <v>0.8550956400245081</v>
       </c>
       <c r="FI4">
-        <v>0.861224573234888</v>
+        <v>0.8612990591391728</v>
       </c>
       <c r="FJ4">
-        <v>0.8691179127621792</v>
+        <v>0.8691957441991958</v>
       </c>
       <c r="FK4">
-        <v>0.8761027319287794</v>
+        <v>0.8761826490360997</v>
       </c>
       <c r="FL4">
-        <v>0.879772253973911</v>
+        <v>0.8798496593660918</v>
       </c>
       <c r="FM4">
-        <v>0.8819342138183344</v>
+        <v>0.8820070169302583</v>
       </c>
       <c r="FN4">
-        <v>0.8828566402299544</v>
+        <v>0.8829231221770836</v>
       </c>
       <c r="FO4">
-        <v>0.8830325322217043</v>
+        <v>0.8830916577705895</v>
       </c>
       <c r="FP4">
-        <v>0.8844733483179538</v>
+        <v>0.884526871562859</v>
       </c>
       <c r="FQ4">
-        <v>0.8877450205365082</v>
+        <v>0.8877954803603683</v>
       </c>
       <c r="FR4">
-        <v>0.8963908266140657</v>
+        <v>0.8964456754303046</v>
       </c>
       <c r="FS4">
-        <v>0.9064644632870051</v>
+        <v>0.9065256810954101</v>
       </c>
       <c r="FT4">
-        <v>0.9137425067731932</v>
+        <v>0.9138062168716314</v>
       </c>
       <c r="FU4">
-        <v>0.9157481885071769</v>
+        <v>0.9158070796115363</v>
       </c>
       <c r="FV4">
-        <v>0.9158548066282992</v>
+        <v>0.9159062452710233</v>
       </c>
       <c r="FW4">
-        <v>0.9186586880156042</v>
+        <v>0.9187064145428586</v>
       </c>
       <c r="FX4">
-        <v>0.9260108785067456</v>
+        <v>0.9260612001450922</v>
       </c>
       <c r="FY4">
-        <v>0.931909535900788</v>
+        <v>0.9319604370082928</v>
       </c>
       <c r="FZ4">
-        <v>0.93607246317888</v>
+        <v>0.9361215367856468</v>
       </c>
       <c r="GA4">
-        <v>0.9381297926163138</v>
+        <v>0.9381741188498525</v>
       </c>
       <c r="GB4">
-        <v>0.938970788132494</v>
+        <v>0.9390086802794697</v>
       </c>
       <c r="GC4">
-        <v>0.9396476761777115</v>
+        <v>0.9396789066671795</v>
       </c>
       <c r="GD4">
-        <v>0.9420456617379018</v>
+        <v>0.9420726172484527</v>
       </c>
       <c r="GE4">
-        <v>0.9512269263512291</v>
+        <v>0.9512590133846734</v>
       </c>
       <c r="GF4">
-        <v>0.9604527949675359</v>
+        <v>0.9604900753770914</v>
       </c>
       <c r="GG4">
-        <v>0.9666248113798391</v>
+        <v>0.9666630503306919</v>
       </c>
       <c r="GH4">
-        <v>0.9702990850252882</v>
+        <v>0.9703348188501358</v>
       </c>
       <c r="GI4">
-        <v>0.9703000012919794</v>
+        <v>0.9703348188501358</v>
       </c>
       <c r="GJ4">
-        <v>0.9748829919981324</v>
+        <v>0.9749165645654796</v>
       </c>
       <c r="GK4">
-        <v>0.9830513085437926</v>
+        <v>0.9830886079597221</v>
       </c>
       <c r="GL4">
-        <v>0.9908034650616525</v>
+        <v>0.9908439142291549</v>
       </c>
       <c r="GM4">
-        <v>0.9949284820372121</v>
+        <v>0.9949670511330404</v>
       </c>
       <c r="GN4">
-        <v>0.997309755496286</v>
+        <v>0.9973440264382095</v>
       </c>
       <c r="GO4">
-        <v>0.9973423231984616</v>
+        <v>0.9973690389916284</v>
       </c>
       <c r="GP4">
-        <v>0.9977219795738235</v>
+        <v>0.9977416215326844</v>
       </c>
       <c r="GQ4">
-        <v>0.9978397569556913</v>
+        <v>0.9978519619276756</v>
       </c>
       <c r="GR4">
-        <v>0.9983897623924327</v>
+        <v>0.9983951297563879</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>6.164159939323706E-06</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3.211423968388668E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001224546087946303</v>
+        <v>1.323545332447424E-05</v>
       </c>
       <c r="E5">
-        <v>0.0001416876966053113</v>
+        <v>1.323545332447424E-05</v>
       </c>
       <c r="F5">
-        <v>0.0001986334760447712</v>
+        <v>1.323545332447424E-05</v>
       </c>
       <c r="G5">
-        <v>0.0003039234650083597</v>
+        <v>4.161503458081053E-05</v>
       </c>
       <c r="H5">
-        <v>0.0003356823176957446</v>
+        <v>4.161503458081053E-05</v>
       </c>
       <c r="I5">
-        <v>0.0003374048219787893</v>
+        <v>4.161503458081053E-05</v>
       </c>
       <c r="J5">
-        <v>0.0003376243425666284</v>
+        <v>4.161503458081053E-05</v>
       </c>
       <c r="K5">
-        <v>0.0003420470025230944</v>
+        <v>4.161503458081053E-05</v>
       </c>
       <c r="L5">
-        <v>0.0004261865976948747</v>
+        <v>4.856903628761395E-05</v>
       </c>
       <c r="M5">
-        <v>0.0004835295971304246</v>
+        <v>4.856903628761395E-05</v>
       </c>
       <c r="N5">
-        <v>0.0005608045063697768</v>
+        <v>4.856903628761395E-05</v>
       </c>
       <c r="O5">
-        <v>0.0006787568552087246</v>
+        <v>8.977572617676451E-05</v>
       </c>
       <c r="P5">
-        <v>0.0007546383844617922</v>
+        <v>8.977572617676451E-05</v>
       </c>
       <c r="Q5">
-        <v>0.0008119813838973421</v>
+        <v>8.977572617676451E-05</v>
       </c>
       <c r="R5">
-        <v>0.0009482322325561705</v>
+        <v>0.0001495189959228732</v>
       </c>
       <c r="S5">
-        <v>0.0009972223320739413</v>
+        <v>0.0001495189959228732</v>
       </c>
       <c r="T5">
-        <v>0.001030277334748568</v>
+        <v>0.0001495189959228732</v>
       </c>
       <c r="U5">
-        <v>0.001069152504365904</v>
+        <v>0.0001495189959228732</v>
       </c>
       <c r="V5">
-        <v>0.001069559687181896</v>
+        <v>0.0001495189959228732</v>
       </c>
       <c r="W5">
-        <v>0.001104819930834815</v>
+        <v>0.0001495189959228732</v>
       </c>
       <c r="X5">
-        <v>0.001105290358580184</v>
+        <v>0.0001495189959228732</v>
       </c>
       <c r="Y5">
-        <v>0.001110300598530866</v>
+        <v>0.0001495189959228732</v>
       </c>
       <c r="Z5">
-        <v>0.001133336268304117</v>
+        <v>0.0001495189959228732</v>
       </c>
       <c r="AA5">
-        <v>0.001140066311237871</v>
+        <v>0.0001495189959228732</v>
       </c>
       <c r="AB5">
-        <v>0.001156998432071201</v>
+        <v>0.0001495189959228732</v>
       </c>
       <c r="AC5">
-        <v>0.001205955097589301</v>
+        <v>0.0001495189959228732</v>
       </c>
       <c r="AD5">
-        <v>0.001238708687266894</v>
+        <v>0.0001495189959228732</v>
       </c>
       <c r="AE5">
-        <v>0.001269931421959557</v>
+        <v>0.0001495189959228732</v>
       </c>
       <c r="AF5">
-        <v>0.001280998249850622</v>
+        <v>0.0001495189959228732</v>
       </c>
       <c r="AG5">
-        <v>0.001285786466803489</v>
+        <v>0.0001495189959228732</v>
       </c>
       <c r="AH5">
-        <v>0.001299958401663989</v>
+        <v>0.0001495189959228732</v>
       </c>
       <c r="AI5">
-        <v>0.001403620870643598</v>
+        <v>0.0001762498816878415</v>
       </c>
       <c r="AJ5">
-        <v>0.001516391584533551</v>
+        <v>0.0002122075188695511</v>
       </c>
       <c r="AK5">
-        <v>0.001644533113272202</v>
+        <v>0.0002637359591069226</v>
       </c>
       <c r="AL5">
-        <v>0.001727175042458725</v>
+        <v>0.0002691728088390805</v>
       </c>
       <c r="AM5">
-        <v>0.001829222671454229</v>
+        <v>0.0002942678440908258</v>
       </c>
       <c r="AN5">
-        <v>0.001902314630734756</v>
+        <v>0.0002942678440908258</v>
       </c>
       <c r="AO5">
-        <v>0.001902487012363059</v>
+        <v>0.0002942678440908258</v>
       </c>
       <c r="AP5">
-        <v>0.001922731644163783</v>
+        <v>0.0002942678440908258</v>
       </c>
       <c r="AQ5">
-        <v>0.001989865209502961</v>
+        <v>0.0002942678440908258</v>
       </c>
       <c r="AR5">
-        <v>0.002067701023736792</v>
+        <v>0.0002948360469667264</v>
       </c>
       <c r="AS5">
-        <v>0.002196438062469581</v>
+        <v>0.0003469677453220102</v>
       </c>
       <c r="AT5">
-        <v>0.002358732540872052</v>
+        <v>0.0004330934959960676</v>
       </c>
       <c r="AU5">
-        <v>0.002485131649627855</v>
+        <v>0.0004828568457902683</v>
       </c>
       <c r="AV5">
-        <v>0.002633731328165129</v>
+        <v>0.000555109614863371</v>
       </c>
       <c r="AW5">
-        <v>0.002699050822522163</v>
+        <v>0.000555109614863371</v>
       </c>
       <c r="AX5">
-        <v>0.002727857652238605</v>
+        <v>0.000555109614863371</v>
       </c>
       <c r="AY5">
-        <v>0.002737505836143634</v>
+        <v>0.000555109614863371</v>
       </c>
       <c r="AZ5">
-        <v>0.00273775621224117</v>
+        <v>0.000555109614863371</v>
       </c>
       <c r="BA5">
-        <v>0.002744918447470669</v>
+        <v>0.000555109614863371</v>
       </c>
       <c r="BB5">
-        <v>0.002814288216787835</v>
+        <v>0.000555109614863371</v>
       </c>
       <c r="BC5">
-        <v>0.002834964989584305</v>
+        <v>0.000555109614863371</v>
       </c>
       <c r="BD5">
-        <v>0.00284752514746067</v>
+        <v>0.000555109614863371</v>
       </c>
       <c r="BE5">
-        <v>0.002912844641817704</v>
+        <v>0.000555109614863371</v>
       </c>
       <c r="BF5">
-        <v>0.002913880699207505</v>
+        <v>0.000555109614863371</v>
       </c>
       <c r="BG5">
-        <v>0.00291702850287652</v>
+        <v>0.000555109614863371</v>
       </c>
       <c r="BH5">
-        <v>0.01128773742048028</v>
+        <v>0.008956448702641256</v>
       </c>
       <c r="BI5">
-        <v>0.02829373725308342</v>
+        <v>0.02610543165246093</v>
       </c>
       <c r="BJ5">
-        <v>0.07325385181052302</v>
+        <v>0.07157223764942054</v>
       </c>
       <c r="BK5">
-        <v>0.07326253617043753</v>
+        <v>0.07157223764942054</v>
       </c>
       <c r="BL5">
-        <v>0.08175797208681355</v>
+        <v>0.08009992654706366</v>
       </c>
       <c r="BM5">
-        <v>0.09833952792359466</v>
+        <v>0.09681894310068655</v>
       </c>
       <c r="BN5">
-        <v>0.1049299678587223</v>
+        <v>0.1034168502959395</v>
       </c>
       <c r="BO5">
-        <v>0.1049699125683291</v>
+        <v>0.1034168502959395</v>
       </c>
       <c r="BP5">
-        <v>0.1585554020408657</v>
+        <v>0.1576212551389089</v>
       </c>
       <c r="BQ5">
-        <v>0.2110262315243743</v>
+        <v>0.2106964972579743</v>
       </c>
       <c r="BR5">
-        <v>0.2113063293216172</v>
+        <v>0.2109019590552421</v>
       </c>
       <c r="BS5">
-        <v>0.2117127363176168</v>
+        <v>0.2112353734482127</v>
       </c>
       <c r="BT5">
-        <v>0.2129116587058153</v>
+        <v>0.2123716145756134</v>
       </c>
       <c r="BU5">
-        <v>0.2190092259457945</v>
+        <v>0.2184702363560583</v>
       </c>
       <c r="BV5">
-        <v>0.2211879384243486</v>
+        <v>0.2205990155292938</v>
       </c>
       <c r="BW5">
-        <v>0.2219087074172537</v>
+        <v>0.221250882053149</v>
       </c>
       <c r="BX5">
-        <v>0.2338856102993603</v>
+        <v>0.2333053349513859</v>
       </c>
       <c r="BY5">
-        <v>0.2340519254977232</v>
+        <v>0.2333955337352245</v>
       </c>
       <c r="BZ5">
-        <v>0.245987043380241</v>
+        <v>0.2454076579732256</v>
       </c>
       <c r="CA5">
-        <v>0.2575151602667651</v>
+        <v>0.2570074857640665</v>
       </c>
       <c r="CB5">
-        <v>0.25751567539319</v>
+        <v>0.2570074857640665</v>
       </c>
       <c r="CC5">
-        <v>0.2580491609879387</v>
+        <v>0.2574696321633224</v>
       </c>
       <c r="CD5">
-        <v>0.2592424114761931</v>
+        <v>0.2586001275942293</v>
       </c>
       <c r="CE5">
-        <v>0.2604929875638832</v>
+        <v>0.2597886944824824</v>
       </c>
       <c r="CF5">
-        <v>0.2629222975399705</v>
+        <v>0.2621713316534063</v>
       </c>
       <c r="CG5">
-        <v>0.2652009805175405</v>
+        <v>0.264401382032292</v>
       </c>
       <c r="CH5">
-        <v>0.2689364782807705</v>
+        <v>0.2681072016751609</v>
       </c>
       <c r="CI5">
-        <v>0.2698647289416334</v>
+        <v>0.26896924939118</v>
       </c>
       <c r="CJ5">
-        <v>0.271056329929904</v>
+        <v>0.2700980738606161</v>
       </c>
       <c r="CK5">
-        <v>0.2753954092871927</v>
+        <v>0.2744153282401351</v>
       </c>
       <c r="CL5">
-        <v>0.2754207946789428</v>
+        <v>0.2744153282401351</v>
       </c>
       <c r="CM5">
-        <v>0.2755211284679552</v>
+        <v>0.274438687136795</v>
       </c>
       <c r="CN5">
-        <v>0.2800011484238565</v>
+        <v>0.2788987158796218</v>
       </c>
       <c r="CO5">
-        <v>0.3011633902155481</v>
+        <v>0.3002580172565171</v>
       </c>
       <c r="CP5">
-        <v>0.3275314849559964</v>
+        <v>0.3268909044387016</v>
       </c>
       <c r="CQ5">
-        <v>0.3394666028385142</v>
+        <v>0.3389030286767027</v>
       </c>
       <c r="CR5">
-        <v>0.3445021284889475</v>
+        <v>0.3439257907457062</v>
       </c>
       <c r="CS5">
-        <v>0.345170040842373</v>
+        <v>0.3445241129173834</v>
       </c>
       <c r="CT5">
-        <v>0.3532934877624106</v>
+        <v>0.3526749729053121</v>
       </c>
       <c r="CU5">
-        <v>0.3672125936253993</v>
+        <v>0.3666968986022988</v>
       </c>
       <c r="CV5">
-        <v>0.3939353233623568</v>
+        <v>0.3936890349031308</v>
       </c>
       <c r="CW5">
-        <v>0.4250973280556167</v>
+        <v>0.4251782051436027</v>
       </c>
       <c r="CX5">
-        <v>0.4499788098106983</v>
+        <v>0.450305137160561</v>
       </c>
       <c r="CY5">
-        <v>0.4700702096129306</v>
+        <v>0.4705796639249369</v>
       </c>
       <c r="CZ5">
-        <v>0.4824737704908373</v>
+        <v>0.4830663260254914</v>
       </c>
       <c r="DA5">
-        <v>0.4824843139547336</v>
+        <v>0.4830663260254914</v>
       </c>
       <c r="DB5">
-        <v>0.4961850558198717</v>
+        <v>0.4968670466114644</v>
       </c>
       <c r="DC5">
-        <v>0.5313864354733704</v>
+        <v>0.532448147734779</v>
       </c>
       <c r="DD5">
-        <v>0.5782605780119694</v>
+        <v>0.5798538849485299</v>
       </c>
       <c r="DE5">
-        <v>0.6085082827142291</v>
+        <v>0.610416859327963</v>
       </c>
       <c r="DF5">
-        <v>0.6285620105168322</v>
+        <v>0.6306532239459132</v>
       </c>
       <c r="DG5">
-        <v>0.6311543019913153</v>
+        <v>0.6332009631519743</v>
       </c>
       <c r="DH5">
-        <v>0.6315223991176919</v>
+        <v>0.6334955692292598</v>
       </c>
       <c r="DI5">
-        <v>0.6375563470582973</v>
+        <v>0.6395297439656905</v>
       </c>
       <c r="DJ5">
-        <v>0.6488289379473368</v>
+        <v>0.6508707211346483</v>
       </c>
       <c r="DK5">
-        <v>0.6593144388441238</v>
+        <v>0.6614143675584842</v>
       </c>
       <c r="DL5">
-        <v>0.6732654977067979</v>
+        <v>0.6754686619925897</v>
       </c>
       <c r="DM5">
-        <v>0.6905132195370216</v>
+        <v>0.6928625119619019</v>
       </c>
       <c r="DN5">
-        <v>0.7018213394257112</v>
+        <v>0.7042394803949379</v>
       </c>
       <c r="DO5">
-        <v>0.7032083346120584</v>
+        <v>0.7055662413177383</v>
       </c>
       <c r="DP5">
-        <v>0.7051862490925891</v>
+        <v>0.7074916099293366</v>
       </c>
       <c r="DQ5">
-        <v>0.7201836649449636</v>
+        <v>0.7226058754042043</v>
       </c>
       <c r="DR5">
-        <v>0.7455986906947932</v>
+        <v>0.7482732933059728</v>
       </c>
       <c r="DS5">
-        <v>0.756790786584625</v>
+        <v>0.7595327281629604</v>
       </c>
       <c r="DT5">
-        <v>0.7636440042171659</v>
+        <v>0.7663968320312017</v>
       </c>
       <c r="DU5">
-        <v>0.7666443974876319</v>
+        <v>0.769357982806816</v>
       </c>
       <c r="DV5">
-        <v>0.7673322084208615</v>
+        <v>0.7699764624568226</v>
       </c>
       <c r="DW5">
-        <v>0.7673323808024898</v>
+        <v>0.7699764624568226</v>
       </c>
       <c r="DX5">
-        <v>0.7673981773118421</v>
+        <v>0.7699764624568226</v>
       </c>
       <c r="DY5">
-        <v>0.7681205289647317</v>
+        <v>0.7706299322325005</v>
       </c>
       <c r="DZ5">
-        <v>0.7727962902187063</v>
+        <v>0.7752882490447731</v>
       </c>
       <c r="EA5">
-        <v>0.776143436985759</v>
+        <v>0.7786006648936682</v>
       </c>
       <c r="EB5">
-        <v>0.7825758409224424</v>
+        <v>0.7850384798991639</v>
       </c>
       <c r="EC5">
-        <v>0.7877200783718056</v>
+        <v>0.7901713682059516</v>
       </c>
       <c r="ED5">
-        <v>0.7903430235459868</v>
+        <v>0.792750159944076</v>
       </c>
       <c r="EE5">
-        <v>0.7929888520199428</v>
+        <v>0.7953521327144075</v>
       </c>
       <c r="EF5">
-        <v>0.793256226417311</v>
+        <v>0.7955447055688575</v>
       </c>
       <c r="EG5">
-        <v>0.7939155250108212</v>
+        <v>0.7961343019078102</v>
       </c>
       <c r="EH5">
-        <v>0.7952203389979774</v>
+        <v>0.7973778123796698</v>
       </c>
       <c r="EI5">
-        <v>0.7974268619762577</v>
+        <v>0.7995347638923926</v>
       </c>
       <c r="EJ5">
-        <v>0.7990691278600922</v>
+        <v>0.8011201168153947</v>
       </c>
       <c r="EK5">
-        <v>0.7996000421548662</v>
+        <v>0.801579658459737</v>
       </c>
       <c r="EL5">
-        <v>0.8010837246402618</v>
+        <v>0.803004364670818</v>
       </c>
       <c r="EM5">
-        <v>0.8026287478250536</v>
+        <v>0.8044912096792886</v>
       </c>
       <c r="EN5">
-        <v>0.8028777799526022</v>
+        <v>0.8046652016143947</v>
       </c>
       <c r="EO5">
-        <v>0.8038837575427</v>
+        <v>0.8056059875573166</v>
       </c>
       <c r="EP5">
-        <v>0.8060498536213783</v>
+        <v>0.8077219861799</v>
       </c>
       <c r="EQ5">
-        <v>0.8075394915067151</v>
+        <v>0.8091527252760634</v>
       </c>
       <c r="ER5">
-        <v>0.8077101469350353</v>
+        <v>0.8092473207601777</v>
       </c>
       <c r="ES5">
-        <v>0.8085463463668042</v>
+        <v>0.8100161195773348</v>
       </c>
       <c r="ET5">
-        <v>0.8096010287564226</v>
+        <v>0.8110062440132817</v>
       </c>
       <c r="EU5">
-        <v>0.8097905455545571</v>
+        <v>0.8111199462706952</v>
       </c>
       <c r="EV5">
-        <v>0.8104250199983117</v>
+        <v>0.8116843954752458</v>
       </c>
       <c r="EW5">
-        <v>0.8143039537601299</v>
+        <v>0.8155355173488092</v>
       </c>
       <c r="EX5">
-        <v>0.8180755461230046</v>
+        <v>0.8192779012147186</v>
       </c>
       <c r="EY5">
-        <v>0.8185155881786731</v>
+        <v>0.8196453882899136</v>
       </c>
       <c r="EZ5">
-        <v>0.8202474460616257</v>
+        <v>0.8213214988849952</v>
       </c>
       <c r="FA5">
-        <v>0.8245899880188803</v>
+        <v>0.8256422609160382</v>
       </c>
       <c r="FB5">
-        <v>0.8308754863570096</v>
+        <v>0.831931258948239</v>
       </c>
       <c r="FC5">
-        <v>0.8361453073051366</v>
+        <v>0.8371913647087232</v>
       </c>
       <c r="FD5">
-        <v>0.8407239142600675</v>
+        <v>0.8417512631566273</v>
       </c>
       <c r="FE5">
-        <v>0.8426560669410486</v>
+        <v>0.8436302745662637</v>
       </c>
       <c r="FF5">
-        <v>0.842751517320109</v>
+        <v>0.8436486865153903</v>
       </c>
       <c r="FG5">
-        <v>0.8438984732088191</v>
+        <v>0.8447322850121307</v>
       </c>
       <c r="FH5">
-        <v>0.8474789311735752</v>
+        <v>0.8482810476484851</v>
       </c>
       <c r="FI5">
-        <v>0.8580592140694292</v>
+        <v>0.8589207092709439</v>
       </c>
       <c r="FJ5">
-        <v>0.86913152496044</v>
+        <v>0.870058800617908</v>
       </c>
       <c r="FK5">
-        <v>0.8784006688692001</v>
+        <v>0.8793702641488799</v>
       </c>
       <c r="FL5">
-        <v>0.8820068978337026</v>
+        <v>0.8829451330890019</v>
       </c>
       <c r="FM5">
-        <v>0.8821825819819732</v>
+        <v>0.8830448227212626</v>
       </c>
       <c r="FN5">
-        <v>0.8828159739357384</v>
+        <v>0.8836081753516498</v>
       </c>
       <c r="FO5">
-        <v>0.8874129154904888</v>
+        <v>0.8881866469491042</v>
       </c>
       <c r="FP5">
-        <v>0.8920802981445459</v>
+        <v>0.8928364761482943</v>
       </c>
       <c r="FQ5">
-        <v>0.8977229077890034</v>
+        <v>0.8984742209233055</v>
       </c>
       <c r="FR5">
-        <v>0.9001736900648794</v>
+        <v>0.9008786097680641</v>
       </c>
       <c r="FS5">
-        <v>0.9017012382498431</v>
+        <v>0.9023477524111495</v>
       </c>
       <c r="FT5">
-        <v>0.9029649687374036</v>
+        <v>0.9035496448499161</v>
       </c>
       <c r="FU5">
-        <v>0.9030106401269541</v>
+        <v>0.9035496448499161</v>
       </c>
       <c r="FV5">
-        <v>0.9039009614481903</v>
+        <v>0.9043732697312858</v>
       </c>
       <c r="FW5">
-        <v>0.9052119370352859</v>
+        <v>0.9056230219710744</v>
       </c>
       <c r="FX5">
-        <v>0.9092623039954165</v>
+        <v>0.9096478075439538</v>
       </c>
       <c r="FY5">
-        <v>0.9159461425296248</v>
+        <v>0.916340328538558</v>
       </c>
       <c r="FZ5">
-        <v>0.9217037970729499</v>
+        <v>0.9220946150506506</v>
       </c>
       <c r="GA5">
-        <v>0.9247371617430913</v>
+        <v>0.9250891662136789</v>
       </c>
       <c r="GB5">
-        <v>0.9247376321708367</v>
+        <v>0.9250891662136789</v>
       </c>
       <c r="GC5">
-        <v>0.9261962749564787</v>
+        <v>0.9264885069358595</v>
       </c>
       <c r="GD5">
-        <v>0.935005695869764</v>
+        <v>0.9353342660592799</v>
       </c>
       <c r="GE5">
-        <v>0.9436159927850094</v>
+        <v>0.943978310401301</v>
       </c>
       <c r="GF5">
-        <v>0.9504876772173687</v>
+        <v>0.9508611213391329</v>
       </c>
       <c r="GG5">
-        <v>0.9549166864737721</v>
+        <v>0.9552694756871126</v>
       </c>
       <c r="GH5">
-        <v>0.9582383641410755</v>
+        <v>0.9585560910602291</v>
       </c>
       <c r="GI5">
-        <v>0.9583647632498313</v>
+        <v>0.9586058544100233</v>
       </c>
       <c r="GJ5">
-        <v>0.9590383253032012</v>
+        <v>0.9592098997893524</v>
       </c>
       <c r="GK5">
-        <v>0.9637807390565197</v>
+        <v>0.9639357363102851</v>
       </c>
       <c r="GL5">
-        <v>0.9732239214635667</v>
+        <v>0.9734235027378569</v>
       </c>
       <c r="GM5">
-        <v>0.9803053349938615</v>
+        <v>0.9805187715389277</v>
       </c>
       <c r="GN5">
-        <v>0.9875294933227512</v>
+        <v>0.9877586423775626</v>
       </c>
       <c r="GO5">
-        <v>0.9892884258054373</v>
+        <v>0.9894621798374142</v>
       </c>
       <c r="GP5">
-        <v>0.9902231396962365</v>
+        <v>0.9903307748758384</v>
       </c>
       <c r="GQ5">
-        <v>0.9933933296650311</v>
+        <v>0.9934639315584395</v>
       </c>
       <c r="GR5">
-        <v>0.9981130736185728</v>
+        <v>0.9981668033249911</v>
       </c>
       <c r="GS5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW5">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>4.291697610337419E-08</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>8.648407517016594E-05</v>
+        <v>8.42372761655009E-05</v>
       </c>
       <c r="D6">
-        <v>0.0001984330768313161</v>
+        <v>0.0001939932329314715</v>
       </c>
       <c r="E6">
-        <v>0.0003093107445148486</v>
+        <v>0.0003026774005582886</v>
       </c>
       <c r="F6">
-        <v>0.000533314279834944</v>
+        <v>0.0005245354979057147</v>
       </c>
       <c r="G6">
-        <v>0.0007943215743819531</v>
+        <v>0.0007834130757100716</v>
       </c>
       <c r="H6">
-        <v>0.0009746806106138738</v>
+        <v>0.0009616081313881509</v>
       </c>
       <c r="I6">
-        <v>0.001099563078004817</v>
+        <v>0.00108430304873076</v>
       </c>
       <c r="J6">
-        <v>0.001110132134784007</v>
+        <v>0.001092635988844067</v>
       </c>
       <c r="K6">
-        <v>0.001112371790237216</v>
+        <v>0.001092635988844067</v>
       </c>
       <c r="L6">
-        <v>0.001112382726985987</v>
+        <v>0.001092635988844067</v>
       </c>
       <c r="M6">
-        <v>0.001112416703475278</v>
+        <v>0.001092635988844067</v>
       </c>
       <c r="N6">
-        <v>0.001114725233627048</v>
+        <v>0.001092704892804384</v>
       </c>
       <c r="O6">
-        <v>0.001181670117228428</v>
+        <v>0.001157437611288572</v>
       </c>
       <c r="P6">
-        <v>0.001226795176285671</v>
+        <v>0.001200341234968309</v>
       </c>
       <c r="Q6">
-        <v>0.001257119975652122</v>
+        <v>0.001228438310993768</v>
       </c>
       <c r="R6">
-        <v>0.001275951860258685</v>
+        <v>0.001245037589437693</v>
       </c>
       <c r="S6">
-        <v>0.001277159428733456</v>
+        <v>0.001245037589437693</v>
       </c>
       <c r="T6">
-        <v>0.001296434346330762</v>
+        <v>0.001262080089097117</v>
       </c>
       <c r="U6">
-        <v>0.001312424983996684</v>
+        <v>0.001275836913482594</v>
       </c>
       <c r="V6">
-        <v>0.001312956647285577</v>
+        <v>0.001275836913482594</v>
       </c>
       <c r="W6">
-        <v>0.001314328807856909</v>
+        <v>0.001275836913482594</v>
       </c>
       <c r="X6">
-        <v>0.001316422288213172</v>
+        <v>0.001275836913482594</v>
       </c>
       <c r="Y6">
-        <v>0.001341270594694039</v>
+        <v>0.001298455169907396</v>
       </c>
       <c r="Z6">
-        <v>0.00147290978194382</v>
+        <v>0.001427909677734673</v>
       </c>
       <c r="AA6">
-        <v>0.001670230937821366</v>
+        <v>0.001623074059498753</v>
       </c>
       <c r="AB6">
-        <v>0.001801371515081564</v>
+        <v>0.001752029745499528</v>
       </c>
       <c r="AC6">
-        <v>0.001944739832086299</v>
+        <v>0.001893218366260513</v>
       </c>
       <c r="AD6">
-        <v>0.002014078470637668</v>
+        <v>0.001960345856693313</v>
       </c>
       <c r="AE6">
-        <v>0.002027407084359206</v>
+        <v>0.001971439526160375</v>
       </c>
       <c r="AF6">
-        <v>0.002033824564225131</v>
+        <v>0.001975619125542444</v>
       </c>
       <c r="AG6">
-        <v>0.002049575481896061</v>
+        <v>0.001989136128086704</v>
       </c>
       <c r="AH6">
-        <v>0.002080449697251034</v>
+        <v>0.002017782853522783</v>
       </c>
       <c r="AI6">
-        <v>0.002144908955904345</v>
+        <v>0.002080028891028856</v>
       </c>
       <c r="AJ6">
-        <v>0.00215469184669996</v>
+        <v>0.002087575331152083</v>
       </c>
       <c r="AK6">
-        <v>0.002157806336934891</v>
+        <v>0.002088450537611687</v>
       </c>
       <c r="AL6">
-        <v>0.002198086806093348</v>
+        <v>0.002126507513144673</v>
       </c>
       <c r="AM6">
-        <v>0.002245965273093066</v>
+        <v>0.002172165714565861</v>
       </c>
       <c r="AN6">
-        <v>0.002322464541494835</v>
+        <v>0.002246456877078048</v>
       </c>
       <c r="AO6">
-        <v>0.00242970817425429</v>
+        <v>0.002351505465843087</v>
       </c>
       <c r="AP6">
-        <v>0.002557360421587366</v>
+        <v>0.002476971339882528</v>
       </c>
       <c r="AQ6">
-        <v>0.002652644639596679</v>
+        <v>0.002570055432880953</v>
       </c>
       <c r="AR6">
-        <v>0.002672551686180779</v>
+        <v>0.002587730330090296</v>
       </c>
       <c r="AS6">
-        <v>0.00270423682551881</v>
+        <v>0.002617188324034495</v>
       </c>
       <c r="AT6">
-        <v>0.002751018026541452</v>
+        <v>0.002661748793299733</v>
       </c>
       <c r="AU6">
-        <v>0.002751024887251309</v>
+        <v>0.002661748793299733</v>
       </c>
       <c r="AV6">
-        <v>0.002751556550540201</v>
+        <v>0.002661748793299733</v>
       </c>
       <c r="AW6">
-        <v>0.00275156041532112</v>
+        <v>0.002661748793299733</v>
       </c>
       <c r="AX6">
-        <v>0.002753449357781657</v>
+        <v>0.002661748793299733</v>
       </c>
       <c r="AY6">
-        <v>0.002759510131255034</v>
+        <v>0.00266557153474078</v>
       </c>
       <c r="AZ6">
-        <v>0.002759714951890755</v>
+        <v>0.00266557153474078</v>
       </c>
       <c r="BA6">
-        <v>0.005812850588104336</v>
+        <v>0.005717763703739148</v>
       </c>
       <c r="BB6">
-        <v>0.03230937403453629</v>
+        <v>0.03222330372214764</v>
       </c>
       <c r="BC6">
-        <v>0.06330329338700819</v>
+        <v>0.06322815038747738</v>
       </c>
       <c r="BD6">
-        <v>0.06440842946391957</v>
+        <v>0.06433151537993183</v>
       </c>
       <c r="BE6">
-        <v>0.08418064005083654</v>
+        <v>0.08410988568126873</v>
       </c>
       <c r="BF6">
-        <v>0.09677145978778787</v>
+        <v>0.09670381408323978</v>
       </c>
       <c r="BG6">
-        <v>0.1055255566048964</v>
+        <v>0.1054593895146706</v>
       </c>
       <c r="BH6">
-        <v>0.1077029957594051</v>
+        <v>0.1076355131579853</v>
       </c>
       <c r="BI6">
-        <v>0.1304569972840262</v>
+        <v>0.1303969412256452</v>
       </c>
       <c r="BJ6">
-        <v>0.1868605661056371</v>
+        <v>0.1868222327752908</v>
       </c>
       <c r="BK6">
-        <v>0.1882156598773264</v>
+        <v>0.1881756616582852</v>
       </c>
       <c r="BL6">
-        <v>0.1919851040985747</v>
+        <v>0.1919444667395615</v>
       </c>
       <c r="BM6">
-        <v>0.1921594770949317</v>
+        <v>0.192116673212166</v>
       </c>
       <c r="BN6">
-        <v>0.2038133638514575</v>
+        <v>0.2037732705731035</v>
       </c>
       <c r="BO6">
-        <v>0.2051140383242837</v>
+        <v>0.2050722570369268</v>
       </c>
       <c r="BP6">
-        <v>0.2064414393965515</v>
+        <v>0.2063979814551196</v>
       </c>
       <c r="BQ6">
-        <v>0.2156459592042498</v>
+        <v>0.2156041712415742</v>
       </c>
       <c r="BR6">
-        <v>0.2156525300268125</v>
+        <v>0.2156085042488014</v>
       </c>
       <c r="BS6">
-        <v>0.2258565748136285</v>
+        <v>0.2258146436675018</v>
       </c>
       <c r="BT6">
-        <v>0.2400525645170445</v>
+        <v>0.2400144240003321</v>
       </c>
       <c r="BU6">
-        <v>0.2406348476048794</v>
+        <v>0.2405947138670332</v>
       </c>
       <c r="BV6">
-        <v>0.2449229519152919</v>
+        <v>0.2448823993927762</v>
       </c>
       <c r="BW6">
-        <v>0.2453530458063063</v>
+        <v>0.2453104354043243</v>
       </c>
       <c r="BX6">
-        <v>0.2528155848503982</v>
+        <v>0.2527739043380344</v>
       </c>
       <c r="BY6">
-        <v>0.2560772677822548</v>
+        <v>0.2560347324050252</v>
       </c>
       <c r="BZ6">
-        <v>0.2645101306060745</v>
+        <v>0.2644689373653174</v>
       </c>
       <c r="CA6">
-        <v>0.2721883961456594</v>
+        <v>0.2721482244469886</v>
       </c>
       <c r="CB6">
-        <v>0.2741741391041731</v>
+        <v>0.2741325704512317</v>
       </c>
       <c r="CC6">
-        <v>0.2759261881675691</v>
+        <v>0.2758831232743508</v>
       </c>
       <c r="CD6">
-        <v>0.2783071969178248</v>
+        <v>0.2782629030009615</v>
       </c>
       <c r="CE6">
-        <v>0.27836630087359</v>
+        <v>0.2783197914603526</v>
       </c>
       <c r="CF6">
-        <v>0.278704177506531</v>
+        <v>0.2786555710348694</v>
       </c>
       <c r="CG6">
-        <v>0.2831358880139433</v>
+        <v>0.2830869237694147</v>
       </c>
       <c r="CH6">
-        <v>0.3027697006037517</v>
+        <v>0.3027268372745699</v>
       </c>
       <c r="CI6">
-        <v>0.3265584871067539</v>
+        <v>0.3265234899541239</v>
       </c>
       <c r="CJ6">
-        <v>0.3392716278411497</v>
+        <v>0.3392397913222199</v>
       </c>
       <c r="CK6">
-        <v>0.3439439727435346</v>
+        <v>0.34391188068645</v>
       </c>
       <c r="CL6">
-        <v>0.3441105838600538</v>
+        <v>0.3440763219815436</v>
       </c>
       <c r="CM6">
-        <v>0.3494813533478471</v>
+        <v>0.3494471326603197</v>
       </c>
       <c r="CN6">
-        <v>0.3588776521515387</v>
+        <v>0.358845182921022</v>
       </c>
       <c r="CO6">
-        <v>0.3815202436784874</v>
+        <v>0.3814951536579212</v>
       </c>
       <c r="CP6">
-        <v>0.4044232161999962</v>
+        <v>0.4044056160135332</v>
       </c>
       <c r="CQ6">
-        <v>0.4281810367036454</v>
+        <v>0.4281712895376763</v>
       </c>
       <c r="CR6">
-        <v>0.4504369282386731</v>
+        <v>0.4504343959912515</v>
       </c>
       <c r="CS6">
-        <v>0.4642113659508961</v>
+        <v>0.4642124452344417</v>
       </c>
       <c r="CT6">
-        <v>0.4643812022973479</v>
+        <v>0.4643801131297229</v>
       </c>
       <c r="CU6">
-        <v>0.4707878106635003</v>
+        <v>0.4707872027681257</v>
       </c>
       <c r="CV6">
-        <v>0.5069427769081472</v>
+        <v>0.5069552890219136</v>
       </c>
       <c r="CW6">
-        <v>0.557281905856457</v>
+        <v>0.5573135641910013</v>
       </c>
       <c r="CX6">
-        <v>0.597280753020797</v>
+        <v>0.5973271644562914</v>
       </c>
       <c r="CY6">
-        <v>0.6185355005767407</v>
+        <v>0.6185887015898145</v>
       </c>
       <c r="CZ6">
-        <v>0.6277066633851358</v>
+        <v>0.6277615202050799</v>
       </c>
       <c r="DA6">
-        <v>0.6279962910790848</v>
+        <v>0.6280490303418045</v>
       </c>
       <c r="DB6">
-        <v>0.6315205947054547</v>
+        <v>0.6315725906790087</v>
       </c>
       <c r="DC6">
-        <v>0.6419516704875277</v>
+        <v>0.6420058575482065</v>
       </c>
       <c r="DD6">
-        <v>0.6592978041251305</v>
+        <v>0.6593571201694453</v>
       </c>
       <c r="DE6">
-        <v>0.6751808837932995</v>
+        <v>0.6752447072355395</v>
       </c>
       <c r="DF6">
-        <v>0.6922606934364665</v>
+        <v>0.6923295327132769</v>
       </c>
       <c r="DG6">
-        <v>0.7059943181495422</v>
+        <v>0.7060667516177154</v>
       </c>
       <c r="DH6">
-        <v>0.7086787508934588</v>
+        <v>0.7087500842491704</v>
       </c>
       <c r="DI6">
-        <v>0.7094117510781449</v>
+        <v>0.7094811552456263</v>
       </c>
       <c r="DJ6">
-        <v>0.7189418348790414</v>
+        <v>0.7190130473427508</v>
       </c>
       <c r="DK6">
-        <v>0.740463769429403</v>
+        <v>0.7405418849864071</v>
       </c>
       <c r="DL6">
-        <v>0.7517034721945819</v>
+        <v>0.7517841223878817</v>
       </c>
       <c r="DM6">
-        <v>0.7566922103903566</v>
+        <v>0.7567727394667564</v>
       </c>
       <c r="DN6">
-        <v>0.7586797947488318</v>
+        <v>0.758758927653289</v>
       </c>
       <c r="DO6">
-        <v>0.7590078819419774</v>
+        <v>0.7590849136289184</v>
       </c>
       <c r="DP6">
-        <v>0.7590079064077109</v>
+        <v>0.7590849136289184</v>
       </c>
       <c r="DQ6">
-        <v>0.759086210691075</v>
+        <v>0.7591610105732624</v>
       </c>
       <c r="DR6">
-        <v>0.7611879651471649</v>
+        <v>0.76126141736314</v>
       </c>
       <c r="DS6">
-        <v>0.7648373115709224</v>
+        <v>0.7649100736227824</v>
       </c>
       <c r="DT6">
-        <v>0.7680453905038989</v>
+        <v>0.7681172749169692</v>
       </c>
       <c r="DU6">
-        <v>0.7732328556955218</v>
+        <v>0.7733047034218385</v>
       </c>
       <c r="DV6">
-        <v>0.7750839813568479</v>
+        <v>0.7751543749360701</v>
       </c>
       <c r="DW6">
-        <v>0.7767079723229193</v>
+        <v>0.7767768152557489</v>
       </c>
       <c r="DX6">
-        <v>0.7790502264739847</v>
+        <v>0.7791178239180863</v>
       </c>
       <c r="DY6">
-        <v>0.7796252373019715</v>
+        <v>0.7796908384352838</v>
       </c>
       <c r="DZ6">
-        <v>0.7797361149696551</v>
+        <v>0.7797995226029105</v>
       </c>
       <c r="EA6">
-        <v>0.7803845563861078</v>
+        <v>0.7804459989059224</v>
       </c>
       <c r="EB6">
-        <v>0.7837977187147996</v>
+        <v>0.783858370726519</v>
       </c>
       <c r="EC6">
-        <v>0.7866731321547262</v>
+        <v>0.7867327651930768</v>
       </c>
       <c r="ED6">
-        <v>0.7881620670236192</v>
+        <v>0.7882200920363267</v>
       </c>
       <c r="EE6">
-        <v>0.7901892793812665</v>
+        <v>0.7902459250581827</v>
       </c>
       <c r="EF6">
-        <v>0.7913372403572831</v>
+        <v>0.7913921331441125</v>
       </c>
       <c r="EG6">
-        <v>0.7921290832407398</v>
+        <v>0.7921820718389504</v>
       </c>
       <c r="EH6">
-        <v>0.7921559852571778</v>
+        <v>0.7922067446778611</v>
       </c>
       <c r="EI6">
-        <v>0.7923890078523095</v>
+        <v>0.7924376256668123</v>
       </c>
       <c r="EJ6">
-        <v>0.7930579719383334</v>
+        <v>0.793104633358553</v>
       </c>
       <c r="EK6">
-        <v>0.7933310987826272</v>
+        <v>0.7933756356351548</v>
       </c>
       <c r="EL6">
-        <v>0.7933510058292113</v>
+        <v>0.7933933105323642</v>
       </c>
       <c r="EM6">
-        <v>0.7934462900472206</v>
+        <v>0.7934863946253626</v>
       </c>
       <c r="EN6">
-        <v>0.7934464353303375</v>
+        <v>0.7934863946253626</v>
       </c>
       <c r="EO6">
-        <v>0.7941335217459828</v>
+        <v>0.7941715323460861</v>
       </c>
       <c r="EP6">
-        <v>0.7986986066506087</v>
+        <v>0.7987363161426169</v>
       </c>
       <c r="EQ6">
-        <v>0.8042375022348894</v>
+        <v>0.8042753243470835</v>
       </c>
       <c r="ER6">
-        <v>0.8061833870942358</v>
+        <v>0.8062197953182489</v>
       </c>
       <c r="ES6">
-        <v>0.8063307499611571</v>
+        <v>0.8063649801860308</v>
       </c>
       <c r="ET6">
-        <v>0.8091766939016993</v>
+        <v>0.8092098926329417</v>
       </c>
       <c r="EU6">
-        <v>0.8145250120899618</v>
+        <v>0.8145582424736413</v>
       </c>
       <c r="EV6">
-        <v>0.8204769194656139</v>
+        <v>0.8205104379395803</v>
       </c>
       <c r="EW6">
-        <v>0.8251423293681437</v>
+        <v>0.8251755893575864</v>
       </c>
       <c r="EX6">
-        <v>0.8274390879201596</v>
+        <v>0.827471083091844</v>
       </c>
       <c r="EY6">
-        <v>0.8277788328130616</v>
+        <v>0.8278087317200612</v>
       </c>
       <c r="EZ6">
-        <v>0.8286934866939526</v>
+        <v>0.8287215335891926</v>
       </c>
       <c r="FA6">
-        <v>0.8314246990368919</v>
+        <v>0.8314516656942142</v>
       </c>
       <c r="FB6">
-        <v>0.8415690008249561</v>
+        <v>0.8415980367320545</v>
       </c>
       <c r="FC6">
-        <v>0.8501798846450567</v>
+        <v>0.8502103383217277</v>
       </c>
       <c r="FD6">
-        <v>0.8589109339626467</v>
+        <v>0.8589428564617959</v>
       </c>
       <c r="FE6">
-        <v>0.8629974664772705</v>
+        <v>0.8630288845529763</v>
       </c>
       <c r="FF6">
-        <v>0.8634728997173376</v>
+        <v>0.8635022791762237</v>
       </c>
       <c r="FG6">
-        <v>0.8636780054130525</v>
+        <v>0.8637052314051253</v>
       </c>
       <c r="FH6">
-        <v>0.867196156739551</v>
+        <v>0.8672226368286231</v>
       </c>
       <c r="FI6">
-        <v>0.8716675313461345</v>
+        <v>0.8716936705138284</v>
       </c>
       <c r="FJ6">
-        <v>0.8801135141696802</v>
+        <v>0.8801410010479432</v>
       </c>
       <c r="FK6">
-        <v>0.8858569770496872</v>
+        <v>0.8858846634595628</v>
       </c>
       <c r="FL6">
-        <v>0.8899814609635182</v>
+        <v>0.8900086590737899</v>
       </c>
       <c r="FM6">
-        <v>0.8934039476920153</v>
+        <v>0.893430359255709</v>
       </c>
       <c r="FN6">
-        <v>0.8938247256532244</v>
+        <v>0.893849075379533</v>
       </c>
       <c r="FO6">
-        <v>0.894019407869157</v>
+        <v>0.8940415997001855</v>
       </c>
       <c r="FP6">
-        <v>0.8951728531450591</v>
+        <v>0.8951932944160327</v>
       </c>
       <c r="FQ6">
-        <v>0.8992436430600118</v>
+        <v>0.8992635732192207</v>
       </c>
       <c r="FR6">
-        <v>0.9060128735185884</v>
+        <v>0.906033439011836</v>
       </c>
       <c r="FS6">
-        <v>0.9118049543975797</v>
+        <v>0.911825740078037</v>
       </c>
       <c r="FT6">
-        <v>0.9167488862942905</v>
+        <v>0.9167695318216701</v>
       </c>
       <c r="FU6">
-        <v>0.9171596564657086</v>
+        <v>0.9171782359038441</v>
       </c>
       <c r="FV6">
-        <v>0.917319414682371</v>
+        <v>0.9173358213875925</v>
       </c>
       <c r="FW6">
-        <v>0.922621177571606</v>
+        <v>0.9226375961500157</v>
       </c>
       <c r="FX6">
-        <v>0.9302725944117518</v>
+        <v>0.9302900231254451</v>
       </c>
       <c r="FY6">
-        <v>0.9381862252464195</v>
+        <v>0.9382047754983079</v>
       </c>
       <c r="FZ6">
-        <v>0.9428585701488044</v>
+        <v>0.9428768648625381</v>
       </c>
       <c r="GA6">
-        <v>0.9456652011901679</v>
+        <v>0.9456824477079908</v>
       </c>
       <c r="GB6">
-        <v>0.9458422650464687</v>
+        <v>0.9458573461837643</v>
       </c>
       <c r="GC6">
-        <v>0.9467067580284076</v>
+        <v>0.9467199658428379</v>
       </c>
       <c r="GD6">
-        <v>0.9517099989238794</v>
+        <v>0.9517230917829532</v>
       </c>
       <c r="GE6">
-        <v>0.9625915856965402</v>
+        <v>0.9626070610445602</v>
       </c>
       <c r="GF6">
-        <v>0.9707720475256332</v>
+        <v>0.9707887577763153</v>
       </c>
       <c r="GG6">
-        <v>0.9775699393836109</v>
+        <v>0.977587297145269</v>
       </c>
       <c r="GH6">
-        <v>0.9800337276321373</v>
+        <v>0.9800498915394293</v>
       </c>
       <c r="GI6">
-        <v>0.9802318337479984</v>
+        <v>0.9802458412146712</v>
       </c>
       <c r="GJ6">
-        <v>0.9824953587007086</v>
+        <v>0.9825080872301643</v>
       </c>
       <c r="GK6">
-        <v>0.9885044535751659</v>
+        <v>0.9885174944913001</v>
       </c>
       <c r="GL6">
-        <v>0.9929400257824975</v>
+        <v>0.9929527105664271</v>
       </c>
       <c r="GM6">
-        <v>0.995270260233814</v>
+        <v>0.9952816944223867</v>
       </c>
       <c r="GN6">
-        <v>0.9959610954593811</v>
+        <v>0.9959705825457321</v>
       </c>
       <c r="GO6">
-        <v>0.9960794464819085</v>
+        <v>0.9960867432432946</v>
       </c>
       <c r="GP6">
-        <v>0.996471337073721</v>
+        <v>0.9964765597247803</v>
       </c>
       <c r="GQ6">
-        <v>0.997385990954612</v>
+        <v>0.9973893615939118</v>
       </c>
       <c r="GR6">
-        <v>0.9989803182213032</v>
+        <v>0.9989821256114411</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>99</v>
       </c>
       <c r="E2">
-        <v>0.003371698938190689</v>
+        <v>0.003581245954874933</v>
       </c>
       <c r="F2">
-        <v>0.5203104946890342</v>
+        <v>0.5204205828395106</v>
       </c>
       <c r="G2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <v>101</v>
       </c>
       <c r="E3">
-        <v>0.07450432111967209</v>
+        <v>0.07203684032219773</v>
       </c>
       <c r="F3">
-        <v>0.556694523979737</v>
+        <v>0.5584101127682154</v>
       </c>
       <c r="G3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
       <c r="E4">
-        <v>0.00109898484524843</v>
+        <v>0.04644977292254431</v>
       </c>
       <c r="F4">
-        <v>0.5287503368921054</v>
+        <v>0.5288426193988367</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <v>106</v>
       </c>
       <c r="E5">
-        <v>0.01128773742048028</v>
+        <v>0.07157223764942054</v>
       </c>
       <c r="F5">
-        <v>0.5313864354733704</v>
+        <v>0.532448147734779</v>
       </c>
       <c r="G5">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>99</v>
       </c>
       <c r="E6">
-        <v>0.005812850588104336</v>
+        <v>0.06433151537993183</v>
       </c>
       <c r="F6">
-        <v>0.5069427769081472</v>
+        <v>0.5069552890219136</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>110</v>
       </c>
       <c r="E2">
-        <v>0.003371698938190689</v>
+        <v>0.003581245954874933</v>
       </c>
       <c r="F2">
-        <v>0.7033160893555525</v>
+        <v>0.7037435226428556</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E3">
-        <v>0.07450432111967209</v>
+        <v>0.07203684032219773</v>
       </c>
       <c r="F3">
-        <v>0.7049338103127484</v>
+        <v>0.7006217423323942</v>
       </c>
       <c r="G3">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>111</v>
       </c>
       <c r="E4">
-        <v>0.00109898484524843</v>
+        <v>0.04644977292254431</v>
       </c>
       <c r="F4">
-        <v>0.7036154837534541</v>
+        <v>0.7038666516572215</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <v>117</v>
       </c>
       <c r="E5">
-        <v>0.01128773742048028</v>
+        <v>0.07157223764942054</v>
       </c>
       <c r="F5">
-        <v>0.7018213394257112</v>
+        <v>0.7042394803949379</v>
       </c>
       <c r="G5">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>110</v>
       </c>
       <c r="E6">
-        <v>0.005812850588104336</v>
+        <v>0.06433151537993183</v>
       </c>
       <c r="F6">
-        <v>0.7059943181495422</v>
+        <v>0.7060667516177154</v>
       </c>
       <c r="G6">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>145</v>
       </c>
       <c r="E2">
-        <v>0.003371698938190689</v>
+        <v>0.003581245954874933</v>
       </c>
       <c r="F2">
-        <v>0.802088976542358</v>
+        <v>0.8023083668053778</v>
       </c>
       <c r="G2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E3">
-        <v>0.07450432111967209</v>
+        <v>0.07203684032219773</v>
       </c>
       <c r="F3">
-        <v>0.803301458192072</v>
+        <v>0.8012013462441011</v>
       </c>
       <c r="G3">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>146</v>
       </c>
       <c r="E4">
-        <v>0.00109898484524843</v>
+        <v>0.04644977292254431</v>
       </c>
       <c r="F4">
-        <v>0.8010265375715363</v>
+        <v>0.8011543513153339</v>
       </c>
       <c r="G4">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E5">
-        <v>0.01128773742048028</v>
+        <v>0.07157223764942054</v>
       </c>
       <c r="F5">
-        <v>0.8010837246402618</v>
+        <v>0.8011201168153947</v>
       </c>
       <c r="G5">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>146</v>
       </c>
       <c r="E6">
-        <v>0.005812850588104336</v>
+        <v>0.06433151537993183</v>
       </c>
       <c r="F6">
-        <v>0.8042375022348894</v>
+        <v>0.8042753243470835</v>
       </c>
       <c r="G6">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>173</v>
       </c>
       <c r="E2">
-        <v>0.003371698938190689</v>
+        <v>0.003581245954874933</v>
       </c>
       <c r="F2">
-        <v>0.9000413776613861</v>
+        <v>0.9001420205166629</v>
       </c>
       <c r="G2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <v>175</v>
       </c>
       <c r="E3">
-        <v>0.07450432111967209</v>
+        <v>0.07203684032219773</v>
       </c>
       <c r="F3">
-        <v>0.9041431809926732</v>
+        <v>0.9050572438778078</v>
       </c>
       <c r="G3">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>174</v>
       </c>
       <c r="E4">
-        <v>0.00109898484524843</v>
+        <v>0.04644977292254431</v>
       </c>
       <c r="F4">
-        <v>0.9064644632870051</v>
+        <v>0.9065256810954101</v>
       </c>
       <c r="G4">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <v>173</v>
       </c>
       <c r="E5">
-        <v>0.01128773742048028</v>
+        <v>0.07157223764942054</v>
       </c>
       <c r="F5">
-        <v>0.9001736900648794</v>
+        <v>0.9008786097680641</v>
       </c>
       <c r="G5">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>173</v>
       </c>
       <c r="E6">
-        <v>0.005812850588104336</v>
+        <v>0.06433151537993183</v>
       </c>
       <c r="F6">
-        <v>0.9060128735185884</v>
+        <v>0.906033439011836</v>
       </c>
       <c r="G6">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H6">
         <v>3</v>

--- a/on_trucks/Processed_Stand_Alone/3_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/3_225-80R17.xlsx
@@ -1994,22 +1994,22 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0002316035178895454</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.000178109886793694</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0001063979561887362</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>4.615398934471278E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3.553364805059245E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.352211386562617E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2021,10 +2021,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.611149376207302E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.159518086620025E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -2036,43 +2036,43 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>7.207944891465606E-06</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>3.020686667268929E-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>4.325991260731378E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>4.724072653518477E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>4.98169086315437E-05</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>4.93583706547583E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>5.465339324562691E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>2.932230741022191E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>4.124930238709766E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>3.423403605855107E-05</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>2.982665246731865E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>1.854590504665868E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>3.927524299287014E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -2087,40 +2087,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.119810780663071E-06</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>6.295297012467604E-05</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0001282075179620129</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0001377749640863665</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0002367656466135211</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0001603842349545471</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0001735976407584126</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0001256939832535698</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0001321364685946518</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>8.430868169818594E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>7.53768524227115E-05</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>1.555048169797471E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -2132,466 +2132,466 @@
         <v>0</v>
       </c>
       <c r="AV2">
-        <v>5.197894026507734E-05</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0001028949717032557</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0001109317062481942</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>8.647001156869283E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.000146014895118217</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0006158608206617213</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0613114567443715</v>
+        <v>0.5042874774604978</v>
       </c>
       <c r="BC2">
-        <v>0.03449901231818483</v>
+        <v>0.07159519521942058</v>
       </c>
       <c r="BD2">
-        <v>0.02698116135522002</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.001508116979905678</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0244752538083591</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0005529681164420041</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.007218672105754847</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.001411570828731065</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.04554192523145138</v>
+        <v>0.2498028630874089</v>
       </c>
       <c r="BK2">
-        <v>0.02435970752348729</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.001906341532350232</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.000556317892023486</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0008228279905934475</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.006317896102258046</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.001803453448451084</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.001961730785784294</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.005466601710532462</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>2.563483644264106E-05</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.01480171815717825</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.007996067442201141</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.000757019380796125</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0002516320051009487</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.003840556225445351</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.01689399755340948</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.004895771624282107</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.002071097245190749</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0085903880432531</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.0009120343521454266</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.002765404140026277</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0005451843213523502</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.002725117929698191</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.005452315218834033</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.01513262949984577</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.03351237360332882</v>
+        <v>0.05567307523316892</v>
       </c>
       <c r="CJ2">
-        <v>0.01629246132466469</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.003736111230145444</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.003616466949953035</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.001869059770043355</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.009922676628116141</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.0101822998749713</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.01823019545959078</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>0.02168761246670757</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.01144986335209994</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.01304863391488594</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.0008725234897100309</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.008138415059582871</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.02992906131173298</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.03436281515247319</v>
+        <v>0.06939728064177846</v>
       </c>
       <c r="CX2">
-        <v>0.03311399275823303</v>
+        <v>0.0492441083577253</v>
       </c>
       <c r="CY2">
-        <v>0.01222825589380723</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.003489614159949925</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.0004497291510294843</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.006674228309310023</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.02032976918122569</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.02123200084174368</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.02017032461147528</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.01785909615341891</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.0134131135906784</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.003714526001961445</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.0003911697733487873</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.01138230813433054</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.02585408281589642</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.01701544867289203</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.005594572609540895</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.004288378280812397</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.001330591586023106</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>4.268172102691289E-05</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.0003573518732411679</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.000105555174884288</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.002406269592704794</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.001923912074510097</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.001612060615648908</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.001543510799166895</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.0005846424011829487</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.0003787334898955507</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.0004698854994643603</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.0003610779943087059</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.001575891648998723</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.001634152115730772</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.002508278167027712</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.0009591878149494952</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>6.589014914717759E-05</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.0002338075550528226</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.0001747286020523113</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.0006766998655096062</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.001282691046351139</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.002035106626601217</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.00142618664779276</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.0001202882224570812</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>1.672738541219705E-05</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>4.615398934471278E-05</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.001092783845876577</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.005359511369377317</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.007112316209733119</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.002098518134201419</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.0004208148701971608</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.006213838379897039</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.00796671269479249</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.009950182731208634</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.005794447652047311</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.003687785422079271</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.001897890099967308</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>7.53768524227115E-05</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.001371762418772331</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.005995905671438337</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.007100909954000163</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.006956679706921405</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.002617778663172274</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.0002337225916006563</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>2.008397411015004E-05</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.002773839331607725</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.002906907035227531</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.004283313556796535</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.002632935942535031</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.001340520430081046</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.0006412971539083214</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>4.268172102691289E-05</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.0009303327629166287</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.001692439951220864</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.003331114764744682</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.007743545034658009</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.006211887478682694</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.004248850375560638</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.0005022399930819407</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.0002176943641705949</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.00674433974903026</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.00883805174435465</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.008585515301550982</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.00489209187972545</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.002964585239151105</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.0004875635617451078</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.0008316282493265938</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.002652561948600226</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.009067947306878373</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.006813925568243467</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.004876846478976907</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.001692439951220864</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.0005344135621660408</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.00577827000924367</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.007474262922006482</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.005220679083500262</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.002683841932746816</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.0008629404143205531</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.0004095135781626336</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0008962428795102161</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.0008604958428672666</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.002487684830756082</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.00302146523775769</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2776,25 +2776,25 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.952526193957744E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0001114670274373116</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.00023817278590585</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0003028809764172806</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0001642404560927289</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0001057397067155025</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.636572987064144E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>3.607176064058725E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>1.181390138650601E-05</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -2827,25 +2827,25 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>3.369950856528678E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>8.756640458705483E-06</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>3.369950856528678E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>8.554706590030718E-05</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.000118560584503245</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>1.490536830039149E-05</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>8.105960231021528E-06</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -2863,25 +2863,25 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>8.37992902438105E-05</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0001046026208404542</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0004826868629010148</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.0004347938425500549</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0003340041211791255</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0002743415844424267</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>4.342954285269362E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -2914,211 +2914,211 @@
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>5.618256054255621E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.0001920883598021224</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>3.204931245917535E-05</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.02865000304526737</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.0008383065305531261</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.006976397761791703</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.002120152148932914</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.02909720313427519</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>3.595195282018871E-06</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.0009336521653517414</v>
+        <v>0</v>
       </c>
       <c r="BI3">
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.07888544360018547</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="BK3">
-        <v>0.008978066864559113</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0019358673222509</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.0003589622067082585</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.008013125910399377</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.0009757657946196422</v>
+        <v>0</v>
       </c>
       <c r="BP3">
         <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.01156304603886131</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.003470173813223684</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.001232999306732134</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.02000301285405646</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.004234100280396201</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.0007377825162130372</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.001232999306732134</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.003931648948333569</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.005579668932360426</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.01015852188288501</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.01136280049671814</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.00445070123031681</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.0001698212541905463</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.001389813773038472</v>
+        <v>0</v>
       </c>
       <c r="CE3">
         <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.0001774448047528588</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.0003232445551838525</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.009711702995933059</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.02447343783643986</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.01690876101898538</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.004870133355628126</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.0007246517507915723</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.00111541564192111</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.008110232279680409</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.01041974033616699</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.02237642897531304</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.02450111024412504</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.0223960521942798</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.02381691489520801</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.002999752182679442</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.001589931362105519</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.02730195504695591</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.04566350864964436</v>
+        <v>0.1594192363517867</v>
       </c>
       <c r="CX3">
-        <v>0.06022853198744276</v>
+        <v>0.3128838714694436</v>
       </c>
       <c r="CY3">
-        <v>0.03226391095367452</v>
+        <v>0.01823412985086981</v>
       </c>
       <c r="CZ3">
-        <v>0.01881756848335331</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.002646365306425572</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.0003548551275824876</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.009522563412881178</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.01693178644075097</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.02091825037447683</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.02218625207299386</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.01857007739204006</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.008023983526060173</v>
+        <v>0</v>
       </c>
       <c r="DI3">
         <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.00458125373654466</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.01426244101735106</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.0135367467658058</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.005043290046048309</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.003130155171854282</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.001204903897623576</v>
+        <v>0</v>
       </c>
       <c r="DP3">
         <v>0</v>
@@ -3127,64 +3127,64 @@
         <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.001757488368063294</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.004820653737573029</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.005099108042522857</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.00416215324680205</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.002745056576908295</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.00092939854316219</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.0009106637396033627</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.0004452156512599613</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
         <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.0005441008646760375</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.002374941879930186</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.003774387259454457</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.002384294513962396</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.001887420833306448</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.002810054082406305</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.002296148334774026</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.000428614976240199</v>
+        <v>0</v>
       </c>
       <c r="EI3">
         <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.0001762866352359541</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.0001055803376844271</v>
+        <v>0</v>
       </c>
       <c r="EL3">
         <v>0</v>
@@ -3193,178 +3193,178 @@
         <v>0</v>
       </c>
       <c r="EN3">
-        <v>8.756640458705483E-06</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.0002704020502631384</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.004545991319990129</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.00832011211614157</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.004132839524098873</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.0006152868227447181</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.0009863352092623317</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.00267694670481264</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.0051404618226526</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.003956154926180472</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.003064388108318567</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.001241968796928573</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.0001173924710292263</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.001600350135506831</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.005823551379010806</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.007744738814488351</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.007686830747438888</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.0043176993220319</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.0005960786847832837</v>
+        <v>0</v>
       </c>
       <c r="FG3">
         <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.002623784245662359</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.004701223542267282</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.00673134023169942</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.007989544526386089</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.004929738333920358</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.003511749671655674</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.001614009330780853</v>
+        <v>0</v>
       </c>
       <c r="FO3">
         <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.0004394237612462236</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.00249448245009393</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.006747501870281708</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.006631817266221897</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.005740258934202877</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.002065970153131352</v>
+        <v>0</v>
       </c>
       <c r="FV3">
         <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.002336778137594458</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.008001331130435031</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.008041805999658496</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.00578407233628394</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.00282728993407416</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.0005097225302942776</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.0004546339685525736</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.003129558636626382</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.01172202875793364</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.01252002569539326</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.00822764455686471</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.007199251754014701</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.0004902904335700508</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.001278142214857354</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.004058254327000695</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.007041101547528708</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.004365854135194199</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.002327514621040188</v>
+        <v>0</v>
       </c>
       <c r="GO3">
         <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.0001067198252346263</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.0003434481415057992</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.001167299183503816</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.0009440181018997336</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,37 +3540,37 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>4.903624299445959E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>4.094463720987667E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.944366857039675E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3.248850059917886E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>5.599073362765551E-06</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3.544833016462474E-06</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2.132043032548415E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>3.487977018560294E-05</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>6.574293911925467E-06</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.010244510172102E-06</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -3585,10 +3585,10 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.357727009107459E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>2.091056231347088E-06</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -3618,70 +3618,70 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>4.822044282105623E-06</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>2.089995201964247E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>2.065211479845916E-05</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>2.413291223426397E-05</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>4.879606037386752E-05</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>4.191544164331087E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>6.050233158339664E-06</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>4.649081792344438E-05</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>2.874480909047834E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>6.050233158339664E-06</v>
+        <v>0</v>
       </c>
       <c r="AN4">
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>2.831781035471908E-06</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>3.487977018560294E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>4.203119394466372E-05</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>7.891661829124455E-05</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.0001046835219836826</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>2.335670028522131E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>3.112558314199965E-05</v>
+        <v>0</v>
       </c>
       <c r="AV4">
         <v>0</v>
       </c>
       <c r="AW4">
-        <v>8.313457018672782E-07</v>
+        <v>0</v>
       </c>
       <c r="AX4">
         <v>0</v>
@@ -3696,448 +3696,448 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.04562505176828355</v>
+        <v>0.2258574609364344</v>
       </c>
       <c r="BC4">
-        <v>0.002577152523665451</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.04863120989254584</v>
+        <v>0.2694057286230002</v>
       </c>
       <c r="BE4">
-        <v>0.0006545470339157901</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.01699225820422789</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.002071631645310693</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.008352649509395679</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.002918123021898293</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.02885299572880651</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0298896543614402</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>5.501482252216805E-05</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.005637593522400411</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.001032690752053313</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.005968570480926257</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>3.284395846045899E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>3.609522142192065E-05</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.009951042568579965</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.0004189541294626206</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.008200120276944797</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.01090289225223774</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>2.682050679087548E-06</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.0010761835837695</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.001831529335938844</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.01047316914358885</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.008581068839414084</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.001529181524927765</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.008572447900574487</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.002119324393345517</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.002810088308365509</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.003400396706018965</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.0003866011649626911</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.002971159169822545</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.009636304198312542</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.02878701635625878</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.02187149529066726</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.004769589153214506</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.004285171199569238</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>6.469663052272022E-05</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.01358000869807657</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.01216201396628745</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.02057916058109043</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.02584030355576638</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.01504376280043302</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.01231475449135015</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.002659850449158066</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.004718276391948743</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.03553108197914639</v>
+        <v>0.0796326516525498</v>
       </c>
       <c r="CW4">
-        <v>0.0436490482694807</v>
+        <v>0.1972323767730474</v>
       </c>
       <c r="CX4">
-        <v>0.04576410133320977</v>
+        <v>0.2278717820149682</v>
       </c>
       <c r="CY4">
-        <v>0.02108723920157367</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.01046989861434618</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.0001038535175392763</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.002597740435150965</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.01354929316119343</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.01915176282738195</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.01674657897156815</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.01988419715030652</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.01750985700888445</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.008159510037230429</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.0002509228888175324</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.005424085843010468</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.02081109578011405</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.01726836757853681</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.005007219238889387</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.00222938461193009</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.0005626043957407894</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>1.129163178975852E-05</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
         <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.0001540280725426094</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.001989064801348349</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.004152153788363771</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.001844854990175837</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.002874665038442254</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.0009891678787335495</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.0001473939952387351</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.0003282927857078825</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.0004015195248826184</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.002822400859591232</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.003176888477214527</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.004018158122407182</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.002819926232565979</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.0007033010917217562</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.0007550709860552699</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.0008750926999696899</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>6.247231013846362E-05</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.0007985277678471655</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.0012749852973768</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.001176426206305356</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.0001180411855492865</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.0002977387725133057</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>1.357727009107459E-05</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.0005380842185967656</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.004587063980424815</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.008803831335479082</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.006048031924326925</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.00022682598785403</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.002721833387182038</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.003032413298543758</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.005219176771534796</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.00419219884537619</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.002811685920843693</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.001446392773653671</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>3.838596980000504E-05</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.0013717183596442</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.005333100841032667</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.007072849458633684</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.006887468430869357</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.003007717197769191</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>5.13945449251191E-05</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.0002192751209199517</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.004260819876265048</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.006203419114664694</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.007896685060022937</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.006986904836903906</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.003667010329992137</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.002157357564166437</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.0009161052468252828</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.0001685355935058959</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.001435213792269558</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.003268608797509196</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.008650195069936415</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.01008000566510546</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.007280535776221301</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.002000862739904812</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>9.91656594870326E-05</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.002800169271835382</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.007354785602233562</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.00589923686320057</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.004161099777354062</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.002052582064205639</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.0008345614296172565</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.0006702263877097751</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.002393710581273292</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.00918639613622077</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.009231061992417931</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.006172974953600526</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.0036717685194439</v>
+        <v>0</v>
       </c>
       <c r="GI4">
         <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.004581745715343712</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.008172043394242439</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.007755306269432771</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.004123136903885512</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.002376975305169073</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>2.501255341887249E-05</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.0003725825410560043</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.0001103403949911741</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.0005431678287123341</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.001604870243612649</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.323545332447424E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.837958125633629E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.954001706803413E-06</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -4352,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.120668988915057E-05</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>5.974326974610868E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -4412,19 +4412,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>2.673088576496835E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>3.595763718170957E-05</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>5.152844023737147E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>5.436849732157885E-06</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>2.509503525174538E-05</v>
+        <v>0</v>
       </c>
       <c r="AN5">
         <v>0</v>
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>5.682028759005885E-07</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>5.213169835528372E-05</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>8.612575067405741E-05</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>4.976334979420068E-05</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>7.225276907310269E-05</v>
+        <v>0</v>
       </c>
       <c r="AW5">
         <v>0</v>
@@ -4487,205 +4487,205 @@
         <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.008401339087777885</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.01714898294981967</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.04546680599695962</v>
+        <v>0.1770392872086075</v>
       </c>
       <c r="BK5">
         <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.008527688897643111</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.01671901655362289</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.006597907195252983</v>
+        <v>0</v>
       </c>
       <c r="BO5">
         <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.05420440484296939</v>
+        <v>0.279112718599304</v>
       </c>
       <c r="BQ5">
-        <v>0.05307524211906543</v>
+        <v>0.2659217360583764</v>
       </c>
       <c r="BR5">
-        <v>0.0002054617972677557</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.0003334143929705998</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.001136241127400695</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.006098621780444962</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.002128779173235433</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.000651866523855266</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.01205445289823684</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>9.019878383865932E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.01201212423800114</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.01159982779084089</v>
+        <v>0</v>
       </c>
       <c r="CB5">
         <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.0004621463992558383</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.001130495430906956</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.001188566888253079</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.00238263717092399</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.002230050378885625</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.003705819642868926</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.000862047716019106</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.001128824469436122</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.004317254379518955</v>
+        <v>0</v>
       </c>
       <c r="CL5">
         <v>0</v>
       </c>
       <c r="CM5">
-        <v>2.335889665994558E-05</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.004460028742826745</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.02135930137689529</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.02663288718218451</v>
+        <v>0</v>
       </c>
       <c r="CQ5">
-        <v>0.01201212423800114</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.005022762069003503</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.000598322171677192</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.008150859987928654</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.01402192569698666</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.02699213630083207</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.03148917024047181</v>
+        <v>0.01375126385816929</v>
       </c>
       <c r="CX5">
-        <v>0.02512693201695829</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.02027452676437597</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.01248666210055452</v>
+        <v>0</v>
       </c>
       <c r="DA5">
         <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.01380072058597293</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.03558110112331467</v>
+        <v>0.06155357586475394</v>
       </c>
       <c r="DD5">
-        <v>0.04740573721375081</v>
+        <v>0.199690059579417</v>
       </c>
       <c r="DE5">
-        <v>0.0305629743794331</v>
+        <v>0.002931358831371754</v>
       </c>
       <c r="DF5">
-        <v>0.02023636461795024</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.002547739206061123</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.0002946060772854516</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.006034174736430767</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.01134097716895772</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.01054364642383582</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.01405429443410552</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.01739384996931218</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.01137696843303608</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.001326760922800411</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.001925368611598279</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.01511426547486771</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.02566741790176857</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.01125943485698757</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.006864103868241357</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.002961150775614274</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.000618479650006567</v>
+        <v>0</v>
       </c>
       <c r="DW5">
         <v>0</v>
@@ -4694,223 +4694,223 @@
         <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.0006534697756778969</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.004658316812272589</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.003312415848895129</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.006437815005495668</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.005132888306787675</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.002578791738124474</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.002601972770331525</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.000192572854449928</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.0005895963389527244</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.001243510471859588</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.002156951512722929</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.001585352923002154</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.0004595416443422554</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.001424706211081071</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.001486845008470569</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.0001739919351061082</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.0009407859429219228</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.00211599862258334</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.001430739096163462</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>9.459548411423192E-05</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.000768798817157111</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.0009901244359468795</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.0001137022574134988</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.0005644492045506638</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.00385112187356339</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.003742383865909337</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.0003674870751950213</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.001676110595081537</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.004320762031042998</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.006288998032200898</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.005260105760484223</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.004559898447904097</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.001879011409636471</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>1.841194912658121E-05</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.001083598496740443</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.003548762636354359</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.01063966162245878</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.01113809134696403</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.009311463530971925</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.003574868940122081</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>9.968963226070745E-05</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.0005633526303872429</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.004578471597454355</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.004649829199190123</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.005637744775011184</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.002404388844758598</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.001469142643085409</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.001201892438766529</v>
+        <v>0</v>
       </c>
       <c r="FU5">
         <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.0008236248813697241</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.001249752239788469</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.004024785572879393</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.006692520994604191</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.005754286512092681</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.002994551163028308</v>
+        <v>0</v>
       </c>
       <c r="GB5">
         <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.001399340722180655</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.008845759123420468</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.008644044342021068</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.006882810937831896</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.004408354347979663</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.003286615373116521</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>4.976334979420068E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.0006040453793290683</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.004725836520932638</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.009487766427571929</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.007095268801070849</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.007239870838634884</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.001703537459851611</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.0008685950384241604</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.003133156682601074</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.004702871766551609</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.001833196675008783</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5089,28 +5089,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.42372761655009E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0001097559567659706</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.000108684167626817</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0002218580973474261</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0002588775778043569</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0001781950556780792</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0001226949173426087</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>8.332940113306851E-06</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -5122,28 +5122,28 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>6.890396031719407E-08</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>6.47327184841883E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>4.29036236797374E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>2.809707602545865E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.659927844392461E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>1.704249965942474E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>1.375682438547722E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -5155,70 +5155,70 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>2.261825642480136E-05</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0001294545078272771</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.00019516438176408</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0001289556860007754</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0001411886207609844</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>6.712749043280055E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>1.109366946706135E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>4.179599382069185E-06</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>1.351700254426067E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>2.864672543607868E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>6.224603750607262E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>7.546440123227372E-06</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>8.75206459604184E-07</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>3.805697553298576E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>4.565820142118736E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>7.429116251218686E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0001050485887650392</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0001254658740394416</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>9.30840929984245E-05</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>1.767489720934289E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.945799394419937E-05</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>4.456046926523741E-05</v>
+        <v>0</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -5233,457 +5233,457 @@
         <v>0</v>
       </c>
       <c r="AY6">
-        <v>3.822741441047458E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.003052192168998367</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0265055400184085</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.03100484666532974</v>
+        <v>0.01555662317823544</v>
       </c>
       <c r="BD6">
-        <v>0.001103364992454446</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.0197783703013369</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.01259392840197105</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.008755575431430846</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.00217612364331469</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.02276142806765989</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.05642529154964555</v>
+        <v>0.4132632790546458</v>
       </c>
       <c r="BK6">
-        <v>0.001353428882994471</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.003768805081276239</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.0001722064726045103</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.01165659736093756</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.001298986463823289</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.001325724418192796</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.009206189786454554</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>4.33300722726824E-06</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.01020613941870041</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.01419978033283028</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0005802898667010741</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.004287685525742956</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.0004280360115480863</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.007463468933710168</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.003260828066990779</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.008434204960292192</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.007679287081671134</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.001984346004243204</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.001750552823119071</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.00237977972661069</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>5.688845939105288E-05</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.0003357795745167765</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.004431352734545361</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.01963991350515515</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.02379665267955406</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.0127163013680959</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.004672089364230162</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.0001644412950936563</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.005370810678776027</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.009398050260702298</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.02264997073689927</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.02291046235561196</v>
+        <v>0</v>
       </c>
       <c r="CQ6">
-        <v>0.02376567352414312</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.02226310645357522</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.01377804924319019</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.0001676678952811536</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.006407089638402795</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.03616808625378781</v>
+        <v>0.09633627749031694</v>
       </c>
       <c r="CW6">
-        <v>0.05035827516908777</v>
+        <v>0.3183439018824637</v>
       </c>
       <c r="CX6">
-        <v>0.04001360026529008</v>
+        <v>0.1564999183943384</v>
       </c>
       <c r="CY6">
-        <v>0.02126153713352305</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.009172818615265414</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.0002875101367245732</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.003523560337204278</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.0104332668691978</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.01735126262123874</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.01588758706609423</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.01708482547773733</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.01373721890443844</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.002683332631455056</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.0007310709964558686</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.009531892097124611</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.02152883764365624</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.01124223740147469</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.00498861707887467</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.001986188186532609</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.0003259859756294122</v>
+        <v>0</v>
       </c>
       <c r="DP6">
         <v>0</v>
       </c>
       <c r="DQ6">
-        <v>7.609694434400523E-05</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.00210040678987767</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.003648656259642427</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.00320720129418679</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.005187428504869338</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.001849671514231519</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.001622440319678835</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.002341008662337325</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.0005730145171974637</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.000108684167626817</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.0006464763030118214</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.003412371820596563</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.002874394466557785</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.001487326843249973</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.002025833021856026</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.001146208085929812</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.000789938694837953</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>2.46728389107218E-05</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.0002308809889511412</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.0006670076917406704</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.0002710022766017709</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>1.767489720934289E-05</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>9.30840929984245E-05</v>
+        <v>0</v>
       </c>
       <c r="EN6">
         <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.0006851377207233751</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.004564783796530815</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.005539008204466659</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.001944470971165474</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.0001451848677818069</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.002844912446910983</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.005348349840699498</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.005952195465939054</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.00466515141800608</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.002295493734257683</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.0003376486282172239</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.0009128018691314875</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.002730132105021608</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.01014637103784023</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.008612301589673185</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.008732518140068262</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.004086028091180405</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.0004733946232474094</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.0002029522289016735</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.003517405423497801</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.004471033685205287</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.008447330534114825</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.005743662411619582</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.004123995614227068</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.003421700181919105</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.0004187161238238892</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.0001925243206525332</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.001151694715847149</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.004070278803188015</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.006769865792615263</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.005792301066201037</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.004943791743633132</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.0004087040821740119</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.0001575854837484497</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.005301774762423222</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.00765242697542939</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.007914752372862885</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.004672089364230162</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.002805582845452773</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.0001748984757734406</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.0008626196590735892</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.005003125940115331</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.0108839692616069</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.00818169673175515</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.006798539368953676</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.002462594394160272</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.0001959496752418097</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.002262246015493065</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.006009407261135831</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.004435216075126982</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.002328983855959591</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.0006888881233454801</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.0001161606975624291</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.0003898164814857288</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0009128018691314875</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.001592764017529263</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.001017874388558769</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0002316035178895454</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0004097134046832394</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0005161113608719755</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0005622653502166883</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0005977989982672808</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000611321112132907</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.000611321112132907</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.000611321112132907</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.000611321112132907</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.00064743260589498</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0006590277867611803</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0006590277867611803</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0006590277867611803</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0006590277867611803</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0006662357316526459</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0006964425983253352</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0007397025109326489</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0007869432374678337</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0008367601460993774</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0008861185167541357</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0009407719099997626</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0009700942174099845</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.001011343519797082</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.001045577555855633</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.001075404208322952</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.001093950113369611</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.001133225356362481</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.001133225356362481</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.001133225356362481</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.001133225356362481</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.001133225356362481</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.001134345167143144</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.00119729813726782</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.001325505655229833</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.001463280619316199</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.00170004626592972</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.001860430500884267</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.00203402814164268</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.00215972212489625</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.002291858593490902</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.002376167275189088</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0024515441276118</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.002467094609309774</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.002467094609309774</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.002467094609309774</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.002467094609309774</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.002519073549574851</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.002621968521278107</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.002732900227526302</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.002819370239094995</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.002965385134213211</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.003581245954874933</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.06489270269924644</v>
+        <v>0.5042874774604978</v>
       </c>
       <c r="BC2">
-        <v>0.09939171501743127</v>
+        <v>0.5758826726799184</v>
       </c>
       <c r="BD2">
-        <v>0.1263728763726513</v>
+        <v>0.5758826726799184</v>
       </c>
       <c r="BE2">
-        <v>0.127880993352557</v>
+        <v>0.5758826726799184</v>
       </c>
       <c r="BF2">
-        <v>0.1523562471609161</v>
+        <v>0.5758826726799184</v>
       </c>
       <c r="BG2">
-        <v>0.1529092152773581</v>
+        <v>0.5758826726799184</v>
       </c>
       <c r="BH2">
-        <v>0.160127887383113</v>
+        <v>0.5758826726799184</v>
       </c>
       <c r="BI2">
-        <v>0.161539458211844</v>
+        <v>0.5758826726799184</v>
       </c>
       <c r="BJ2">
-        <v>0.2070813834432954</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="BK2">
-        <v>0.2314410909667827</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="BL2">
-        <v>0.2333474324991329</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="BM2">
-        <v>0.2339037503911564</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="BN2">
-        <v>0.2347265783817498</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="BO2">
-        <v>0.2410444744840079</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="BP2">
-        <v>0.242847927932459</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="BQ2">
-        <v>0.2448096587182433</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="BR2">
-        <v>0.2502762604287758</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="BS2">
-        <v>0.2503018952652184</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="BT2">
-        <v>0.2651036134223966</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="BU2">
-        <v>0.2730996808645978</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="BV2">
-        <v>0.2738567002453939</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="BW2">
-        <v>0.2741083322504949</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="BX2">
-        <v>0.2779488884759402</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="BY2">
-        <v>0.2948428860293497</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="BZ2">
-        <v>0.2997386576536318</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="CA2">
-        <v>0.3018097548988225</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="CB2">
-        <v>0.3104001429420756</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="CC2">
-        <v>0.3113121772942211</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="CD2">
-        <v>0.3140775814342474</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="CE2">
-        <v>0.3146227657555997</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="CF2">
-        <v>0.3173478836852979</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="CG2">
-        <v>0.322800198904132</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="CH2">
-        <v>0.3379328284039778</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="CI2">
-        <v>0.3714452020073066</v>
+        <v>0.8813586110004962</v>
       </c>
       <c r="CJ2">
-        <v>0.3877376633319712</v>
+        <v>0.8813586110004962</v>
       </c>
       <c r="CK2">
-        <v>0.3914737745621167</v>
+        <v>0.8813586110004962</v>
       </c>
       <c r="CL2">
-        <v>0.3950902415120697</v>
+        <v>0.8813586110004962</v>
       </c>
       <c r="CM2">
-        <v>0.3969593012821131</v>
+        <v>0.8813586110004962</v>
       </c>
       <c r="CN2">
-        <v>0.4068819779102292</v>
+        <v>0.8813586110004962</v>
       </c>
       <c r="CO2">
-        <v>0.4170642777852006</v>
+        <v>0.8813586110004962</v>
       </c>
       <c r="CP2">
-        <v>0.4352944732447913</v>
+        <v>0.8813586110004962</v>
       </c>
       <c r="CQ2">
-        <v>0.4569820857114989</v>
+        <v>0.8813586110004962</v>
       </c>
       <c r="CR2">
-        <v>0.4684319490635989</v>
+        <v>0.8813586110004962</v>
       </c>
       <c r="CS2">
-        <v>0.4814805829784848</v>
+        <v>0.8813586110004962</v>
       </c>
       <c r="CT2">
-        <v>0.4823531064681948</v>
+        <v>0.8813586110004962</v>
       </c>
       <c r="CU2">
-        <v>0.4904915215277776</v>
+        <v>0.8813586110004962</v>
       </c>
       <c r="CV2">
-        <v>0.5204205828395106</v>
+        <v>0.8813586110004962</v>
       </c>
       <c r="CW2">
-        <v>0.5547833979919838</v>
+        <v>0.9507558916422746</v>
       </c>
       <c r="CX2">
-        <v>0.5878973907502169</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CY2">
-        <v>0.6001256466440241</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CZ2">
-        <v>0.6036152608039741</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DA2">
-        <v>0.6040649899550036</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DB2">
-        <v>0.6107392182643135</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DC2">
-        <v>0.6310689874455392</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DD2">
-        <v>0.6523009882872829</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DE2">
-        <v>0.6724713128987582</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DF2">
-        <v>0.6903304090521771</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG2">
-        <v>0.7037435226428556</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH2">
-        <v>0.707458048644817</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI2">
-        <v>0.7078492184181657</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ2">
-        <v>0.7192315265524962</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK2">
-        <v>0.7450856093683926</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL2">
-        <v>0.7621010580412847</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM2">
-        <v>0.7676956306508256</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN2">
-        <v>0.771984008931638</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO2">
-        <v>0.7733146005176611</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP2">
-        <v>0.773357282238688</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ2">
-        <v>0.7737146341119292</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR2">
-        <v>0.7738201892868135</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS2">
-        <v>0.7762264588795184</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT2">
-        <v>0.7781503709540285</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU2">
-        <v>0.7797624315696774</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV2">
-        <v>0.7813059423688443</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW2">
-        <v>0.7818905847700273</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX2">
-        <v>0.7822693182599229</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY2">
-        <v>0.7827392037593872</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ2">
-        <v>0.7831002817536959</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA2">
-        <v>0.7846761734026947</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB2">
-        <v>0.7863103255184255</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC2">
-        <v>0.7888186036854532</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED2">
-        <v>0.7897777915004027</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE2">
-        <v>0.7898436816495499</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF2">
-        <v>0.7900774892046027</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG2">
-        <v>0.7902522178066551</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH2">
-        <v>0.7909289176721647</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI2">
-        <v>0.7922116087185158</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ2">
-        <v>0.794246715345117</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK2">
-        <v>0.7956729019929097</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL2">
-        <v>0.7957931902153669</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM2">
-        <v>0.7958099176007791</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN2">
-        <v>0.7958560715901238</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO2">
-        <v>0.7969488554360005</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP2">
-        <v>0.8023083668053778</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ2">
-        <v>0.8094206830151108</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER2">
-        <v>0.8115192011493122</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES2">
-        <v>0.8119400160195094</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET2">
-        <v>0.8181538543994065</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU2">
-        <v>0.826120567094199</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV2">
-        <v>0.8360707498254076</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW2">
-        <v>0.8418651974774549</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX2">
-        <v>0.8455529828995342</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY2">
-        <v>0.8474508729995015</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ2">
-        <v>0.8475262498519243</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA2">
-        <v>0.8488980122706966</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB2">
-        <v>0.854893917942135</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC2">
-        <v>0.8619948278961351</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD2">
-        <v>0.8689515076030565</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE2">
-        <v>0.8715692862662288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF2">
-        <v>0.8718030088578295</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG2">
-        <v>0.8718230928319396</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH2">
-        <v>0.8745969321635473</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI2">
-        <v>0.8775038391987748</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ2">
-        <v>0.8817871527555714</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK2">
-        <v>0.8844200886981064</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL2">
-        <v>0.8857606091281874</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM2">
-        <v>0.8864019062820958</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN2">
-        <v>0.8864445880031228</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO2">
-        <v>0.8873749207660394</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP2">
-        <v>0.8890673607172602</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ2">
-        <v>0.8923984754820049</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR2">
-        <v>0.9001420205166629</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS2">
-        <v>0.9063539079953457</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT2">
-        <v>0.9106027583709063</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU2">
-        <v>0.9111049983639883</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV2">
-        <v>0.9113226927281589</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW2">
-        <v>0.9180670324771891</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX2">
-        <v>0.9269050842215438</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY2">
-        <v>0.9354905995230948</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ2">
-        <v>0.9403826914028203</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA2">
-        <v>0.9433472766419714</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB2">
-        <v>0.9438348402037164</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC2">
-        <v>0.944666468453043</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD2">
-        <v>0.9473190304016432</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE2">
-        <v>0.9563869777085215</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF2">
-        <v>0.963200903276765</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG2">
-        <v>0.9680777497557419</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH2">
-        <v>0.9697701897069627</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI2">
-        <v>0.9703046032691287</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ2">
-        <v>0.9760828732783724</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK2">
-        <v>0.9835571362003789</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL2">
-        <v>0.9887778152838791</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM2">
-        <v>0.9914616572166259</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN2">
-        <v>0.9923245976309465</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO2">
-        <v>0.9927341112091091</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP2">
-        <v>0.9936303540886193</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ2">
-        <v>0.9944908499314866</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR2">
-        <v>0.9969785347622427</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7427,592 +7427,592 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.952526193957744E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.000200992289376889</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0004391650752827391</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0007420460517000196</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0009062865077927485</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.001012026214508251</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.001028391944378892</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.001028391944378892</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.001028391944378892</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.001028391944378892</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.001028391944378892</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.00106446370501948</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.00106446370501948</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.00106446370501948</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.001076277606405986</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.001076277606405986</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.001076277606405986</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.001109977114971273</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.001118733755429978</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.001152433263995265</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.001237980329895572</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.001356540914398817</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.001371446282699209</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.00137955224293023</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.00137955224293023</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.00137955224293023</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.00137955224293023</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.00137955224293023</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.00137955224293023</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.00146335153317404</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.001567954154014495</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.00205064101691551</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.002485434859465565</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.00281943898064469</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.003093780565087117</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.00313721010793981</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.00313721010793981</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.00313721010793981</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.00313721010793981</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.00313721010793981</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.00313721010793981</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.00313721010793981</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.00313721010793981</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.00313721010793981</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.00313721010793981</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.00313721010793981</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.003193392668482366</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.003385481028284489</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.003417530340743664</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.03206753338601104</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.03290583991656416</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.03988223767835587</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.04200238982728878</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.07109959296156397</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.07110318815684599</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.07203684032219773</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.07203684032219773</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.1509222839223832</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="BK3">
-        <v>0.1599003507869423</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="BL3">
-        <v>0.1618362181091932</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="BM3">
-        <v>0.1621951803159015</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="BN3">
-        <v>0.1702083062263009</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="BO3">
-        <v>0.1711840720209205</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="BP3">
-        <v>0.1711840720209205</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="BQ3">
-        <v>0.1827471180597818</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="BR3">
-        <v>0.1862172918730055</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="BS3">
-        <v>0.1874502911797376</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="BT3">
-        <v>0.2074533040337941</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="BU3">
-        <v>0.2116874043141903</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="BV3">
-        <v>0.2124251868304033</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="BW3">
-        <v>0.2136581861371354</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="BX3">
-        <v>0.217589835085469</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="BY3">
-        <v>0.2231695040178294</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="BZ3">
-        <v>0.2333280259007144</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="CA3">
-        <v>0.2446908263974326</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="CB3">
-        <v>0.2491415276277494</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="CC3">
-        <v>0.2493113488819399</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="CD3">
-        <v>0.2507011626549784</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="CE3">
-        <v>0.2507011626549784</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="CF3">
-        <v>0.2508786074597312</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="CG3">
-        <v>0.2512018520149151</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="CH3">
-        <v>0.2609135550108481</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="CI3">
-        <v>0.285386992847288</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="CJ3">
-        <v>0.3022957538662733</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="CK3">
-        <v>0.3071658872219015</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="CL3">
-        <v>0.307890538972693</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="CM3">
-        <v>0.3090059546146142</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="CN3">
-        <v>0.3171161868942945</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="CO3">
-        <v>0.3275359272304615</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="CP3">
-        <v>0.3499123562057746</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="CQ3">
-        <v>0.3744134664498996</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="CR3">
-        <v>0.3968095186441795</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="CS3">
-        <v>0.4206264335393874</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="CT3">
-        <v>0.4236261857220669</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="CU3">
-        <v>0.4252161170841724</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="CV3">
-        <v>0.4525180721311283</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="CW3">
-        <v>0.4981815807807727</v>
+        <v>0.6688819986796863</v>
       </c>
       <c r="CX3">
-        <v>0.5584101127682154</v>
+        <v>0.98176587014913</v>
       </c>
       <c r="CY3">
-        <v>0.5906740237218899</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CZ3">
-        <v>0.6094915922052432</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DA3">
-        <v>0.6121379575116688</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DB3">
-        <v>0.6124928126392513</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DC3">
-        <v>0.6220153760521324</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DD3">
-        <v>0.6389471624928834</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DE3">
-        <v>0.6598654128673602</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DF3">
-        <v>0.6820516649403541</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DG3">
-        <v>0.7006217423323942</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DH3">
-        <v>0.7086457258584543</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DI3">
-        <v>0.7086457258584543</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DJ3">
-        <v>0.7132269795949989</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DK3">
-        <v>0.72748942061235</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DL3">
-        <v>0.7410261673781559</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DM3">
-        <v>0.7460694574242042</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DN3">
-        <v>0.7491996125960585</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DO3">
-        <v>0.7504045164936821</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DP3">
-        <v>0.7504045164936821</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DQ3">
-        <v>0.7504045164936821</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DR3">
-        <v>0.7521620048617454</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DS3">
-        <v>0.7569826585993185</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DT3">
-        <v>0.7620817666418414</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DU3">
-        <v>0.7662439198886434</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DV3">
-        <v>0.7689889764655516</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DW3">
-        <v>0.7699183750087139</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DX3">
-        <v>0.7708290387483172</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DY3">
-        <v>0.7712742543995772</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DZ3">
-        <v>0.7712742543995772</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EA3">
-        <v>0.7718183552642532</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EB3">
-        <v>0.7741932971441834</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EC3">
-        <v>0.7779676844036378</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ED3">
-        <v>0.7803519789176002</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EE3">
-        <v>0.7822393997509066</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EF3">
-        <v>0.7850494538333129</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EG3">
-        <v>0.7873456021680869</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EH3">
-        <v>0.7877742171443272</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EI3">
-        <v>0.7877742171443272</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EJ3">
-        <v>0.7879505037795631</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EK3">
-        <v>0.7880560841172475</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EL3">
-        <v>0.7880560841172475</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EM3">
-        <v>0.7880560841172475</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EN3">
-        <v>0.7880648407577062</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EO3">
-        <v>0.7883352428079694</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EP3">
-        <v>0.7928812341279595</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EQ3">
-        <v>0.8012013462441011</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ER3">
-        <v>0.8053341857681999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ES3">
-        <v>0.8059494725909446</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ET3">
-        <v>0.8069358078002069</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EU3">
-        <v>0.8096127545050196</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EV3">
-        <v>0.8147532163276722</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EW3">
-        <v>0.8187093712538527</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EX3">
-        <v>0.8217737593621712</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EY3">
-        <v>0.8230157281590998</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EZ3">
-        <v>0.8231331206301291</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FA3">
-        <v>0.824733470765636</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FB3">
-        <v>0.8305570221446468</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FC3">
-        <v>0.8383017609591351</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FD3">
-        <v>0.845988591706574</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FE3">
-        <v>0.8503062910286059</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FF3">
-        <v>0.8509023697133892</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FG3">
-        <v>0.8509023697133892</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FH3">
-        <v>0.8535261539590515</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FI3">
-        <v>0.8582273775013188</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FJ3">
-        <v>0.8649587177330182</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FK3">
-        <v>0.8729482622594044</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FL3">
-        <v>0.8778780005933248</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FM3">
-        <v>0.8813897502649805</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FN3">
-        <v>0.8830037595957613</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FO3">
-        <v>0.8830037595957613</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FP3">
-        <v>0.8834431833570074</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FQ3">
-        <v>0.8859376658071014</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FR3">
-        <v>0.8926851676773832</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FS3">
-        <v>0.899316984943605</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FT3">
-        <v>0.9050572438778078</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FU3">
-        <v>0.9071232140309392</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FV3">
-        <v>0.9071232140309392</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FW3">
-        <v>0.9094599921685337</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FX3">
-        <v>0.9174613232989687</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FY3">
-        <v>0.9255031292986272</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FZ3">
-        <v>0.9312872016349112</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GA3">
-        <v>0.9341144915689853</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GB3">
-        <v>0.9346242140992795</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GC3">
-        <v>0.9350788480678321</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GD3">
-        <v>0.9382084067044585</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GE3">
-        <v>0.9499304354623921</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GF3">
-        <v>0.9624504611577853</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GG3">
-        <v>0.9706781057146501</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GH3">
-        <v>0.9778773574686648</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GI3">
-        <v>0.9783676479022348</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GJ3">
-        <v>0.9796457901170922</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GK3">
-        <v>0.9837040444440929</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GL3">
-        <v>0.9907451459916216</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GM3">
-        <v>0.9951110001268157</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GN3">
-        <v>0.9974385147478559</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GO3">
-        <v>0.9974385147478559</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GP3">
-        <v>0.9975452345730905</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GQ3">
-        <v>0.9978886827145963</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR3">
-        <v>0.9990559818981001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS3">
         <v>0.9999999999999998</v>
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>4.903624299445959E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>8.998088020433626E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.000129424548774733</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001619130493739119</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001675121227366774</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0001710569557531399</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.000192377386078624</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.000227257156264227</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0002338314501761525</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0002338314501761525</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0002418416946863245</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0002418416946863245</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0002418416946863245</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0002418416946863245</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0002418416946863245</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0002554189647773991</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0002575100210087462</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0002575100210087462</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0002575100210087462</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0002575100210087462</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0002575100210087462</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0002575100210087462</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0002575100210087462</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0002575100210087462</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0002575100210087462</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0002575100210087462</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0002623320652908518</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0002623320652908518</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0002832320173104943</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0002832320173104943</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0003038841321089535</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0003280170443432175</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.000376813104717085</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0004187285463603958</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0004247787795187355</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0004712695974421798</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0005000144065326581</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0005060646396909978</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0005060646396909978</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0005088964207264697</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0005437761909120727</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0005858073848567364</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0006647240031479809</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.0007694075251316635</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0007927642254168848</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0008238898085588844</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0008238898085588844</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0008247211542607517</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0008247211542607517</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0008247211542607517</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0008247211542607517</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.0008247211542607517</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.04644977292254431</v>
+        <v>0.2258574609364344</v>
       </c>
       <c r="BC4">
-        <v>0.04902692544620976</v>
+        <v>0.2258574609364344</v>
       </c>
       <c r="BD4">
-        <v>0.0976581353387556</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="BE4">
-        <v>0.09831268237267139</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="BF4">
-        <v>0.1153049405768993</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="BG4">
-        <v>0.11737657222221</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="BH4">
-        <v>0.1257292217316057</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="BI4">
-        <v>0.128647344753504</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="BJ4">
-        <v>0.1575003404823105</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="BK4">
-        <v>0.1873899948437507</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="BL4">
-        <v>0.1874450096662728</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="BM4">
-        <v>0.1930826031886733</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="BN4">
-        <v>0.1941152939407266</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="BO4">
-        <v>0.2000838644216528</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="BP4">
-        <v>0.2000871488174989</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="BQ4">
-        <v>0.2001232440389208</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="BR4">
-        <v>0.2100742866075007</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="BS4">
-        <v>0.2104932407369634</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="BT4">
-        <v>0.2186933610139082</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="BU4">
-        <v>0.2295962532661459</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="BV4">
-        <v>0.229598935316825</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="BW4">
-        <v>0.2306751189005945</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="BX4">
-        <v>0.2325066482365333</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="BY4">
-        <v>0.2429798173801222</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="BZ4">
-        <v>0.2515608862195363</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="CA4">
-        <v>0.253090067744464</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="CB4">
-        <v>0.2616625156450385</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="CC4">
-        <v>0.263781840038384</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="CD4">
-        <v>0.2665919283467495</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="CE4">
-        <v>0.2699923250527685</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="CF4">
-        <v>0.2703789262177312</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="CG4">
-        <v>0.2733500853875537</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="CH4">
-        <v>0.2829863895858662</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="CI4">
-        <v>0.311773405942125</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="CJ4">
-        <v>0.3336449012327923</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="CK4">
-        <v>0.3384144903860068</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="CL4">
-        <v>0.3426996615855761</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="CM4">
-        <v>0.3427643582160988</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="CN4">
-        <v>0.3563443669141754</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="CO4">
-        <v>0.3685063808804628</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="CP4">
-        <v>0.3890855414615533</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="CQ4">
-        <v>0.4149258450173197</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="CR4">
-        <v>0.4299696078177527</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="CS4">
-        <v>0.4422843623091028</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="CT4">
-        <v>0.4449442127582609</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="CU4">
-        <v>0.4496624891502096</v>
+        <v>0.4952631895594346</v>
       </c>
       <c r="CV4">
-        <v>0.485193571129356</v>
+        <v>0.5748958412119844</v>
       </c>
       <c r="CW4">
-        <v>0.5288426193988367</v>
+        <v>0.7721282179850318</v>
       </c>
       <c r="CX4">
-        <v>0.5746067207320464</v>
+        <v>1</v>
       </c>
       <c r="CY4">
-        <v>0.5956939599336201</v>
+        <v>1</v>
       </c>
       <c r="CZ4">
-        <v>0.6061638585479663</v>
+        <v>1</v>
       </c>
       <c r="DA4">
-        <v>0.6062677120655056</v>
+        <v>1</v>
       </c>
       <c r="DB4">
-        <v>0.6088654525006565</v>
+        <v>1</v>
       </c>
       <c r="DC4">
-        <v>0.62241474566185</v>
+        <v>1</v>
       </c>
       <c r="DD4">
-        <v>0.6415665084892319</v>
+        <v>1</v>
       </c>
       <c r="DE4">
-        <v>0.6583130874608001</v>
+        <v>1</v>
       </c>
       <c r="DF4">
-        <v>0.6781972846111066</v>
+        <v>1</v>
       </c>
       <c r="DG4">
-        <v>0.695707141619991</v>
+        <v>1</v>
       </c>
       <c r="DH4">
-        <v>0.7038666516572215</v>
+        <v>1</v>
       </c>
       <c r="DI4">
-        <v>0.7041175745460391</v>
+        <v>1</v>
       </c>
       <c r="DJ4">
-        <v>0.7095416603890495</v>
+        <v>1</v>
       </c>
       <c r="DK4">
-        <v>0.7303527561691636</v>
+        <v>1</v>
       </c>
       <c r="DL4">
-        <v>0.7476211237477004</v>
+        <v>1</v>
       </c>
       <c r="DM4">
-        <v>0.7526283429865898</v>
+        <v>1</v>
       </c>
       <c r="DN4">
-        <v>0.7548577275985199</v>
+        <v>1</v>
       </c>
       <c r="DO4">
-        <v>0.7554203319942606</v>
+        <v>1</v>
       </c>
       <c r="DP4">
-        <v>0.7554316236260504</v>
+        <v>1</v>
       </c>
       <c r="DQ4">
-        <v>0.7554316236260504</v>
+        <v>1</v>
       </c>
       <c r="DR4">
-        <v>0.755585651698593</v>
+        <v>1</v>
       </c>
       <c r="DS4">
-        <v>0.7575747164999413</v>
+        <v>1</v>
       </c>
       <c r="DT4">
-        <v>0.7617268702883051</v>
+        <v>1</v>
       </c>
       <c r="DU4">
-        <v>0.7635717252784809</v>
+        <v>1</v>
       </c>
       <c r="DV4">
-        <v>0.7664463903169232</v>
+        <v>1</v>
       </c>
       <c r="DW4">
-        <v>0.7674355581956568</v>
+        <v>1</v>
       </c>
       <c r="DX4">
-        <v>0.7675829521908956</v>
+        <v>1</v>
       </c>
       <c r="DY4">
-        <v>0.7679112449766035</v>
+        <v>1</v>
       </c>
       <c r="DZ4">
-        <v>0.7683127645014861</v>
+        <v>1</v>
       </c>
       <c r="EA4">
-        <v>0.7711351653610773</v>
+        <v>1</v>
       </c>
       <c r="EB4">
-        <v>0.7743120538382918</v>
+        <v>1</v>
       </c>
       <c r="EC4">
-        <v>0.778330211960699</v>
+        <v>1</v>
       </c>
       <c r="ED4">
-        <v>0.781150138193265</v>
+        <v>1</v>
       </c>
       <c r="EE4">
-        <v>0.7818534392849867</v>
+        <v>1</v>
       </c>
       <c r="EF4">
-        <v>0.7826085102710421</v>
+        <v>1</v>
       </c>
       <c r="EG4">
-        <v>0.7834836029710117</v>
+        <v>1</v>
       </c>
       <c r="EH4">
-        <v>0.7835460752811502</v>
+        <v>1</v>
       </c>
       <c r="EI4">
-        <v>0.7843446030489973</v>
+        <v>1</v>
       </c>
       <c r="EJ4">
-        <v>0.7856195883463741</v>
+        <v>1</v>
       </c>
       <c r="EK4">
-        <v>0.7867960145526794</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.7869140557382287</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.787211794510742</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.7872253717808331</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.7877634559994299</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.7923505199798547</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.8011543513153339</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.8072023832396608</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.8074292092275148</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.8101510426146968</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.8131834559132406</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.8184026326847754</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.8225948315301516</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.8254065174509952</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.8268529102246489</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.8268912961944489</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.8282630145540931</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.8335961153951258</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8406689648537595</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.8475564332846289</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.8505641504823981</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.8506155450273232</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.8508348201482431</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.8550956400245081</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.8612990591391728</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.8691957441991958</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.8761826490360997</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.8798496593660918</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.8820070169302583</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.8829231221770836</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.8830916577705895</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.884526871562859</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.8877954803603683</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.8964456754303046</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9065256810954101</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9138062168716314</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9158070796115363</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9159062452710233</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9187064145428586</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9260612001450922</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9319604370082928</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9361215367856468</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9381741188498525</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9390086802794697</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9396789066671795</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9420726172484527</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9512590133846734</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9604900753770914</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9666630503306919</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9703348188501358</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9703348188501358</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9749165645654796</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9830886079597221</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9908439142291549</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9949670511330404</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9973440264382095</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9973690389916284</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9977416215326844</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9978519619276756</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9983951297563879</v>
+        <v>1</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8970,766 +8970,766 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.323545332447424E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.323545332447424E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.323545332447424E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>4.161503458081053E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>4.161503458081053E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>4.161503458081053E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4.161503458081053E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>4.161503458081053E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>4.856903628761395E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>4.856903628761395E-05</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>4.856903628761395E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.977572617676451E-05</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>8.977572617676451E-05</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>8.977572617676451E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0001495189959228732</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0001495189959228732</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0001495189959228732</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0001495189959228732</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0001495189959228732</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0001495189959228732</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0001495189959228732</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0001495189959228732</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0001495189959228732</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0001495189959228732</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0001495189959228732</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0001495189959228732</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0001495189959228732</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0001495189959228732</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0001495189959228732</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0001495189959228732</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0001495189959228732</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0001762498816878415</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0002122075188695511</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0002637359591069226</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0002691728088390805</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0002942678440908258</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0002942678440908258</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0002942678440908258</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0002942678440908258</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0002942678440908258</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0002948360469667264</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0003469677453220102</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.0004330934959960676</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0004828568457902683</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.000555109614863371</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.000555109614863371</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.000555109614863371</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.000555109614863371</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.000555109614863371</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.000555109614863371</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.000555109614863371</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.000555109614863371</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.000555109614863371</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.000555109614863371</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.000555109614863371</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.000555109614863371</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.008956448702641256</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.02610543165246093</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.07157223764942054</v>
+        <v>0.1770392872086075</v>
       </c>
       <c r="BK5">
-        <v>0.07157223764942054</v>
+        <v>0.1770392872086075</v>
       </c>
       <c r="BL5">
-        <v>0.08009992654706366</v>
+        <v>0.1770392872086075</v>
       </c>
       <c r="BM5">
-        <v>0.09681894310068655</v>
+        <v>0.1770392872086075</v>
       </c>
       <c r="BN5">
-        <v>0.1034168502959395</v>
+        <v>0.1770392872086075</v>
       </c>
       <c r="BO5">
-        <v>0.1034168502959395</v>
+        <v>0.1770392872086075</v>
       </c>
       <c r="BP5">
-        <v>0.1576212551389089</v>
+        <v>0.4561520058079114</v>
       </c>
       <c r="BQ5">
-        <v>0.2106964972579743</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="BR5">
-        <v>0.2109019590552421</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="BS5">
-        <v>0.2112353734482127</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="BT5">
-        <v>0.2123716145756134</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="BU5">
-        <v>0.2184702363560583</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="BV5">
-        <v>0.2205990155292938</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="BW5">
-        <v>0.221250882053149</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="BX5">
-        <v>0.2333053349513859</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="BY5">
-        <v>0.2333955337352245</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="BZ5">
-        <v>0.2454076579732256</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="CA5">
-        <v>0.2570074857640665</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="CB5">
-        <v>0.2570074857640665</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="CC5">
-        <v>0.2574696321633224</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="CD5">
-        <v>0.2586001275942293</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="CE5">
-        <v>0.2597886944824824</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="CF5">
-        <v>0.2621713316534063</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="CG5">
-        <v>0.264401382032292</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="CH5">
-        <v>0.2681072016751609</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="CI5">
-        <v>0.26896924939118</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="CJ5">
-        <v>0.2700980738606161</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="CK5">
-        <v>0.2744153282401351</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="CL5">
-        <v>0.2744153282401351</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="CM5">
-        <v>0.274438687136795</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="CN5">
-        <v>0.2788987158796218</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="CO5">
-        <v>0.3002580172565171</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="CP5">
-        <v>0.3268909044387016</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="CQ5">
-        <v>0.3389030286767027</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="CR5">
-        <v>0.3439257907457062</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="CS5">
-        <v>0.3445241129173834</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="CT5">
-        <v>0.3526749729053121</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="CU5">
-        <v>0.3666968986022988</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="CV5">
-        <v>0.3936890349031308</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="CW5">
-        <v>0.4251782051436027</v>
+        <v>0.7358250057244572</v>
       </c>
       <c r="CX5">
-        <v>0.450305137160561</v>
+        <v>0.7358250057244572</v>
       </c>
       <c r="CY5">
-        <v>0.4705796639249369</v>
+        <v>0.7358250057244572</v>
       </c>
       <c r="CZ5">
-        <v>0.4830663260254914</v>
+        <v>0.7358250057244572</v>
       </c>
       <c r="DA5">
-        <v>0.4830663260254914</v>
+        <v>0.7358250057244572</v>
       </c>
       <c r="DB5">
-        <v>0.4968670466114644</v>
+        <v>0.7358250057244572</v>
       </c>
       <c r="DC5">
-        <v>0.532448147734779</v>
+        <v>0.7973785815892112</v>
       </c>
       <c r="DD5">
-        <v>0.5798538849485299</v>
+        <v>0.9970686411686283</v>
       </c>
       <c r="DE5">
-        <v>0.610416859327963</v>
+        <v>1</v>
       </c>
       <c r="DF5">
-        <v>0.6306532239459132</v>
+        <v>1</v>
       </c>
       <c r="DG5">
-        <v>0.6332009631519743</v>
+        <v>1</v>
       </c>
       <c r="DH5">
-        <v>0.6334955692292598</v>
+        <v>1</v>
       </c>
       <c r="DI5">
-        <v>0.6395297439656905</v>
+        <v>1</v>
       </c>
       <c r="DJ5">
-        <v>0.6508707211346483</v>
+        <v>1</v>
       </c>
       <c r="DK5">
-        <v>0.6614143675584842</v>
+        <v>1</v>
       </c>
       <c r="DL5">
-        <v>0.6754686619925897</v>
+        <v>1</v>
       </c>
       <c r="DM5">
-        <v>0.6928625119619019</v>
+        <v>1</v>
       </c>
       <c r="DN5">
-        <v>0.7042394803949379</v>
+        <v>1</v>
       </c>
       <c r="DO5">
-        <v>0.7055662413177383</v>
+        <v>1</v>
       </c>
       <c r="DP5">
-        <v>0.7074916099293366</v>
+        <v>1</v>
       </c>
       <c r="DQ5">
-        <v>0.7226058754042043</v>
+        <v>1</v>
       </c>
       <c r="DR5">
-        <v>0.7482732933059728</v>
+        <v>1</v>
       </c>
       <c r="DS5">
-        <v>0.7595327281629604</v>
+        <v>1</v>
       </c>
       <c r="DT5">
-        <v>0.7663968320312017</v>
+        <v>1</v>
       </c>
       <c r="DU5">
-        <v>0.769357982806816</v>
+        <v>1</v>
       </c>
       <c r="DV5">
-        <v>0.7699764624568226</v>
+        <v>1</v>
       </c>
       <c r="DW5">
-        <v>0.7699764624568226</v>
+        <v>1</v>
       </c>
       <c r="DX5">
-        <v>0.7699764624568226</v>
+        <v>1</v>
       </c>
       <c r="DY5">
-        <v>0.7706299322325005</v>
+        <v>1</v>
       </c>
       <c r="DZ5">
-        <v>0.7752882490447731</v>
+        <v>1</v>
       </c>
       <c r="EA5">
-        <v>0.7786006648936682</v>
+        <v>1</v>
       </c>
       <c r="EB5">
-        <v>0.7850384798991639</v>
+        <v>1</v>
       </c>
       <c r="EC5">
-        <v>0.7901713682059516</v>
+        <v>1</v>
       </c>
       <c r="ED5">
-        <v>0.792750159944076</v>
+        <v>1</v>
       </c>
       <c r="EE5">
-        <v>0.7953521327144075</v>
+        <v>1</v>
       </c>
       <c r="EF5">
-        <v>0.7955447055688575</v>
+        <v>1</v>
       </c>
       <c r="EG5">
-        <v>0.7961343019078102</v>
+        <v>1</v>
       </c>
       <c r="EH5">
-        <v>0.7973778123796698</v>
+        <v>1</v>
       </c>
       <c r="EI5">
-        <v>0.7995347638923926</v>
+        <v>1</v>
       </c>
       <c r="EJ5">
-        <v>0.8011201168153947</v>
+        <v>1</v>
       </c>
       <c r="EK5">
-        <v>0.801579658459737</v>
+        <v>1</v>
       </c>
       <c r="EL5">
-        <v>0.803004364670818</v>
+        <v>1</v>
       </c>
       <c r="EM5">
-        <v>0.8044912096792886</v>
+        <v>1</v>
       </c>
       <c r="EN5">
-        <v>0.8046652016143947</v>
+        <v>1</v>
       </c>
       <c r="EO5">
-        <v>0.8056059875573166</v>
+        <v>1</v>
       </c>
       <c r="EP5">
-        <v>0.8077219861799</v>
+        <v>1</v>
       </c>
       <c r="EQ5">
-        <v>0.8091527252760634</v>
+        <v>1</v>
       </c>
       <c r="ER5">
-        <v>0.8092473207601777</v>
+        <v>1</v>
       </c>
       <c r="ES5">
-        <v>0.8100161195773348</v>
+        <v>1</v>
       </c>
       <c r="ET5">
-        <v>0.8110062440132817</v>
+        <v>1</v>
       </c>
       <c r="EU5">
-        <v>0.8111199462706952</v>
+        <v>1</v>
       </c>
       <c r="EV5">
-        <v>0.8116843954752458</v>
+        <v>1</v>
       </c>
       <c r="EW5">
-        <v>0.8155355173488092</v>
+        <v>1</v>
       </c>
       <c r="EX5">
-        <v>0.8192779012147186</v>
+        <v>1</v>
       </c>
       <c r="EY5">
-        <v>0.8196453882899136</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
-        <v>0.8213214988849952</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.8256422609160382</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.831931258948239</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.8371913647087232</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.8417512631566273</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.8436302745662637</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.8436486865153903</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.8447322850121307</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.8482810476484851</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.8589207092709439</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.870058800617908</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.8793702641488799</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.8829451330890019</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.8830448227212626</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.8836081753516498</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.8881866469491042</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.8928364761482943</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.8984742209233055</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9008786097680641</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9023477524111495</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9035496448499161</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9035496448499161</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9043732697312858</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9056230219710744</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9096478075439538</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.916340328538558</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9220946150506506</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9250891662136789</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9250891662136789</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9264885069358595</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9353342660592799</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.943978310401301</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9508611213391329</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9552694756871126</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9585560910602291</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9586058544100233</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9592098997893524</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9639357363102851</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9734235027378569</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9805187715389277</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9877586423775626</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9894621798374142</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9903307748758384</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9934639315584395</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9981668033249911</v>
+        <v>1</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9740,769 +9740,769 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.42372761655009E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0001939932329314715</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0003026774005582886</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0005245354979057147</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007834130757100716</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0009616081313881509</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.00108430304873076</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.001092635988844067</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.001092635988844067</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.001092635988844067</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.001092635988844067</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.001092704892804384</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.001157437611288572</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.001200341234968309</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.001228438310993768</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.001245037589437693</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.001245037589437693</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.001262080089097117</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.001275836913482594</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.001275836913482594</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.001275836913482594</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.001275836913482594</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.001298455169907396</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.001427909677734673</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.001623074059498753</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.001752029745499528</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.001893218366260513</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.001960345856693313</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.001971439526160375</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.001975619125542444</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.001989136128086704</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.002017782853522783</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.002080028891028856</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.002087575331152083</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.002088450537611687</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.002126507513144673</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.002172165714565861</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.002246456877078048</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.002351505465843087</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.002476971339882528</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.002570055432880953</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.002587730330090296</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.002617188324034495</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.002661748793299733</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.002661748793299733</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.002661748793299733</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.002661748793299733</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.002661748793299733</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.00266557153474078</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.00266557153474078</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.005717763703739148</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.03222330372214764</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.06322815038747738</v>
+        <v>0.01555662317823544</v>
       </c>
       <c r="BD6">
-        <v>0.06433151537993183</v>
+        <v>0.01555662317823544</v>
       </c>
       <c r="BE6">
-        <v>0.08410988568126873</v>
+        <v>0.01555662317823544</v>
       </c>
       <c r="BF6">
-        <v>0.09670381408323978</v>
+        <v>0.01555662317823544</v>
       </c>
       <c r="BG6">
-        <v>0.1054593895146706</v>
+        <v>0.01555662317823544</v>
       </c>
       <c r="BH6">
-        <v>0.1076355131579853</v>
+        <v>0.01555662317823544</v>
       </c>
       <c r="BI6">
-        <v>0.1303969412256452</v>
+        <v>0.01555662317823544</v>
       </c>
       <c r="BJ6">
-        <v>0.1868222327752908</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="BK6">
-        <v>0.1881756616582852</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="BL6">
-        <v>0.1919444667395615</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="BM6">
-        <v>0.192116673212166</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="BN6">
-        <v>0.2037732705731035</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="BO6">
-        <v>0.2050722570369268</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="BP6">
-        <v>0.2063979814551196</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="BQ6">
-        <v>0.2156041712415742</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="BR6">
-        <v>0.2156085042488014</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="BS6">
-        <v>0.2258146436675018</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="BT6">
-        <v>0.2400144240003321</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="BU6">
-        <v>0.2405947138670332</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="BV6">
-        <v>0.2448823993927762</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="BW6">
-        <v>0.2453104354043243</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="BX6">
-        <v>0.2527739043380344</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="BY6">
-        <v>0.2560347324050252</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="BZ6">
-        <v>0.2644689373653174</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="CA6">
-        <v>0.2721482244469886</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="CB6">
-        <v>0.2741325704512317</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="CC6">
-        <v>0.2758831232743508</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="CD6">
-        <v>0.2782629030009615</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="CE6">
-        <v>0.2783197914603526</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="CF6">
-        <v>0.2786555710348694</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="CG6">
-        <v>0.2830869237694147</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="CH6">
-        <v>0.3027268372745699</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="CI6">
-        <v>0.3265234899541239</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="CJ6">
-        <v>0.3392397913222199</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="CK6">
-        <v>0.34391188068645</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="CL6">
-        <v>0.3440763219815436</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="CM6">
-        <v>0.3494471326603197</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="CN6">
-        <v>0.358845182921022</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="CO6">
-        <v>0.3814951536579212</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="CP6">
-        <v>0.4044056160135332</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="CQ6">
-        <v>0.4281712895376763</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="CR6">
-        <v>0.4504343959912515</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="CS6">
-        <v>0.4642124452344417</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="CT6">
-        <v>0.4643801131297229</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="CU6">
-        <v>0.4707872027681257</v>
+        <v>0.4288199022328812</v>
       </c>
       <c r="CV6">
-        <v>0.5069552890219136</v>
+        <v>0.5251561797231982</v>
       </c>
       <c r="CW6">
-        <v>0.5573135641910013</v>
+        <v>0.8435000816056619</v>
       </c>
       <c r="CX6">
-        <v>0.5973271644562914</v>
+        <v>1</v>
       </c>
       <c r="CY6">
-        <v>0.6185887015898145</v>
+        <v>1</v>
       </c>
       <c r="CZ6">
-        <v>0.6277615202050799</v>
+        <v>1</v>
       </c>
       <c r="DA6">
-        <v>0.6280490303418045</v>
+        <v>1</v>
       </c>
       <c r="DB6">
-        <v>0.6315725906790087</v>
+        <v>1</v>
       </c>
       <c r="DC6">
-        <v>0.6420058575482065</v>
+        <v>1</v>
       </c>
       <c r="DD6">
-        <v>0.6593571201694453</v>
+        <v>1</v>
       </c>
       <c r="DE6">
-        <v>0.6752447072355395</v>
+        <v>1</v>
       </c>
       <c r="DF6">
-        <v>0.6923295327132769</v>
+        <v>1</v>
       </c>
       <c r="DG6">
-        <v>0.7060667516177154</v>
+        <v>1</v>
       </c>
       <c r="DH6">
-        <v>0.7087500842491704</v>
+        <v>1</v>
       </c>
       <c r="DI6">
-        <v>0.7094811552456263</v>
+        <v>1</v>
       </c>
       <c r="DJ6">
-        <v>0.7190130473427508</v>
+        <v>1</v>
       </c>
       <c r="DK6">
-        <v>0.7405418849864071</v>
+        <v>1</v>
       </c>
       <c r="DL6">
-        <v>0.7517841223878817</v>
+        <v>1</v>
       </c>
       <c r="DM6">
-        <v>0.7567727394667564</v>
+        <v>1</v>
       </c>
       <c r="DN6">
-        <v>0.758758927653289</v>
+        <v>1</v>
       </c>
       <c r="DO6">
-        <v>0.7590849136289184</v>
+        <v>1</v>
       </c>
       <c r="DP6">
-        <v>0.7590849136289184</v>
+        <v>1</v>
       </c>
       <c r="DQ6">
-        <v>0.7591610105732624</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0.76126141736314</v>
+        <v>1</v>
       </c>
       <c r="DS6">
-        <v>0.7649100736227824</v>
+        <v>1</v>
       </c>
       <c r="DT6">
-        <v>0.7681172749169692</v>
+        <v>1</v>
       </c>
       <c r="DU6">
-        <v>0.7733047034218385</v>
+        <v>1</v>
       </c>
       <c r="DV6">
-        <v>0.7751543749360701</v>
+        <v>1</v>
       </c>
       <c r="DW6">
-        <v>0.7767768152557489</v>
+        <v>1</v>
       </c>
       <c r="DX6">
-        <v>0.7791178239180863</v>
+        <v>1</v>
       </c>
       <c r="DY6">
-        <v>0.7796908384352838</v>
+        <v>1</v>
       </c>
       <c r="DZ6">
-        <v>0.7797995226029105</v>
+        <v>1</v>
       </c>
       <c r="EA6">
-        <v>0.7804459989059224</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.783858370726519</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.7867327651930768</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.7882200920363267</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.7902459250581827</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.7913921331441125</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.7921820718389504</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.7922067446778611</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.7924376256668123</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.793104633358553</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.7933756356351548</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.7933933105323642</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.7934863946253626</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.7934863946253626</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.7941715323460861</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.7987363161426169</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.8042753243470835</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.8062197953182489</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.8063649801860308</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.8092098926329417</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.8145582424736413</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.8205104379395803</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.8251755893575864</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.827471083091844</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.8278087317200612</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.8287215335891926</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.8314516656942142</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.8415980367320545</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.8502103383217277</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.8589428564617959</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.8630288845529763</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.8635022791762237</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.8637052314051253</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.8672226368286231</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.8716936705138284</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.8801410010479432</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.8858846634595628</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.8900086590737899</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.893430359255709</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.893849075379533</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.8940415997001855</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.8951932944160327</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.8992635732192207</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.906033439011836</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.911825740078037</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9167695318216701</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9171782359038441</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9173358213875925</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9226375961500157</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9302900231254451</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9382047754983079</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9428768648625381</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9456824477079908</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9458573461837643</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9467199658428379</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9517230917829532</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9626070610445602</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9707887577763153</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.977587297145269</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9800498915394293</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9802458412146712</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9825080872301643</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9885174944913001</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9929527105664271</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9952816944223867</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9959705825457321</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9960867432432946</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9964765597247803</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9973893615939118</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9989821256114411</v>
+        <v>1</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="E2">
-        <v>0.003581245954874933</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5204205828395106</v>
+        <v>0.5042874774604978</v>
       </c>
       <c r="G2">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -10611,16 +10611,16 @@
         <v>59</v>
       </c>
       <c r="D3">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E3">
-        <v>0.07203684032219773</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5584101127682154</v>
+        <v>0.5094627623278997</v>
       </c>
       <c r="G3">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4">
-        <v>0.04644977292254431</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5288426193988367</v>
+        <v>0.5748958412119844</v>
       </c>
       <c r="G4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="E5">
-        <v>0.07157223764942054</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.532448147734779</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="G5">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D6">
         <v>99</v>
       </c>
       <c r="E6">
-        <v>0.06433151537993183</v>
+        <v>0.01555662317823544</v>
       </c>
       <c r="F6">
-        <v>0.5069552890219136</v>
+        <v>0.5251561797231982</v>
       </c>
       <c r="G6">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="E2">
-        <v>0.003581245954874933</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7037435226428556</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="G2">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -10870,16 +10870,16 @@
         <v>59</v>
       </c>
       <c r="D3">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E3">
-        <v>0.07203684032219773</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7006217423323942</v>
+        <v>0.98176587014913</v>
       </c>
       <c r="G3">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>0.04644977292254431</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7038666516572215</v>
+        <v>0.7721282179850318</v>
       </c>
       <c r="G4">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="E5">
-        <v>0.07157223764942054</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7042394803949379</v>
+        <v>0.7220737418662879</v>
       </c>
       <c r="G5">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>0.06433151537993183</v>
+        <v>0.01555662317823544</v>
       </c>
       <c r="F6">
-        <v>0.7060667516177154</v>
+        <v>0.8435000816056619</v>
       </c>
       <c r="G6">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="E2">
-        <v>0.003581245954874933</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8023083668053778</v>
+        <v>0.8256855357673273</v>
       </c>
       <c r="G2">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -11129,16 +11129,16 @@
         <v>59</v>
       </c>
       <c r="D3">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="E3">
-        <v>0.07203684032219773</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8012013462441011</v>
+        <v>0.98176587014913</v>
       </c>
       <c r="G3">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="E4">
-        <v>0.04644977292254431</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8011543513153339</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="E5">
-        <v>0.07157223764942054</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8011201168153947</v>
+        <v>0.9970686411686283</v>
       </c>
       <c r="G5">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>0.06433151537993183</v>
+        <v>0.01555662317823544</v>
       </c>
       <c r="F6">
-        <v>0.8042753243470835</v>
+        <v>0.8435000816056619</v>
       </c>
       <c r="G6">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>0.003581245954874933</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9001420205166629</v>
+        <v>0.9507558916422746</v>
       </c>
       <c r="G2">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -11388,16 +11388,16 @@
         <v>59</v>
       </c>
       <c r="D3">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="E3">
-        <v>0.07203684032219773</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9050572438778078</v>
+        <v>0.98176587014913</v>
       </c>
       <c r="G3">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="E4">
-        <v>0.04644977292254431</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9065256810954101</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="E5">
-        <v>0.07157223764942054</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9008786097680641</v>
+        <v>0.9970686411686283</v>
       </c>
       <c r="G5">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="E6">
-        <v>0.06433151537993183</v>
+        <v>0.01555662317823544</v>
       </c>
       <c r="F6">
-        <v>0.906033439011836</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>3</v>

--- a/on_trucks/Processed_Stand_Alone/3_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/3_225-80R17.xlsx
@@ -713,34 +713,34 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3003404938673945</v>
+        <v>0.2346625748501799</v>
       </c>
       <c r="F2">
-        <v>0.144685735052369</v>
+        <v>0.1264210761784495</v>
       </c>
       <c r="G2">
-        <v>0.1010422216207955</v>
+        <v>0.09607160702571267</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.08649463212767058</v>
+        <v>0.08595528998674426</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.01629068814176059</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2087933530974835</v>
+        <v>0.1710011757931632</v>
       </c>
       <c r="N2">
-        <v>0.08582384923231737</v>
+        <v>0.08548883109766733</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.01265426682051769</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -761,16 +761,16 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.009217602139500335</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.03033668417114199</v>
+        <v>0.04690334904115898</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.01942902327226359</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -779,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.002653277103833989</v>
       </c>
       <c r="AB2">
-        <v>0.04248303083082761</v>
+        <v>0.05534985447304961</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.006913168308681608</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.02182828801391912</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>0.009159927753397405</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -841,19 +841,19 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1517335954261282</v>
+        <v>0.1316322361650767</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.02298515785813123</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.154930725510647</v>
+        <v>0.1338739943983665</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5108776167601093</v>
+        <v>0.3834562300215725</v>
       </c>
       <c r="N3">
-        <v>0.01109467220137062</v>
+        <v>0.0330192752515476</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.004196100778513877</v>
+        <v>0.0281821466780148</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.02957524698021757</v>
+        <v>0.0459774532334249</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.005408894799017891</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.08991439377481628</v>
+        <v>0.08828595352606651</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.009238362836941426</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.007722212056817081</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.01598353055524381</v>
       </c>
       <c r="AC3">
-        <v>0.01953400024552245</v>
+        <v>0.03893674893146477</v>
       </c>
       <c r="AD3">
-        <v>0.02814364832267458</v>
+        <v>0.04497364732235052</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.01032415636596381</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -969,46 +969,46 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2735162662892223</v>
+        <v>0.2045343962474359</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2954719950290073</v>
+        <v>0.2188652019666291</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.06439424989198521</v>
+        <v>0.06803758377023465</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.001294141021906029</v>
+        <v>0.02685127600544411</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0009440748374263544</v>
       </c>
       <c r="M4">
-        <v>0.151020144132775</v>
+        <v>0.1245794947825807</v>
       </c>
       <c r="N4">
-        <v>0.158591467660358</v>
+        <v>0.1295214016441979</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.01390819774474565</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.01548601444436697</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1017,16 +1017,16 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.01296813918712802</v>
+        <v>0.03447105495492898</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0001801309418803891</v>
+        <v>0.02612414632483635</v>
       </c>
       <c r="X4">
-        <v>0.01992005342170233</v>
+        <v>0.03900866486316441</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1038,31 +1038,31 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.01678153454920374</v>
+        <v>0.03696011048626974</v>
       </c>
       <c r="AC4">
-        <v>0.002962420813421724</v>
+        <v>0.02794018513985809</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.002899457061409889</v>
+        <v>0.02789908783408759</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.0004290571881312288</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.00324314567299956</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>0.001196906092662927</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -1115,34 +1115,34 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.00124145625195416</v>
+        <v>0.02571505670461532</v>
       </c>
       <c r="L5">
-        <v>0.05690666775308109</v>
+        <v>0.06505430549085517</v>
       </c>
       <c r="M5">
-        <v>0.2371057743960217</v>
+        <v>0.1924030983206693</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.002045477197502039</v>
+        <v>0.02628326760606165</v>
       </c>
       <c r="P5">
-        <v>0.05417059724539534</v>
+        <v>0.06312069281794967</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.01760479787287122</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.2927070649201664</v>
+        <v>0.2316971734131721</v>
       </c>
       <c r="T5">
-        <v>0.2855216921687622</v>
+        <v>0.2266191873844361</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.01535944890139524</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1163,16 +1163,16 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.02448787049834087</v>
+        <v>0.04214356651829102</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.02421851410229416</v>
+        <v>0.04195320923785507</v>
       </c>
       <c r="AD5">
-        <v>0.02159488546648209</v>
+        <v>0.04009906053629441</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>0.004598718346873205</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>0.007348416848660429</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1222,46 +1222,46 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.001389926877148997</v>
       </c>
       <c r="E6">
-        <v>0.1378949500499274</v>
+        <v>0.1123384871848931</v>
       </c>
       <c r="F6">
-        <v>0.171936103340286</v>
+        <v>0.1336229365549446</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.08699808226124456</v>
+        <v>0.08051489424424946</v>
       </c>
       <c r="I6">
-        <v>0.03264155420167373</v>
+        <v>0.04652812653554796</v>
       </c>
       <c r="J6">
-        <v>0.00360108816851932</v>
+        <v>0.0283703889379666</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1095674989883488</v>
+        <v>0.09462656677021229</v>
       </c>
       <c r="M6">
-        <v>0.3642637948987701</v>
+        <v>0.2538770589261408</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.004779940593982571</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.02554983270865964</v>
+        <v>0.04209398219921857</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.007010376207309587</v>
+        <v>0.03050206814491362</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.01457586159986689</v>
+        <v>0.03523243639725358</v>
       </c>
       <c r="W6">
-        <v>0.04479121547835137</v>
+        <v>0.05412478015362506</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.007234559808905127</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.02225794151225735</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.002376901216991639</v>
       </c>
       <c r="AC6">
-        <v>0.001169642097042611</v>
+        <v>0.02685011169110217</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.0232788922506465</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1494,118 +1494,118 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3003404938673945</v>
+        <v>0.2346625748501799</v>
       </c>
       <c r="F2">
-        <v>0.4450262289197634</v>
+        <v>0.3610836510286294</v>
       </c>
       <c r="G2">
-        <v>0.5460684505405589</v>
+        <v>0.457155258054342</v>
       </c>
       <c r="H2">
-        <v>0.5460684505405589</v>
+        <v>0.457155258054342</v>
       </c>
       <c r="I2">
-        <v>0.6325630826682295</v>
+        <v>0.5431105480410863</v>
       </c>
       <c r="J2">
-        <v>0.6325630826682295</v>
+        <v>0.5431105480410863</v>
       </c>
       <c r="K2">
-        <v>0.6325630826682295</v>
+        <v>0.5594012361828469</v>
       </c>
       <c r="L2">
-        <v>0.6325630826682295</v>
+        <v>0.5594012361828469</v>
       </c>
       <c r="M2">
-        <v>0.841356435765713</v>
+        <v>0.73040241197601</v>
       </c>
       <c r="N2">
-        <v>0.9271802849980303</v>
+        <v>0.8158912430736773</v>
       </c>
       <c r="O2">
-        <v>0.9271802849980303</v>
+        <v>0.8158912430736773</v>
       </c>
       <c r="P2">
-        <v>0.9271802849980303</v>
+        <v>0.8158912430736773</v>
       </c>
       <c r="Q2">
-        <v>0.9271802849980303</v>
+        <v>0.8158912430736773</v>
       </c>
       <c r="R2">
-        <v>0.9271802849980303</v>
+        <v>0.8285455098941951</v>
       </c>
       <c r="S2">
-        <v>0.9271802849980303</v>
+        <v>0.8285455098941951</v>
       </c>
       <c r="T2">
-        <v>0.9271802849980303</v>
+        <v>0.8285455098941951</v>
       </c>
       <c r="U2">
-        <v>0.9271802849980303</v>
+        <v>0.8377631120336954</v>
       </c>
       <c r="V2">
-        <v>0.9271802849980303</v>
+        <v>0.8377631120336954</v>
       </c>
       <c r="W2">
-        <v>0.9575169691691723</v>
+        <v>0.8846664610748544</v>
       </c>
       <c r="X2">
-        <v>0.9575169691691723</v>
+        <v>0.904095484347118</v>
       </c>
       <c r="Y2">
-        <v>0.9575169691691723</v>
+        <v>0.904095484347118</v>
       </c>
       <c r="Z2">
-        <v>0.9575169691691723</v>
+        <v>0.904095484347118</v>
       </c>
       <c r="AA2">
-        <v>0.9575169691691723</v>
+        <v>0.906748761450952</v>
       </c>
       <c r="AB2">
-        <v>0.9999999999999999</v>
+        <v>0.9620986159240016</v>
       </c>
       <c r="AC2">
-        <v>0.9999999999999999</v>
+        <v>0.9690117842326832</v>
       </c>
       <c r="AD2">
-        <v>0.9999999999999999</v>
+        <v>0.9690117842326832</v>
       </c>
       <c r="AE2">
-        <v>0.9999999999999999</v>
+        <v>0.9908400722466023</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999999999</v>
+        <v>0.9908400722466023</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.9908400722466023</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.9908400722466023</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999999</v>
+        <v>0.9908400722466023</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AL2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AM2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AN2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AO2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AP2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -1622,118 +1622,118 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1517335954261282</v>
+        <v>0.1316322361650767</v>
       </c>
       <c r="F3">
-        <v>0.1517335954261282</v>
+        <v>0.1316322361650767</v>
       </c>
       <c r="G3">
-        <v>0.1517335954261282</v>
+        <v>0.154617394023208</v>
       </c>
       <c r="H3">
-        <v>0.1517335954261282</v>
+        <v>0.154617394023208</v>
       </c>
       <c r="I3">
-        <v>0.3066643209367752</v>
+        <v>0.2884913884215745</v>
       </c>
       <c r="J3">
-        <v>0.3066643209367752</v>
+        <v>0.2884913884215745</v>
       </c>
       <c r="K3">
-        <v>0.3066643209367752</v>
+        <v>0.2884913884215745</v>
       </c>
       <c r="L3">
-        <v>0.3066643209367752</v>
+        <v>0.2884913884215745</v>
       </c>
       <c r="M3">
-        <v>0.8175419376968845</v>
+        <v>0.671947618443147</v>
       </c>
       <c r="N3">
-        <v>0.8286366098982552</v>
+        <v>0.7049668936946946</v>
       </c>
       <c r="O3">
-        <v>0.8286366098982552</v>
+        <v>0.7049668936946946</v>
       </c>
       <c r="P3">
-        <v>0.8286366098982552</v>
+        <v>0.7049668936946946</v>
       </c>
       <c r="Q3">
-        <v>0.832832710676769</v>
+        <v>0.7331490403727093</v>
       </c>
       <c r="R3">
-        <v>0.832832710676769</v>
+        <v>0.7331490403727093</v>
       </c>
       <c r="S3">
-        <v>0.832832710676769</v>
+        <v>0.7331490403727093</v>
       </c>
       <c r="T3">
-        <v>0.8624079576569865</v>
+        <v>0.7791264936061343</v>
       </c>
       <c r="U3">
-        <v>0.8624079576569865</v>
+        <v>0.7845353884051521</v>
       </c>
       <c r="V3">
-        <v>0.8624079576569865</v>
+        <v>0.7845353884051521</v>
       </c>
       <c r="W3">
-        <v>0.9523223514318028</v>
+        <v>0.8728213419312186</v>
       </c>
       <c r="X3">
-        <v>0.9523223514318028</v>
+        <v>0.8820597047681601</v>
       </c>
       <c r="Y3">
-        <v>0.9523223514318028</v>
+        <v>0.8820597047681601</v>
       </c>
       <c r="Z3">
-        <v>0.9523223514318028</v>
+        <v>0.8820597047681601</v>
       </c>
       <c r="AA3">
-        <v>0.9523223514318028</v>
+        <v>0.8897819168249772</v>
       </c>
       <c r="AB3">
-        <v>0.9523223514318028</v>
+        <v>0.905765447380221</v>
       </c>
       <c r="AC3">
-        <v>0.9718563516773252</v>
+        <v>0.9447021963116858</v>
       </c>
       <c r="AD3">
-        <v>0.9999999999999998</v>
+        <v>0.9896758436340364</v>
       </c>
       <c r="AE3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AM3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AN3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AO3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AP3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -1750,118 +1750,118 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2735162662892223</v>
+        <v>0.2045343962474359</v>
       </c>
       <c r="F4">
-        <v>0.2735162662892223</v>
+        <v>0.2045343962474359</v>
       </c>
       <c r="G4">
-        <v>0.5689882613182295</v>
+        <v>0.423399598214065</v>
       </c>
       <c r="H4">
-        <v>0.5689882613182295</v>
+        <v>0.423399598214065</v>
       </c>
       <c r="I4">
-        <v>0.6333825112102147</v>
+        <v>0.4914371819842996</v>
       </c>
       <c r="J4">
-        <v>0.6333825112102147</v>
+        <v>0.4914371819842996</v>
       </c>
       <c r="K4">
-        <v>0.6346766522321208</v>
+        <v>0.5182884579897438</v>
       </c>
       <c r="L4">
-        <v>0.6346766522321208</v>
+        <v>0.5192325328271701</v>
       </c>
       <c r="M4">
-        <v>0.7856967963648958</v>
+        <v>0.6438120276097509</v>
       </c>
       <c r="N4">
-        <v>0.9442882640252538</v>
+        <v>0.7733334292539488</v>
       </c>
       <c r="O4">
-        <v>0.9442882640252538</v>
+        <v>0.7733334292539488</v>
       </c>
       <c r="P4">
-        <v>0.9442882640252538</v>
+        <v>0.7872416269986944</v>
       </c>
       <c r="Q4">
-        <v>0.9442882640252538</v>
+        <v>0.7872416269986944</v>
       </c>
       <c r="R4">
-        <v>0.9442882640252538</v>
+        <v>0.8027276414430613</v>
       </c>
       <c r="S4">
-        <v>0.9442882640252538</v>
+        <v>0.8027276414430613</v>
       </c>
       <c r="T4">
-        <v>0.9442882640252538</v>
+        <v>0.8027276414430613</v>
       </c>
       <c r="U4">
-        <v>0.9572564032123818</v>
+        <v>0.8371986963979903</v>
       </c>
       <c r="V4">
-        <v>0.9572564032123818</v>
+        <v>0.8371986963979903</v>
       </c>
       <c r="W4">
-        <v>0.9574365341542622</v>
+        <v>0.8633228427228267</v>
       </c>
       <c r="X4">
-        <v>0.9773565875759646</v>
+        <v>0.9023315075859911</v>
       </c>
       <c r="Y4">
-        <v>0.9773565875759646</v>
+        <v>0.9023315075859911</v>
       </c>
       <c r="Z4">
-        <v>0.9773565875759646</v>
+        <v>0.9023315075859911</v>
       </c>
       <c r="AA4">
-        <v>0.9773565875759646</v>
+        <v>0.9023315075859911</v>
       </c>
       <c r="AB4">
-        <v>0.9941381221251683</v>
+        <v>0.9392916180722609</v>
       </c>
       <c r="AC4">
-        <v>0.99710054293859</v>
+        <v>0.967231803212119</v>
       </c>
       <c r="AD4">
-        <v>0.99710054293859</v>
+        <v>0.967231803212119</v>
       </c>
       <c r="AE4">
-        <v>0.9999999999999999</v>
+        <v>0.9951308910462066</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999999</v>
+        <v>0.9951308910462066</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.9955599482343378</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.9988030939073373</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999999</v>
+        <v>0.9988030939073373</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -1896,91 +1896,91 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.00124145625195416</v>
+        <v>0.02571505670461532</v>
       </c>
       <c r="L5">
-        <v>0.05814812400503525</v>
+        <v>0.09076936219547049</v>
       </c>
       <c r="M5">
-        <v>0.2952538984010569</v>
+        <v>0.2831724605161399</v>
       </c>
       <c r="N5">
-        <v>0.2952538984010569</v>
+        <v>0.2831724605161399</v>
       </c>
       <c r="O5">
-        <v>0.297299375598559</v>
+        <v>0.3094557281222015</v>
       </c>
       <c r="P5">
-        <v>0.3514699728439543</v>
+        <v>0.3725764209401512</v>
       </c>
       <c r="Q5">
-        <v>0.3514699728439543</v>
+        <v>0.3901812188130224</v>
       </c>
       <c r="R5">
-        <v>0.3514699728439543</v>
+        <v>0.3901812188130224</v>
       </c>
       <c r="S5">
-        <v>0.6441770377641207</v>
+        <v>0.6218783922261946</v>
       </c>
       <c r="T5">
-        <v>0.9296987299328829</v>
+        <v>0.8484975796106307</v>
       </c>
       <c r="U5">
-        <v>0.9296987299328829</v>
+        <v>0.8484975796106307</v>
       </c>
       <c r="V5">
-        <v>0.9296987299328829</v>
+        <v>0.8484975796106307</v>
       </c>
       <c r="W5">
-        <v>0.9296987299328829</v>
+        <v>0.8484975796106307</v>
       </c>
       <c r="X5">
-        <v>0.9296987299328829</v>
+        <v>0.8638570285120259</v>
       </c>
       <c r="Y5">
-        <v>0.9296987299328829</v>
+        <v>0.8638570285120259</v>
       </c>
       <c r="Z5">
-        <v>0.9296987299328829</v>
+        <v>0.8638570285120259</v>
       </c>
       <c r="AA5">
-        <v>0.9541866004312238</v>
+        <v>0.9060005950303169</v>
       </c>
       <c r="AB5">
-        <v>0.9541866004312238</v>
+        <v>0.9060005950303169</v>
       </c>
       <c r="AC5">
-        <v>0.978405114533518</v>
+        <v>0.947953804268172</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9880528648044664</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9880528648044664</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9880528648044664</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9880528648044664</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9880528648044664</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9880528648044664</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9880528648044664</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0.9926515831513396</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0.9926515831513396</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>0.9926515831513396</v>
       </c>
       <c r="AN5">
         <v>1</v>
@@ -2003,82 +2003,82 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.001389926877148997</v>
       </c>
       <c r="E6">
-        <v>0.1378949500499274</v>
+        <v>0.1137284140620421</v>
       </c>
       <c r="F6">
-        <v>0.3098310533902134</v>
+        <v>0.2473513506169867</v>
       </c>
       <c r="G6">
-        <v>0.3098310533902134</v>
+        <v>0.2473513506169867</v>
       </c>
       <c r="H6">
-        <v>0.396829135651458</v>
+        <v>0.3278662448612362</v>
       </c>
       <c r="I6">
-        <v>0.4294706898531317</v>
+        <v>0.3743943713967841</v>
       </c>
       <c r="J6">
-        <v>0.4330717780216511</v>
+        <v>0.4027647603347507</v>
       </c>
       <c r="K6">
-        <v>0.4330717780216511</v>
+        <v>0.4027647603347507</v>
       </c>
       <c r="L6">
-        <v>0.5426392770099999</v>
+        <v>0.497391327104963</v>
       </c>
       <c r="M6">
-        <v>0.9069030719087701</v>
+        <v>0.7512683860311038</v>
       </c>
       <c r="N6">
-        <v>0.9069030719087701</v>
+        <v>0.7512683860311038</v>
       </c>
       <c r="O6">
-        <v>0.9069030719087701</v>
+        <v>0.7560483266250864</v>
       </c>
       <c r="P6">
-        <v>0.9069030719087701</v>
+        <v>0.7560483266250864</v>
       </c>
       <c r="Q6">
-        <v>0.9324529046174297</v>
+        <v>0.7981423088243049</v>
       </c>
       <c r="R6">
-        <v>0.9324529046174297</v>
+        <v>0.7981423088243049</v>
       </c>
       <c r="S6">
-        <v>0.9324529046174297</v>
+        <v>0.7981423088243049</v>
       </c>
       <c r="T6">
-        <v>0.9394632808247393</v>
+        <v>0.8286443769692186</v>
       </c>
       <c r="U6">
-        <v>0.9394632808247393</v>
+        <v>0.8286443769692186</v>
       </c>
       <c r="V6">
-        <v>0.9540391424246062</v>
+        <v>0.8638768133664722</v>
       </c>
       <c r="W6">
-        <v>0.9988303579029576</v>
+        <v>0.9180015935200972</v>
       </c>
       <c r="X6">
-        <v>0.9988303579029576</v>
+        <v>0.9180015935200972</v>
       </c>
       <c r="Y6">
-        <v>0.9988303579029576</v>
+        <v>0.9252361533290023</v>
       </c>
       <c r="Z6">
-        <v>0.9988303579029576</v>
+        <v>0.9252361533290023</v>
       </c>
       <c r="AA6">
-        <v>0.9988303579029576</v>
+        <v>0.9474940948412597</v>
       </c>
       <c r="AB6">
-        <v>0.9988303579029576</v>
+        <v>0.9498709960582513</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9767211077493535</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -2185,16 +2185,16 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.5431105480410863</v>
+      </c>
+      <c r="G2">
         <v>6</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.5460684505405589</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8175419376968845</v>
+        <v>0.671947618443147</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -2267,16 +2267,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5689882613182295</v>
+        <v>0.5182884579897438</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6441770377641207</v>
+        <v>0.6218783922261946</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -2349,16 +2349,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5426392770099999</v>
+        <v>0.7512683860311038</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.841356435765713</v>
+        <v>0.73040241197601</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -2485,16 +2485,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8175419376968845</v>
+        <v>0.7049668936946946</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -2526,16 +2526,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7856967963648958</v>
+        <v>0.7733334292539488</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9296987299328829</v>
+        <v>0.8484975796106307</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9069030719087701</v>
+        <v>0.7512683860311038</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -2703,16 +2703,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.841356435765713</v>
+        <v>0.8158912430736773</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -2744,16 +2744,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8175419376968845</v>
+        <v>0.8728213419312186</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -2785,16 +2785,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9442882640252538</v>
+        <v>0.8027276414430613</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9296987299328829</v>
+        <v>0.8484975796106307</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -2867,16 +2867,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9069030719087701</v>
+        <v>0.8286443769692186</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -2962,16 +2962,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9271802849980303</v>
+        <v>0.904095484347118</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -3003,16 +3003,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9523223514318028</v>
+        <v>0.905765447380221</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -3044,16 +3044,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9442882640252538</v>
+        <v>0.9023315075859911</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -3085,16 +3085,16 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9296987299328829</v>
+        <v>0.9060005950303169</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -3126,16 +3126,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9069030719087701</v>
+        <v>0.9180015935200972</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>3</v>
